--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Pictures\kaspi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596F0CDF-DF71-4FE2-AA70-AC1DC04FEA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D516F395-14C2-4059-80C5-37AAEACFBB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$98</definedName>
   </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="199">
   <si>
     <t>model</t>
   </si>
@@ -617,6 +617,15 @@
   </si>
   <si>
     <t>Nike Dunk Low Retro DD1391-103 men 9.5</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
 </sst>
 </file>
@@ -688,7 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -740,15 +749,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -761,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,20 +794,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,20 +1121,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="18.84375" defaultRowHeight="14.6"/>
   <cols>
-    <col min="2" max="2" width="59.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="17"/>
+    <col min="2" max="2" width="59.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.921875" customWidth="1"/>
+    <col min="6" max="6" width="28.15234375" customWidth="1"/>
+    <col min="7" max="7" width="18.84375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1146,3593 +1143,4095 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>972999</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3">
         <v>25000</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>589715</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3">
         <v>25000</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="I3" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>950956</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3">
         <v>55000</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>785234</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3">
         <v>55000</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3">
         <v>55000</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3">
         <v>55000</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3">
         <v>55000</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3">
         <v>55000</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>309150</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3">
         <v>38000</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="I10" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>734002</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3">
         <v>25000</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="I11" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>677390</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3">
         <v>35000</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>677391</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3">
         <v>24000</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>677392</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3">
         <v>26000</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>677393</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="3">
         <v>29000</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>677394</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3">
         <v>33000</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>677395</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3">
         <v>35000</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3">
         <v>25000</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="I18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3">
         <v>27000</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="I19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>508433</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="3">
         <v>38000</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>265072</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3">
         <v>38000</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>911691</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3">
         <v>38000</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>138234</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="3">
         <v>38000</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>362357</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="3">
         <v>38000</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3">
         <v>27000</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="I25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>100005</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="3">
         <v>27000</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="I26" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>100006</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="3">
         <v>39000</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="I27" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>100007</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="3">
         <v>27000</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="I28" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>100008</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="3">
         <v>27000</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="I29" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>100003</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="3">
         <v>27000</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="I30" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="3">
         <v>27000</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="I31" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="4">
         <v>100001</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="3">
         <v>27000</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="I32" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <v>100002</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="3">
         <v>27000</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="I33" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <v>100004</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="3">
         <v>27000</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="I34" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <v>100009</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="3">
         <v>59000</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="5">
         <v>100010</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="3">
         <v>59000</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="4">
         <v>100011</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="3">
         <v>59000</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="5">
         <v>100012</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="3">
         <v>59000</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="4">
         <v>100013</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="3">
         <v>59000</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="H39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="4">
         <v>100014</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="3">
         <v>59000</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="I40" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="4">
         <v>100015</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="3">
         <v>46000</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="4">
         <v>100016</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="3">
         <v>46000</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="4">
         <v>100017</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="3">
         <v>46000</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="4">
         <v>100018</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="3">
         <v>46000</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="4">
         <v>100019</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="3">
         <v>46000</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="4">
         <v>100020</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="3">
         <v>46000</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="4"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="4"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="4"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="4"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="4"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="4"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="4"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="4"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="7">
         <v>100053</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="3">
+      <c r="G63" s="3">
         <v>60000</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="I63" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="7">
         <v>100054</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="3">
+      <c r="G64" s="3">
         <v>60000</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="7">
         <v>100055</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="3">
+      <c r="G65" s="3">
         <v>60000</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="7">
         <v>100056</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="3">
+      <c r="G66" s="3">
         <v>60000</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="7">
         <v>100057</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="3">
+      <c r="G67" s="3">
         <v>60000</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="7">
         <v>100058</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="3">
+      <c r="G68" s="3">
         <v>60000</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="7">
         <v>100059</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="15">
+      <c r="G69" s="13">
         <v>80000</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F69" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="I69" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="7">
         <v>100060</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="15">
+      <c r="G70" s="13">
         <v>80000</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F70" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="I70" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="7">
         <v>100061</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="3">
+      <c r="G71" s="3">
         <v>78000</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="7">
         <v>100062</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="15">
+      <c r="G72" s="13">
         <v>80000</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="I72" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="7">
         <v>100063</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="15">
+      <c r="G73" s="13">
         <v>67000</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="H73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="7">
         <v>100064</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D74" s="15">
+      <c r="G74" s="13">
         <v>67000</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="H74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="4">
         <v>100029</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="3">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="3">
         <v>44000</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="H75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="4">
         <v>100030</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="3">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="3">
         <v>44000</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="H76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="4">
         <v>100031</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="3">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="3">
         <v>44000</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="4">
         <v>100032</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="3">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="3">
         <v>44000</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="H78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="4">
         <v>100033</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="3">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="3">
         <v>44000</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="H79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="4">
         <v>100034</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="3">
         <v>44000</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="H80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="4">
         <v>100035</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="3">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" s="3">
         <v>44000</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="H81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="4">
         <v>100036</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="3">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="3">
         <v>44000</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="H82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="10">
         <v>100072</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="3">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="3">
         <v>44000</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="H83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="4">
         <v>100045</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="3">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" s="3">
         <v>40000</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="H84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="4">
         <v>100046</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="3">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" s="3">
         <v>40000</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="H85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="4">
         <v>100047</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="3">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="3">
         <v>40000</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="H86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="4">
         <v>100048</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="3">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="3">
         <v>40000</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="H87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="7">
         <v>100049</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="3">
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="3">
         <v>40000</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="H88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="7">
         <v>100050</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="3">
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="3">
         <v>40000</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="H89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="7">
         <v>100051</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="3">
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="3">
         <v>40000</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="H90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="7">
         <v>100052</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="3">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="3">
         <v>40000</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="H91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="7">
         <v>100071</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="3">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G92" s="3">
         <v>40000</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="H92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="7">
         <v>100065</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D93" s="3">
+      <c r="G93" s="3">
         <v>55600</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F93" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="I93" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="7">
         <v>100066</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D94" s="3">
+      <c r="G94" s="3">
         <v>55600</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="H94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="7">
         <v>100067</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D95" s="3">
+      <c r="G95" s="3">
         <v>55600</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="H95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="7">
         <v>100068</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D96" s="3">
+      <c r="G96" s="3">
         <v>55600</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="H96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="7">
         <v>100069</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="3">
+      <c r="G97" s="3">
         <v>55600</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="H97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="7">
         <v>100070</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D98" s="3">
+      <c r="G98" s="3">
         <v>55600</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="H98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="7">
         <v>100073</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D99" s="3">
+      <c r="G99" s="3">
         <v>42000</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="H99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="7">
         <v>100074</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D100" s="3">
+      <c r="G100" s="3">
         <v>42000</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="H100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="7">
         <v>100075</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D101" s="3">
+      <c r="G101" s="3">
         <v>42000</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="H101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="7">
         <v>100076</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D102" s="3">
+      <c r="G102" s="3">
         <v>42000</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="H102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="7">
         <v>100077</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D103" s="3">
+      <c r="G103" s="3">
         <v>42000</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="H103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="7">
         <v>100078</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="3">
+      <c r="G104" s="3">
         <v>42000</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="H104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="7">
         <v>100079</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D105" s="3">
+      <c r="G105" s="3">
         <v>42000</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="H105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="7">
         <v>100080</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D106" s="3">
+      <c r="G106" s="3">
         <v>42000</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="H106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="7">
         <v>100081</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D107" s="3">
+      <c r="G107" s="3">
         <v>42000</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="H107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="7">
         <v>100082</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D108" s="3">
+      <c r="G108" s="3">
         <v>42000</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F108" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="H108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="7">
         <v>100083</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D109" s="3">
+      <c r="G109" s="3">
         <v>42000</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="H109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="7">
         <v>100084</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D110" s="3">
+      <c r="G110" s="3">
         <v>42000</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="H110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="7">
         <v>100085</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D111" s="3">
+      <c r="G111" s="3">
         <v>42000</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="H111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="7">
         <v>100086</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D112" s="3">
+      <c r="G112" s="3">
         <v>42000</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="7">
         <v>100087</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D113" s="3">
+      <c r="G113" s="3">
         <v>42000</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="7">
         <v>100088</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D114" s="3">
+      <c r="G114" s="3">
         <v>42000</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="7">
         <v>100089</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D115" s="3">
+      <c r="G115" s="3">
         <v>42000</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="7">
         <v>100090</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D116" s="3">
+      <c r="G116" s="3">
         <v>42000</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" s="1">
-        <v>14</v>
-      </c>
-      <c r="G116" s="12"/>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="7">
         <v>100091</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D117" s="3">
+      <c r="G117" s="3">
         <v>42000</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F117" s="1">
-        <v>14</v>
-      </c>
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="7">
         <v>100092</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D118" s="3">
+      <c r="G118" s="3">
         <v>42000</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F118" s="1">
-        <v>14</v>
-      </c>
-      <c r="G118" s="12"/>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="7">
         <v>100093</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D119" s="3">
+      <c r="G119" s="3">
         <v>42000</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119" s="1">
-        <v>14</v>
-      </c>
-      <c r="G119" s="12"/>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="7">
         <v>100094</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D120" s="3">
+      <c r="G120" s="3">
         <v>42000</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F120" s="1">
-        <v>14</v>
-      </c>
-      <c r="G120" s="12"/>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="7">
         <v>100095</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D121" s="3">
+      <c r="G121" s="3">
         <v>42000</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" s="1">
-        <v>14</v>
-      </c>
-      <c r="G121" s="12"/>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="7">
         <v>100096</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D122" s="3">
+      <c r="G122" s="3">
         <v>42000</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" s="1">
-        <v>14</v>
-      </c>
-      <c r="G122" s="12"/>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="7">
         <v>100097</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D123" s="3">
+      <c r="G123" s="3">
         <v>42000</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F123" s="1">
-        <v>14</v>
-      </c>
-      <c r="G123" s="12"/>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="7">
         <v>100098</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D124" s="3">
+      <c r="G124" s="3">
         <v>42000</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="1">
-        <v>14</v>
-      </c>
-      <c r="G124" s="12"/>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="7">
         <v>100099</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D125" s="3">
+      <c r="G125" s="3">
         <v>42000</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F125" s="1">
-        <v>14</v>
-      </c>
-      <c r="G125" s="12"/>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="7">
         <v>100100</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D126" s="3">
+      <c r="G126" s="3">
         <v>42000</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F126" s="1">
-        <v>14</v>
-      </c>
-      <c r="G126" s="12"/>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="7">
         <v>100101</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D127" s="3">
+      <c r="G127" s="3">
         <v>42000</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127" s="1">
-        <v>14</v>
-      </c>
-      <c r="G127" s="12"/>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="7">
         <v>100102</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D128" s="3">
+      <c r="G128" s="3">
         <v>42000</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F128" s="1">
-        <v>14</v>
-      </c>
-      <c r="G128" s="12"/>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="7">
         <v>100103</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D129" s="3">
+      <c r="G129" s="3">
         <v>42000</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129" s="1">
-        <v>14</v>
-      </c>
-      <c r="G129" s="12"/>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="7">
         <v>100104</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D130" s="3">
+      <c r="G130" s="3">
         <v>42000</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130" s="1">
-        <v>14</v>
-      </c>
-      <c r="G130" s="12"/>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="7">
         <v>100105</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D131" s="3">
+      <c r="G131" s="3">
         <v>42000</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F131" s="1">
-        <v>14</v>
-      </c>
-      <c r="G131" s="12"/>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="7">
         <v>100106</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D132" s="3">
+      <c r="G132" s="3">
         <v>42000</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F132" s="1">
-        <v>14</v>
-      </c>
-      <c r="G132" s="12"/>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="7">
         <v>100107</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D133" s="3">
+      <c r="G133" s="3">
         <v>42000</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F133" s="1">
-        <v>14</v>
-      </c>
-      <c r="G133" s="12"/>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="7">
         <v>100108</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D134" s="3">
+      <c r="G134" s="3">
         <v>42000</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F134" s="1">
-        <v>14</v>
-      </c>
-      <c r="G134" s="12"/>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="7">
         <v>100109</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D135" s="3">
+      <c r="G135" s="3">
         <v>323000</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F135" s="1">
-        <v>14</v>
-      </c>
-      <c r="G135" s="12"/>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="7">
         <v>100110</v>
       </c>
       <c r="B136" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D136" s="3">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" s="3">
         <v>74000</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F136" s="1">
-        <v>14</v>
-      </c>
-      <c r="G136" s="12"/>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="I136" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="7">
         <v>100111</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D137" s="3">
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" s="3">
         <v>77000</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F137" s="1">
-        <v>14</v>
-      </c>
-      <c r="G137" s="12"/>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="7">
         <v>100112</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D138" s="3">
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G138" s="3">
         <v>77000</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F138" s="1">
-        <v>14</v>
-      </c>
-      <c r="G138" s="12"/>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="7">
         <v>100113</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D139" s="3">
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" s="3">
         <v>77000</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F139" s="1">
-        <v>14</v>
-      </c>
-      <c r="G139" s="12"/>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="7">
         <v>100114</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D140" s="3">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G140" s="3">
         <v>77000</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F140" s="1">
-        <v>14</v>
-      </c>
-      <c r="G140" s="12"/>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="7">
         <v>100115</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D141" s="3">
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141" s="3">
         <v>77000</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F141" s="1">
-        <v>14</v>
-      </c>
-      <c r="G141" s="12"/>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="7">
         <v>100116</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D142" s="3">
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G142" s="3">
         <v>77000</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F142" s="1">
-        <v>14</v>
-      </c>
-      <c r="G142" s="12"/>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="7">
         <v>100117</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D143" s="3">
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G143" s="3">
         <v>77000</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" s="1">
-        <v>14</v>
-      </c>
-      <c r="G143" s="12"/>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="7">
         <v>100118</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D144" s="3">
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" s="3">
         <v>77000</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F144" s="1">
-        <v>14</v>
-      </c>
-      <c r="G144" s="12"/>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="7">
         <v>100119</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D145" s="3">
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" s="3">
         <v>77000</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F145" s="13">
-        <v>14</v>
-      </c>
-      <c r="G145" s="14"/>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="7">
         <v>100120</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D146" s="15">
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" s="13">
         <v>80000</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F146" s="13">
-        <v>14</v>
-      </c>
-      <c r="G146" s="14"/>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="7">
         <v>100121</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" s="15">
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147" s="13">
         <v>80000</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F147" s="13">
-        <v>14</v>
-      </c>
-      <c r="G147" s="14"/>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="7">
         <v>100122</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D148" s="15">
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G148" s="13">
         <v>80000</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F148" s="13">
-        <v>14</v>
-      </c>
-      <c r="G148" s="14"/>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="7">
         <v>100123</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D149" s="15">
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" s="13">
         <v>91000</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F149" s="13">
-        <v>14</v>
-      </c>
-      <c r="G149" s="14"/>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="7">
         <v>100124</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D150" s="15">
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G150" s="13">
         <v>91000</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F150" s="13">
-        <v>14</v>
-      </c>
-      <c r="G150" s="14"/>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="7">
         <v>100125</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D151" s="15">
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G151" s="13">
         <v>91000</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F151" s="13">
-        <v>14</v>
-      </c>
-      <c r="G151" s="14"/>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="I151" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="7">
         <v>100126</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D152" s="15">
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G152" s="13">
         <v>91000</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="H152" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F152" s="13">
-        <v>14</v>
-      </c>
-      <c r="G152" s="14"/>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="I152" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="7">
         <v>100127</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D153" s="15">
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G153" s="13">
         <v>91000</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F153" s="13">
-        <v>14</v>
-      </c>
-      <c r="G153" s="14"/>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="I153" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="7">
         <v>100128</v>
       </c>
       <c r="B154" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D154" s="15">
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G154" s="13">
         <v>67000</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F154" s="13">
-        <v>14</v>
-      </c>
-      <c r="G154" s="14"/>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="7">
         <v>100129</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D155" s="15">
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G155" s="13">
         <v>67000</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F155" s="13">
-        <v>14</v>
-      </c>
-      <c r="G155" s="14"/>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="7">
         <v>100130</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D156" s="15">
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G156" s="13">
         <v>67000</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F156" s="13">
-        <v>14</v>
-      </c>
-      <c r="G156" s="14"/>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="7">
         <v>100131</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D157" s="15">
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G157" s="13">
         <v>67000</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F157" s="13">
-        <v>14</v>
-      </c>
-      <c r="G157" s="14"/>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="7">
         <v>100132</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D158" s="15">
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158" s="13">
         <v>76000</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F158" s="13">
-        <v>14</v>
-      </c>
-      <c r="G158" s="14"/>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="7">
         <v>100133</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D159" s="15">
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G159" s="13">
         <v>80000</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F159" s="13">
-        <v>14</v>
-      </c>
-      <c r="G159" s="14"/>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="7">
         <v>100134</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D160" s="15">
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G160" s="13">
         <v>80000</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F160" s="13">
-        <v>14</v>
-      </c>
-      <c r="G160" s="14"/>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="7">
         <v>100135</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D161" s="15">
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G161" s="13">
         <v>80000</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F161" s="13">
-        <v>14</v>
-      </c>
-      <c r="G161" s="14"/>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="7">
         <v>100158</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D162" s="15">
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G162" s="13">
         <v>80000</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F162" s="13">
-        <v>14</v>
-      </c>
-      <c r="G162" s="14"/>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="7">
         <v>100159</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D163" s="15">
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G163" s="13">
         <v>80000</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F163" s="13">
-        <v>14</v>
-      </c>
-      <c r="G163" s="14"/>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="7">
         <v>100160</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D164" s="15">
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G164" s="13">
         <v>80000</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F164" s="13">
-        <v>14</v>
-      </c>
-      <c r="G164" s="14"/>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="7">
         <v>100161</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D165" s="15">
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G165" s="13">
         <v>80000</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F165" s="13">
-        <v>14</v>
-      </c>
-      <c r="G165" s="14"/>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="7">
         <v>100162</v>
       </c>
       <c r="B166" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D166" s="15">
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" s="13">
         <v>80000</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F166" s="13">
-        <v>14</v>
-      </c>
-      <c r="G166" s="14"/>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="7">
         <v>100163</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D167" s="15">
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G167" s="13">
         <v>80000</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" s="13">
-        <v>14</v>
-      </c>
-      <c r="G167" s="14"/>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="7">
         <v>100164</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D168" s="15">
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G168" s="13">
         <v>80000</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F168" s="13">
-        <v>14</v>
-      </c>
-      <c r="G168" s="14"/>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="7">
         <v>100165</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D169" s="15">
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G169" s="13">
         <v>80000</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F169" s="13">
-        <v>14</v>
-      </c>
-      <c r="G169" s="14"/>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="7">
         <v>100152</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D170" s="15">
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" s="13">
         <v>74000</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F170" s="13">
-        <v>14</v>
-      </c>
-      <c r="G170" s="14"/>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="7">
         <v>100153</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D171" s="15">
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G171" s="13">
         <v>74000</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F171" s="13">
-        <v>14</v>
-      </c>
-      <c r="G171" s="14"/>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="7">
         <v>100154</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D172" s="15">
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G172" s="13">
         <v>74000</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F172" s="13">
-        <v>14</v>
-      </c>
-      <c r="G172" s="14"/>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="7">
         <v>100155</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D173" s="15">
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G173" s="13">
         <v>74000</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F173" s="13">
-        <v>14</v>
-      </c>
-      <c r="G173" s="14"/>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="7">
         <v>100156</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D174" s="15">
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G174" s="13">
         <v>74000</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F174" s="13">
-        <v>14</v>
-      </c>
-      <c r="G174" s="14"/>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="7">
         <v>100157</v>
       </c>
       <c r="B175" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D175" s="15">
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G175" s="13">
         <v>74000</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F175" s="13">
-        <v>14</v>
-      </c>
-      <c r="G175" s="14"/>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="7">
         <v>100150</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D176" s="15">
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G176" s="13">
         <v>74000</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F176" s="13">
-        <v>14</v>
-      </c>
-      <c r="G176" s="14"/>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="7">
         <v>100151</v>
       </c>
       <c r="B177" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D177" s="15">
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G177" s="13">
         <v>74000</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F177" s="13">
-        <v>14</v>
-      </c>
-      <c r="G177" s="14"/>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I177" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="7">
         <v>100167</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D178" s="15">
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G178" s="13">
         <v>124000</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F178" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="7">
         <v>100168</v>
       </c>
       <c r="B179" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D179" s="15">
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G179" s="13">
         <v>124000</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F179" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I179" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="7">
         <v>100169</v>
       </c>
       <c r="B180" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D180" s="15">
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G180" s="13">
         <v>124000</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F180" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="7">
         <v>100166</v>
       </c>
       <c r="B181" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D181" s="15">
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G181" s="13">
         <v>124000</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F181" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="7">
         <v>100170</v>
       </c>
       <c r="B182" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C182" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D182" s="15">
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G182" s="13">
         <v>110000</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F182" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I182" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="7">
         <v>100171</v>
       </c>
       <c r="B183" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D183" s="15">
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G183" s="13">
         <v>110000</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F183" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I183" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="7">
         <v>100172</v>
       </c>
       <c r="B184" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D184" s="15">
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G184" s="13">
         <v>110000</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F184" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I184" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="7">
         <v>100165</v>
       </c>
       <c r="B185" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D185" s="15">
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G185" s="13">
         <v>110000</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F185" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="7">
         <v>100175</v>
       </c>
       <c r="B186" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D186" s="16">
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G186" s="13">
         <v>56000</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F186" s="1">
+      <c r="H186" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I186" s="1">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showErrorMessage="1" errorTitle="Ошибка" error="Длина строки превышает допустимое значение!" sqref="B63:B74 B93:B98" xr:uid="{A1013F27-C731-45DC-A196-0A10BBAF090D}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showErrorMessage="1" errorTitle="Ошибка" error="Длина строки превышает допустимое значение!" sqref="B63:E74 B93:E98" xr:uid="{A1013F27-C731-45DC-A196-0A10BBAF090D}">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -4754,10 +5253,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="136.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2C0699-8A4F-473C-880F-3A371C55AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A738E4-A9BC-4E3E-B202-8B26BC98F07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -219,15 +219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="A1:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -572,13 +569,13 @@
       <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -604,7 +601,9 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
@@ -620,7 +619,9 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -636,7 +637,9 @@
       <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -652,7 +655,9 @@
       <c r="G5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -668,7 +673,9 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -684,7 +691,9 @@
       <c r="G7" s="1">
         <v>6</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -698,7 +707,9 @@
       <c r="G8" s="1">
         <v>7</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -714,7 +725,9 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
@@ -728,7 +741,9 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
@@ -742,7 +757,9 @@
       <c r="G11" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
@@ -756,7 +773,9 @@
       <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
@@ -770,7 +789,9 @@
       <c r="G13" s="1">
         <v>5</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
@@ -784,7 +805,9 @@
       <c r="G14" s="1">
         <v>6</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
@@ -798,7 +821,9 @@
       <c r="G15" s="1">
         <v>7</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -810,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -847,13 +872,13 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -879,6 +904,9 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
@@ -894,6 +922,9 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -909,6 +940,9 @@
       <c r="G4" s="1">
         <v>3</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -924,6 +958,9 @@
       <c r="G5" s="1">
         <v>4</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -939,6 +976,9 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -954,6 +994,9 @@
       <c r="G7" s="1">
         <v>6</v>
       </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -967,6 +1010,9 @@
       <c r="G8" s="1">
         <v>7</v>
       </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -982,6 +1028,9 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
@@ -995,6 +1044,9 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
@@ -1008,6 +1060,9 @@
       <c r="G11" s="1">
         <v>3</v>
       </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
@@ -1021,6 +1076,9 @@
       <c r="G12" s="1">
         <v>4</v>
       </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
@@ -1034,6 +1092,9 @@
       <c r="G13" s="1">
         <v>5</v>
       </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
@@ -1047,6 +1108,9 @@
       <c r="G14" s="1">
         <v>6</v>
       </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
@@ -1060,8 +1124,23 @@
       <c r="G15" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>500101</v>
       </c>
@@ -1083,8 +1162,11 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>500102</v>
       </c>
@@ -1098,8 +1180,11 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>500103</v>
       </c>
@@ -1113,8 +1198,11 @@
       <c r="G19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>500104</v>
       </c>
@@ -1128,8 +1216,11 @@
       <c r="G20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>500105</v>
       </c>
@@ -1143,8 +1234,11 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>500106</v>
       </c>
@@ -1158,8 +1252,11 @@
       <c r="G22" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>500107</v>
       </c>
@@ -1171,8 +1268,11 @@
       <c r="G23" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>500108</v>
       </c>
@@ -1184,13 +1284,25 @@
       <c r="G24" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G25" s="2">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>500201</v>
       </c>
@@ -1212,8 +1324,11 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>500202</v>
       </c>
@@ -1227,8 +1342,11 @@
       <c r="G27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>500203</v>
       </c>
@@ -1242,8 +1360,11 @@
       <c r="G28" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>500204</v>
       </c>
@@ -1257,8 +1378,11 @@
       <c r="G29" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>500205</v>
       </c>
@@ -1270,8 +1394,11 @@
       <c r="G30" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>500206</v>
       </c>
@@ -1283,8 +1410,11 @@
       <c r="G31" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>500207</v>
       </c>
@@ -1296,8 +1426,11 @@
       <c r="G32" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>500208</v>
       </c>
@@ -1309,6 +1442,9 @@
       <c r="G33" s="1">
         <v>8</v>
       </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A738E4-A9BC-4E3E-B202-8B26BC98F07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA7375F-10E3-4945-A6A2-13248A23BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>model</t>
   </si>
@@ -58,9 +58,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>sku</t>
   </si>
   <si>
@@ -73,24 +70,6 @@
     <t>image</t>
   </si>
   <si>
-    <t>100001_1</t>
-  </si>
-  <si>
-    <t>100001_2</t>
-  </si>
-  <si>
-    <t>100001_3</t>
-  </si>
-  <si>
-    <t>100001_4</t>
-  </si>
-  <si>
-    <t>100001_5</t>
-  </si>
-  <si>
-    <t>100001_6</t>
-  </si>
-  <si>
     <t>grey</t>
   </si>
   <si>
@@ -161,6 +140,9 @@
   </si>
   <si>
     <t>size EU</t>
+  </si>
+  <si>
+    <t>100001_1, 100001_2, 100001_3</t>
   </si>
 </sst>
 </file>
@@ -534,7 +516,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="A1:J15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -549,7 +531,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -564,13 +546,13 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -587,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -596,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -613,9 +595,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -631,9 +611,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -649,9 +627,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>4</v>
       </c>
@@ -667,9 +643,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>5</v>
       </c>
@@ -685,9 +659,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>6</v>
       </c>
@@ -719,7 +691,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -835,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -852,7 +824,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -867,13 +839,13 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -890,16 +862,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -917,7 +889,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -935,7 +907,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -953,7 +925,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -971,7 +943,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -989,7 +961,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -1022,7 +994,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -1148,16 +1120,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1175,7 +1147,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -1193,7 +1165,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -1211,7 +1183,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G20" s="1">
         <v>4</v>
@@ -1229,7 +1201,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1">
         <v>5</v>
@@ -1247,7 +1219,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G22" s="1">
         <v>6</v>
@@ -1310,16 +1282,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1337,7 +1309,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
@@ -1355,7 +1327,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -1373,7 +1345,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G29" s="1">
         <v>4</v>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA7375F-10E3-4945-A6A2-13248A23BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78A2E05-7C62-44A7-9F42-E4AF396D0383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>model</t>
   </si>
@@ -73,54 +73,6 @@
     <t>grey</t>
   </si>
   <si>
-    <t>500001_1</t>
-  </si>
-  <si>
-    <t>500001_2</t>
-  </si>
-  <si>
-    <t>500001_3</t>
-  </si>
-  <si>
-    <t>500001_4</t>
-  </si>
-  <si>
-    <t>500001_5</t>
-  </si>
-  <si>
-    <t>500001_6</t>
-  </si>
-  <si>
-    <t>500100_1</t>
-  </si>
-  <si>
-    <t>500100_2</t>
-  </si>
-  <si>
-    <t>500100_3</t>
-  </si>
-  <si>
-    <t>500100_4</t>
-  </si>
-  <si>
-    <t>500100_5</t>
-  </si>
-  <si>
-    <t>500100_6</t>
-  </si>
-  <si>
-    <t>500201_1</t>
-  </si>
-  <si>
-    <t>500201_2</t>
-  </si>
-  <si>
-    <t>500201_3</t>
-  </si>
-  <si>
-    <t>500201_4</t>
-  </si>
-  <si>
     <t>white green</t>
   </si>
   <si>
@@ -142,7 +94,16 @@
     <t>size EU</t>
   </si>
   <si>
-    <t>100001_1, 100001_2, 100001_3</t>
+    <t>100001_1 100001_2 100001_3</t>
+  </si>
+  <si>
+    <t>500001_1 500001_2 500001_3</t>
+  </si>
+  <si>
+    <t>500100_1 500100_2 500100_3</t>
+  </si>
+  <si>
+    <t>500201_1 500201_2 500201_3</t>
   </si>
 </sst>
 </file>
@@ -515,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -549,10 +510,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -578,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -807,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F27:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -842,10 +803,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -862,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -871,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -888,9 +849,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -906,9 +865,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -924,9 +881,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>4</v>
       </c>
@@ -942,9 +897,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>5</v>
       </c>
@@ -960,9 +913,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>6</v>
       </c>
@@ -1120,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1146,9 +1097,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>2</v>
       </c>
@@ -1164,9 +1113,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1">
         <v>3</v>
       </c>
@@ -1182,9 +1129,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1">
         <v>4</v>
       </c>
@@ -1200,9 +1145,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1">
         <v>5</v>
       </c>
@@ -1218,9 +1161,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>6</v>
       </c>
@@ -1282,16 +1223,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1308,9 +1249,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>2</v>
       </c>
@@ -1326,9 +1265,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1">
         <v>3</v>
       </c>
@@ -1344,9 +1281,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1">
         <v>4</v>
       </c>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78A2E05-7C62-44A7-9F42-E4AF396D0383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A3B43-2D68-430D-9EB6-E2B8265C8C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>model</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>500201_1 500201_2 500201_3</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -490,7 +493,7 @@
     <col min="9" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -521,8 +524,11 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>100001</v>
       </c>
@@ -547,8 +553,11 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>100002</v>
       </c>
@@ -563,8 +572,11 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>100003</v>
       </c>
@@ -579,8 +591,11 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>100004</v>
       </c>
@@ -595,8 +610,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>100005</v>
       </c>
@@ -611,8 +629,11 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>100006</v>
       </c>
@@ -627,8 +648,11 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>100007</v>
       </c>
@@ -643,8 +667,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>100008</v>
       </c>
@@ -661,8 +688,11 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>100009</v>
       </c>
@@ -677,8 +707,11 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>100010</v>
       </c>
@@ -693,8 +726,11 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>100011</v>
       </c>
@@ -709,8 +745,11 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>100012</v>
       </c>
@@ -725,8 +764,11 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>100013</v>
       </c>
@@ -741,8 +783,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>100014</v>
       </c>
@@ -757,6 +802,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -766,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F27:F29"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -783,7 +831,7 @@
     <col min="8" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -814,8 +862,11 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>500001</v>
       </c>
@@ -840,8 +891,11 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>500002</v>
       </c>
@@ -856,8 +910,11 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>500003</v>
       </c>
@@ -872,8 +929,11 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>500004</v>
       </c>
@@ -888,8 +948,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>500005</v>
       </c>
@@ -904,8 +967,11 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>500006</v>
       </c>
@@ -920,8 +986,11 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>500007</v>
       </c>
@@ -936,8 +1005,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>500008</v>
       </c>
@@ -954,8 +1026,11 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>500009</v>
       </c>
@@ -970,8 +1045,11 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>500010</v>
       </c>
@@ -986,8 +1064,11 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>500011</v>
       </c>
@@ -1002,8 +1083,11 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>500012</v>
       </c>
@@ -1018,8 +1102,11 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>500013</v>
       </c>
@@ -1034,8 +1121,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>500014</v>
       </c>
@@ -1050,8 +1140,11 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1062,8 +1155,11 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>500101</v>
       </c>
@@ -1088,8 +1184,11 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>500102</v>
       </c>
@@ -1104,8 +1203,11 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>500103</v>
       </c>
@@ -1120,8 +1222,11 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>500104</v>
       </c>
@@ -1136,8 +1241,11 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>500105</v>
       </c>
@@ -1152,8 +1260,11 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>500106</v>
       </c>
@@ -1168,8 +1279,11 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>500107</v>
       </c>
@@ -1184,8 +1298,11 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>500108</v>
       </c>
@@ -1200,8 +1317,11 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1214,8 +1334,11 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>500201</v>
       </c>
@@ -1240,8 +1363,11 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>500202</v>
       </c>
@@ -1256,8 +1382,11 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>500203</v>
       </c>
@@ -1272,8 +1401,11 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>500204</v>
       </c>
@@ -1288,8 +1420,11 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>500205</v>
       </c>
@@ -1304,8 +1439,11 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>500206</v>
       </c>
@@ -1320,8 +1458,11 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>500207</v>
       </c>
@@ -1336,8 +1477,11 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>500208</v>
       </c>
@@ -1352,6 +1496,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A3B43-2D68-430D-9EB6-E2B8265C8C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870F8BEA-70D8-4FC7-8F27-5EAFD62637F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
   <si>
     <t>model</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>500008_1 500008_2 500008_3</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -551,7 +554,9 @@
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>50000</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
@@ -570,7 +575,9 @@
         <v>2</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>50000</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
         <v>26</v>
@@ -589,7 +596,9 @@
         <v>3</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>50000</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
         <v>26</v>
@@ -608,7 +617,9 @@
         <v>4</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>50000</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
         <v>26</v>
@@ -627,7 +638,9 @@
         <v>5</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>50000</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
         <v>26</v>
@@ -646,7 +659,9 @@
         <v>6</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>50000</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
         <v>26</v>
@@ -665,7 +680,9 @@
         <v>7</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>50000</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
         <v>26</v>
@@ -686,7 +703,9 @@
         <v>1</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>50000</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
         <v>26</v>
@@ -705,7 +724,9 @@
         <v>2</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>50000</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
         <v>26</v>
@@ -724,7 +745,9 @@
         <v>3</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>50000</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
         <v>26</v>
@@ -743,7 +766,9 @@
         <v>4</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>50000</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
         <v>26</v>
@@ -762,7 +787,9 @@
         <v>5</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>50000</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>26</v>
@@ -781,7 +808,9 @@
         <v>6</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>50000</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
         <v>26</v>
@@ -800,7 +829,9 @@
         <v>7</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>50000</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
         <v>26</v>
@@ -817,7 +848,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K33"/>
+      <selection activeCell="I2" sqref="I2:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -889,7 +920,9 @@
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>60000</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>26</v>
@@ -908,7 +941,9 @@
         <v>2</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>60000</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
         <v>26</v>
@@ -927,7 +962,9 @@
         <v>3</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>60000</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
         <v>26</v>
@@ -946,7 +983,9 @@
         <v>4</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>60000</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
         <v>26</v>
@@ -965,7 +1004,9 @@
         <v>5</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>60000</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
         <v>26</v>
@@ -984,7 +1025,9 @@
         <v>6</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>60000</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
         <v>26</v>
@@ -1003,7 +1046,9 @@
         <v>7</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>60000</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
         <v>26</v>
@@ -1017,14 +1062,18 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>60000</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
         <v>26</v>
@@ -1043,7 +1092,9 @@
         <v>2</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>60000</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
         <v>26</v>
@@ -1062,7 +1113,9 @@
         <v>3</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>60000</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
         <v>26</v>
@@ -1081,7 +1134,9 @@
         <v>4</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>60000</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
         <v>26</v>
@@ -1100,7 +1155,9 @@
         <v>5</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>60000</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>26</v>
@@ -1119,7 +1176,9 @@
         <v>6</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>60000</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
         <v>26</v>
@@ -1138,7 +1197,9 @@
         <v>7</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>60000</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
         <v>26</v>
@@ -1153,7 +1214,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>60000</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
         <v>26</v>
@@ -1182,7 +1245,9 @@
         <v>1</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>60000</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
         <v>26</v>
@@ -1201,7 +1266,9 @@
         <v>2</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>60000</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
         <v>26</v>
@@ -1220,7 +1287,9 @@
         <v>3</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>60000</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
         <v>26</v>
@@ -1239,7 +1308,9 @@
         <v>4</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>60000</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
         <v>26</v>
@@ -1258,7 +1329,9 @@
         <v>5</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1">
+        <v>60000</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
         <v>26</v>
@@ -1277,7 +1350,9 @@
         <v>6</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1">
+        <v>60000</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
         <v>26</v>
@@ -1296,7 +1371,9 @@
         <v>7</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>60000</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
         <v>26</v>
@@ -1315,7 +1392,9 @@
         <v>8</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1">
+        <v>60000</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
         <v>26</v>
@@ -1332,7 +1411,9 @@
         <v>9</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1">
+        <v>60000</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
         <v>26</v>
@@ -1361,7 +1442,9 @@
         <v>1</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1">
+        <v>60000</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
         <v>26</v>
@@ -1380,7 +1463,9 @@
         <v>2</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1">
+        <v>60000</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
         <v>26</v>
@@ -1399,7 +1484,9 @@
         <v>3</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1">
+        <v>60000</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
         <v>26</v>
@@ -1418,7 +1505,9 @@
         <v>4</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1">
+        <v>60000</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
         <v>26</v>
@@ -1437,7 +1526,9 @@
         <v>5</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1">
+        <v>60000</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
         <v>26</v>
@@ -1456,7 +1547,9 @@
         <v>6</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1">
+        <v>60000</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
         <v>26</v>
@@ -1475,7 +1568,9 @@
         <v>7</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1">
+        <v>60000</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
         <v>26</v>
@@ -1494,7 +1589,9 @@
         <v>8</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1">
+        <v>60000</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
         <v>26</v>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870F8BEA-70D8-4FC7-8F27-5EAFD62637F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5B8146-4ECD-4AA2-99CB-D6727BB9E394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
   <si>
     <t>model</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>500008_1 500008_2 500008_3</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="K1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -493,10 +496,12 @@
     <col min="4" max="5" width="9.23046875" style="2"/>
     <col min="6" max="6" width="29.07421875" style="2" customWidth="1"/>
     <col min="7" max="8" width="11.69140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.23046875" style="2"/>
+    <col min="9" max="11" width="9.23046875" style="2"/>
+    <col min="12" max="12" width="10.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -530,8 +535,11 @@
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>100001</v>
       </c>
@@ -561,8 +569,9 @@
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>100002</v>
       </c>
@@ -582,8 +591,9 @@
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>100003</v>
       </c>
@@ -603,8 +613,9 @@
       <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>100004</v>
       </c>
@@ -624,8 +635,9 @@
       <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>100005</v>
       </c>
@@ -645,8 +657,9 @@
       <c r="K6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>100006</v>
       </c>
@@ -666,8 +679,9 @@
       <c r="K7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>100007</v>
       </c>
@@ -687,8 +701,9 @@
       <c r="K8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>100008</v>
       </c>
@@ -710,8 +725,9 @@
       <c r="K9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>100009</v>
       </c>
@@ -731,8 +747,9 @@
       <c r="K10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>100010</v>
       </c>
@@ -752,8 +769,9 @@
       <c r="K11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>100011</v>
       </c>
@@ -773,8 +791,9 @@
       <c r="K12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>100012</v>
       </c>
@@ -794,8 +813,9 @@
       <c r="K13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>100013</v>
       </c>
@@ -815,8 +835,9 @@
       <c r="K14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>100014</v>
       </c>
@@ -836,6 +857,7 @@
       <c r="K15" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -845,10 +867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -859,10 +881,12 @@
     <col min="5" max="5" width="11.84375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.07421875" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.69140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.23046875" style="2"/>
+    <col min="8" max="11" width="9.23046875" style="2"/>
+    <col min="12" max="12" width="10.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +920,11 @@
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>500001</v>
       </c>
@@ -927,8 +954,9 @@
       <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>500002</v>
       </c>
@@ -948,8 +976,9 @@
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>500003</v>
       </c>
@@ -969,8 +998,9 @@
       <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>500004</v>
       </c>
@@ -990,8 +1020,9 @@
       <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>500005</v>
       </c>
@@ -1011,8 +1042,9 @@
       <c r="K6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>500006</v>
       </c>
@@ -1032,8 +1064,9 @@
       <c r="K7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>500007</v>
       </c>
@@ -1053,8 +1086,9 @@
       <c r="K8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>500008</v>
       </c>
@@ -1078,8 +1112,9 @@
       <c r="K9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>500009</v>
       </c>
@@ -1099,8 +1134,9 @@
       <c r="K10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>500010</v>
       </c>
@@ -1120,8 +1156,9 @@
       <c r="K11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>500011</v>
       </c>
@@ -1141,8 +1178,9 @@
       <c r="K12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>500012</v>
       </c>
@@ -1162,8 +1200,9 @@
       <c r="K13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>500013</v>
       </c>
@@ -1183,8 +1222,9 @@
       <c r="K14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>500014</v>
       </c>
@@ -1204,8 +1244,9 @@
       <c r="K15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1221,8 +1262,9 @@
       <c r="K16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>500101</v>
       </c>
@@ -1252,8 +1294,9 @@
       <c r="K17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>500102</v>
       </c>
@@ -1273,8 +1316,9 @@
       <c r="K18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>500103</v>
       </c>
@@ -1294,8 +1338,9 @@
       <c r="K19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>500104</v>
       </c>
@@ -1315,8 +1360,9 @@
       <c r="K20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>500105</v>
       </c>
@@ -1336,8 +1382,9 @@
       <c r="K21" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>500106</v>
       </c>
@@ -1357,8 +1404,9 @@
       <c r="K22" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>500107</v>
       </c>
@@ -1378,8 +1426,9 @@
       <c r="K23" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>500108</v>
       </c>
@@ -1399,8 +1448,9 @@
       <c r="K24" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1418,8 +1468,9 @@
       <c r="K25" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>500201</v>
       </c>
@@ -1449,8 +1500,9 @@
       <c r="K26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>500202</v>
       </c>
@@ -1470,8 +1522,9 @@
       <c r="K27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>500203</v>
       </c>
@@ -1491,8 +1544,9 @@
       <c r="K28" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>500204</v>
       </c>
@@ -1512,8 +1566,9 @@
       <c r="K29" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>500205</v>
       </c>
@@ -1533,8 +1588,9 @@
       <c r="K30" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>500206</v>
       </c>
@@ -1554,8 +1610,9 @@
       <c r="K31" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>500207</v>
       </c>
@@ -1575,8 +1632,9 @@
       <c r="K32" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>500208</v>
       </c>
@@ -1596,6 +1654,7 @@
       <c r="K33" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5B8146-4ECD-4AA2-99CB-D6727BB9E394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C1FD8B-D7C9-4240-85D9-68A6C35AE084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
   <si>
     <t>model</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>in stock</t>
   </si>
 </sst>
 </file>
@@ -870,7 +873,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L33"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -918,7 +921,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>28</v>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C1FD8B-D7C9-4240-85D9-68A6C35AE084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AAB713-7A55-4BEB-BBA1-BF43A1DD9BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="K1:L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>28</v>
@@ -872,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AAB713-7A55-4BEB-BBA1-BF43A1DD9BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BABB141-83F0-473D-B048-5B385B78D248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
     <sheet name="Mizuno" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoka" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
   <si>
     <t>model</t>
   </si>
@@ -116,12 +117,36 @@
   </si>
   <si>
     <t>in stock</t>
+  </si>
+  <si>
+    <t>Hoka</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>600001_1 600001_2 600001_3 600001_4 600001_5 600001_6 600001_7</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>HOKA ONE ONE Kaha 3 (1162532-RWL)</t>
+  </si>
+  <si>
+    <t>HOKA ONE ONE Kaha 2 Frost GTX (1155194-HYW)</t>
+  </si>
+  <si>
+    <t>600009_1 600009_2 600009_3 600009_4 600009_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0_ ;[Red]\-0.0\ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,12 +199,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -872,7 +909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -1663,4 +1700,592 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F105B3-D1AB-4524-9EC3-00B6BED1E5F9}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="9.23046875" style="2"/>
+    <col min="3" max="3" width="42" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.23046875" style="2"/>
+    <col min="6" max="6" width="60.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.69140625" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9.23046875" style="2"/>
+    <col min="12" max="12" width="10.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.23046875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>600001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40</v>
+      </c>
+      <c r="I2" s="6">
+        <f>M2</f>
+        <v>176175.5263157895</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="5">
+        <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
+        <v>176175.5263157895</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>600002</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>40.666666666666664</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I17" si="0">M3</f>
+        <v>192920.26315789475</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M17" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
+        <v>192920.26315789475</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>600003</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>17578.947368421053</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>17578.947368421053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>600004</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>42</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>261493.94736842107</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>261493.94736842107</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>600005</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4">
+        <v>42.666666666666664</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>192920.26315789475</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>192920.26315789475</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>600006</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>208867.63157894739</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>208867.63157894739</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>600007</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>200893.94736842107</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>200893.94736842107</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>600008</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44.666666666666664</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>208867.63157894739</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>208867.63157894739</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>600009</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>40</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>154885.78947368421</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>154885.78947368421</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>600010</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>40.666666666666664</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>130566.05263157895</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>130566.05263157895</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>600011</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>138380.26315789475</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>138380.26315789475</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>600012</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>42</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>138699.21052631579</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>138699.21052631579</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>600013</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4">
+        <v>42.666666666666664</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>133994.73684210528</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>133994.73684210528</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>600014</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>140293.94736842107</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="5">
+        <f t="shared" si="1"/>
+        <v>140293.94736842107</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>600015</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="0"/>
+        <v>138380.26315789475</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
+        <v>138380.26315789475</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>600016</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>44.666666666666664</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="0"/>
+        <v>136626.05263157896</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>136626.05263157896</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BABB141-83F0-473D-B048-5B385B78D248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A073F971-BD2A-424D-91EF-A958D336DF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
     <sheet name="Mizuno" sheetId="4" r:id="rId2"/>
     <sheet name="Hoka" sheetId="6" r:id="rId3"/>
+    <sheet name="The North Face" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="41">
   <si>
     <t>model</t>
   </si>
@@ -138,6 +139,18 @@
   </si>
   <si>
     <t>600009_1 600009_2 600009_3 600009_4 600009_5</t>
+  </si>
+  <si>
+    <t>THE NORTH FACE</t>
+  </si>
+  <si>
+    <t>THE NORTH FACE GLENCLYFFE</t>
+  </si>
+  <si>
+    <t>700001_1 700001_2 700001_3 700001_4</t>
+  </si>
+  <si>
+    <t>unisex</t>
   </si>
 </sst>
 </file>
@@ -199,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +230,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1706,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F105B3-D1AB-4524-9EC3-00B6BED1E5F9}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2288,4 +2307,492 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0F729F-C529-4664-B380-6B3D1560D1EA}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.23046875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>700001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>38.5</v>
+      </c>
+      <c r="I2" s="6">
+        <f>M2</f>
+        <v>121157.10526315789</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="5">
+        <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
+        <v>121157.10526315789</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>700002</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="7">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7">
+        <v>39</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I17" si="0">M3</f>
+        <v>113183.42105263159</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M17" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
+        <v>113183.42105263159</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>700003</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>121157.10526315789</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>121157.10526315789</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>700004</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="7">
+        <v>8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>40.5</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>121157.10526315789</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>121157.10526315789</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>700005</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>41</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>113183.42105263159</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>113183.42105263159</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>700006</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7">
+        <v>42</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>113183.42105263159</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>113183.42105263159</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>700007</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="H8" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>118366.31578947369</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>118366.31578947369</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>700008</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>43</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>103615</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>103615</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>700009</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>44</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>118366.31578947369</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>118366.31578947369</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>700010</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>700011</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>700012</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>700013</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>700014</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>700015</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>700016</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G18" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A073F971-BD2A-424D-91EF-A958D336DF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55B40E3-4C54-4FE2-8DC9-49E31C420327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,13 +144,13 @@
     <t>THE NORTH FACE</t>
   </si>
   <si>
-    <t>THE NORTH FACE GLENCLYFFE</t>
-  </si>
-  <si>
     <t>700001_1 700001_2 700001_3 700001_4</t>
   </si>
   <si>
     <t>unisex</t>
+  </si>
+  <si>
+    <t>GLENCLYFFE</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0_ ;[Red]\-0.0\ "/>
+    <numFmt numFmtId="164" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -233,9 +233,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -928,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -1726,7 +1723,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:N17"/>
+      <selection activeCell="I2" sqref="I2:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1736,7 +1733,8 @@
     <col min="4" max="5" width="9.23046875" style="2"/>
     <col min="6" max="6" width="60.53515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.69140625" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9.23046875" style="2"/>
+    <col min="9" max="9" width="17.61328125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.23046875" style="2"/>
     <col min="12" max="12" width="10.07421875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.765625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.23046875" style="2"/>
@@ -1805,7 +1803,7 @@
       <c r="H2" s="1">
         <v>40</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <f>M2</f>
         <v>176175.5263157895</v>
       </c>
@@ -1836,7 +1834,7 @@
       <c r="H3" s="4">
         <v>40.666666666666664</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <f t="shared" ref="I3:I17" si="0">M3</f>
         <v>192920.26315789475</v>
       </c>
@@ -1868,7 +1866,7 @@
       <c r="H4" s="4">
         <v>41.333333333333336</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <f t="shared" si="0"/>
         <v>17578.947368421053</v>
       </c>
@@ -1897,7 +1895,7 @@
       <c r="H5" s="1">
         <v>42</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>261493.94736842107</v>
       </c>
@@ -1929,7 +1927,7 @@
       <c r="H6" s="4">
         <v>42.666666666666664</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <f t="shared" si="0"/>
         <v>192920.26315789475</v>
       </c>
@@ -1961,7 +1959,7 @@
       <c r="H7" s="4">
         <v>43.333333333333336</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
         <v>208867.63157894739</v>
       </c>
@@ -1993,7 +1991,7 @@
       <c r="H8" s="1">
         <v>44</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <f t="shared" si="0"/>
         <v>200893.94736842107</v>
       </c>
@@ -2025,7 +2023,7 @@
       <c r="H9" s="4">
         <v>44.666666666666664</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <f t="shared" si="0"/>
         <v>208867.63157894739</v>
       </c>
@@ -2063,7 +2061,7 @@
       <c r="H10" s="1">
         <v>40</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <f t="shared" si="0"/>
         <v>154885.78947368421</v>
       </c>
@@ -2095,7 +2093,7 @@
       <c r="H11" s="4">
         <v>40.666666666666664</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <f t="shared" si="0"/>
         <v>130566.05263157895</v>
       </c>
@@ -2127,7 +2125,7 @@
       <c r="H12" s="4">
         <v>41.333333333333336</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="7">
         <f t="shared" si="0"/>
         <v>138380.26315789475</v>
       </c>
@@ -2159,7 +2157,7 @@
       <c r="H13" s="1">
         <v>42</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>138699.21052631579</v>
       </c>
@@ -2191,7 +2189,7 @@
       <c r="H14" s="4">
         <v>42.666666666666664</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <f t="shared" si="0"/>
         <v>133994.73684210528</v>
       </c>
@@ -2223,7 +2221,7 @@
       <c r="H15" s="4">
         <v>43.333333333333336</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="7">
         <f t="shared" si="0"/>
         <v>140293.94736842107</v>
       </c>
@@ -2255,7 +2253,7 @@
       <c r="H16" s="1">
         <v>44</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="7">
         <f t="shared" si="0"/>
         <v>138380.26315789475</v>
       </c>
@@ -2287,7 +2285,7 @@
       <c r="H17" s="4">
         <v>44.666666666666664</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="7">
         <f t="shared" si="0"/>
         <v>136626.05263157896</v>
       </c>
@@ -2311,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0F729F-C529-4664-B380-6B3D1560D1EA}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2373,21 +2371,21 @@
         <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="7">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1">
         <v>6.5</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="1">
         <v>38.5</v>
       </c>
       <c r="I2" s="6">
@@ -2416,14 +2414,14 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="7">
+      <c r="G3" s="1">
         <v>7</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="1">
         <v>39</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I17" si="0">M3</f>
+        <f t="shared" ref="I3:I10" si="0">M3</f>
         <v>113183.42105263159</v>
       </c>
       <c r="J3" s="1"/>
@@ -2432,7 +2430,7 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M17" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
+        <f t="shared" ref="M3:M10" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
         <v>113183.42105263159</v>
       </c>
       <c r="N3" s="2">
@@ -2448,10 +2446,10 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="7">
+      <c r="G4" s="1">
         <v>7.5</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="1">
         <v>40</v>
       </c>
       <c r="I4" s="6">
@@ -2480,10 +2478,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="7">
+      <c r="G5" s="1">
         <v>8</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="1">
         <v>40.5</v>
       </c>
       <c r="I5" s="6">
@@ -2512,10 +2510,10 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="7">
+      <c r="G6" s="1">
         <v>8.5</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="1">
         <v>41</v>
       </c>
       <c r="I6" s="6">
@@ -2544,10 +2542,10 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="7">
+      <c r="G7" s="1">
         <v>9</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="1">
         <v>42</v>
       </c>
       <c r="I7" s="6">
@@ -2576,10 +2574,10 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="7">
+      <c r="G8" s="1">
         <v>9.5</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="1">
         <v>42.5</v>
       </c>
       <c r="I8" s="6">
@@ -2608,10 +2606,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="7">
+      <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="1">
         <v>43</v>
       </c>
       <c r="I9" s="6">
@@ -2640,10 +2638,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="7">
+      <c r="G10" s="1">
         <v>10.5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="1">
         <v>44</v>
       </c>
       <c r="I10" s="6">
@@ -2672,8 +2670,8 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2690,8 +2688,8 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2708,8 +2706,8 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2726,8 +2724,8 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2744,8 +2742,8 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2762,8 +2760,8 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2780,8 +2778,8 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2789,9 +2787,6 @@
       <c r="M17" s="5"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="G18" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55B40E3-4C54-4FE2-8DC9-49E31C420327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8781E2-7576-46A8-931A-D34336CF2AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
     <sheet name="Mizuno" sheetId="4" r:id="rId2"/>
     <sheet name="Hoka" sheetId="6" r:id="rId3"/>
     <sheet name="The North Face" sheetId="7" r:id="rId4"/>
+    <sheet name="Timberland" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="45">
   <si>
     <t>model</t>
   </si>
@@ -63,9 +64,6 @@
     <t>sku</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Air Force 1 Low 07 (CW2288-111)</t>
   </si>
   <si>
@@ -151,6 +149,21 @@
   </si>
   <si>
     <t>GLENCLYFFE</t>
+  </si>
+  <si>
+    <t>Timberland</t>
+  </si>
+  <si>
+    <t>Greenstride Motion 6</t>
+  </si>
+  <si>
+    <t>800001_1 800001_2 800001_3 800001_4 800001_5</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>100016_1 100016_2 100016_3 100016_4 100016_5 100016_6</t>
   </si>
 </sst>
 </file>
@@ -212,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,9 +243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -550,14 +560,14 @@
     <col min="1" max="2" width="9.23046875" style="2"/>
     <col min="3" max="3" width="31.84375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.23046875" style="2"/>
-    <col min="6" max="6" width="29.07421875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.921875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.69140625" style="2" customWidth="1"/>
     <col min="9" max="11" width="9.23046875" style="2"/>
     <col min="12" max="12" width="10.07421875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -574,13 +584,13 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -589,13 +599,13 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>100001</v>
       </c>
@@ -603,31 +613,41 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1">
-        <v>50000</v>
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I2" s="6">
+        <f>M2</f>
+        <v>63746.578947368427</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M2" s="5">
+        <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N2" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>100002</v>
       </c>
@@ -637,19 +657,29 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>50000</v>
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I31" si="0">M3</f>
+        <v>63746.578947368427</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M31" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N3" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>100003</v>
       </c>
@@ -659,19 +689,29 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>50000</v>
+        <v>4.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N4" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>100004</v>
       </c>
@@ -681,19 +721,29 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>50000</v>
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N5" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>100005</v>
       </c>
@@ -703,19 +753,29 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>50000</v>
+        <v>5.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>38</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N6" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>100006</v>
       </c>
@@ -727,17 +787,27 @@
       <c r="G7" s="1">
         <v>6</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>50000</v>
+      <c r="H7" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N7" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>100007</v>
       </c>
@@ -747,43 +817,61 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>50000</v>
+        <v>6.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>39</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N8" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>100008</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>50000</v>
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>40</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N9" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>100009</v>
       </c>
@@ -793,19 +881,29 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>50000</v>
+        <v>7.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N10" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>100010</v>
       </c>
@@ -815,19 +913,29 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>50000</v>
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>41</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N11" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>100011</v>
       </c>
@@ -837,19 +945,29 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>50000</v>
+        <v>8.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>42</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N12" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>100012</v>
       </c>
@@ -859,19 +977,29 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>50000</v>
+        <v>9</v>
+      </c>
+      <c r="H13" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N13" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>100013</v>
       </c>
@@ -881,19 +1009,29 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
-        <v>50000</v>
+        <v>9.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>43</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N14" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>100014</v>
       </c>
@@ -903,17 +1041,543 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>7</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
-        <v>50000</v>
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>44</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" s="1"/>
+      <c r="M15" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N15" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>100015</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N16" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>100016</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N17" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>100017</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>36</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N18" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>100018</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N19" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>100019</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N20" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>100020</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>38</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N21" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>100021</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N22" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>100022</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>39</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N23" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>100023</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1">
+        <v>40</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N24" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>100024</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N25" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>100025</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>41</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N26" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>100026</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>42</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N27" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>100027</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N28" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>100028</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>43</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N29" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>100029</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N30" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>100030</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="0"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="5">
+        <f t="shared" si="1"/>
+        <v>63746.578947368427</v>
+      </c>
+      <c r="N31" s="2">
+        <v>579</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -959,13 +1623,13 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -974,10 +1638,10 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -988,16 +1652,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -1008,7 +1672,7 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -1030,7 +1694,7 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -1052,7 +1716,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1"/>
     </row>
@@ -1074,7 +1738,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -1096,7 +1760,7 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1"/>
     </row>
@@ -1118,7 +1782,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -1140,7 +1804,7 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1"/>
     </row>
@@ -1155,7 +1819,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1166,7 +1830,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -1188,7 +1852,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -1210,7 +1874,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -1232,7 +1896,7 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="1"/>
     </row>
@@ -1254,7 +1918,7 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -1276,7 +1940,7 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L14" s="1"/>
     </row>
@@ -1298,7 +1962,7 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -1316,7 +1980,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L16" s="1"/>
     </row>
@@ -1328,16 +1992,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1348,7 +2012,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -1370,7 +2034,7 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -1392,7 +2056,7 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -1414,7 +2078,7 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -1436,7 +2100,7 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -1458,7 +2122,7 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -1480,7 +2144,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -1502,7 +2166,7 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -1522,7 +2186,7 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -1534,16 +2198,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
@@ -1554,7 +2218,7 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L26" s="1"/>
     </row>
@@ -1576,7 +2240,7 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -1598,7 +2262,7 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L28" s="1"/>
     </row>
@@ -1620,7 +2284,7 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L29" s="1"/>
     </row>
@@ -1642,7 +2306,7 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L30" s="1"/>
     </row>
@@ -1664,7 +2328,7 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L31" s="1"/>
     </row>
@@ -1686,7 +2350,7 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L32" s="1"/>
     </row>
@@ -1708,7 +2372,7 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L33" s="1"/>
     </row>
@@ -1757,13 +2421,13 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1772,10 +2436,10 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
@@ -1783,19 +2447,19 @@
         <v>600001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="1">
         <v>7</v>
@@ -1803,13 +2467,13 @@
       <c r="H2" s="1">
         <v>40</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="1">
         <f>M2</f>
         <v>176175.5263157895</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="5">
@@ -1834,13 +2498,13 @@
       <c r="H3" s="4">
         <v>40.666666666666664</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="1">
         <f t="shared" ref="I3:I17" si="0">M3</f>
         <v>192920.26315789475</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="5">
@@ -1866,13 +2530,13 @@
       <c r="H4" s="4">
         <v>41.333333333333336</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="1">
         <f t="shared" si="0"/>
         <v>17578.947368421053</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="5">
@@ -1895,13 +2559,13 @@
       <c r="H5" s="1">
         <v>42</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>261493.94736842107</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5">
@@ -1927,13 +2591,13 @@
       <c r="H6" s="4">
         <v>42.666666666666664</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="1">
         <f t="shared" si="0"/>
         <v>192920.26315789475</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="5">
@@ -1959,13 +2623,13 @@
       <c r="H7" s="4">
         <v>43.333333333333336</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>208867.63157894739</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="5">
@@ -1991,13 +2655,13 @@
       <c r="H8" s="1">
         <v>44</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>200893.94736842107</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="5">
@@ -2023,13 +2687,13 @@
       <c r="H9" s="4">
         <v>44.666666666666664</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>208867.63157894739</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="5">
@@ -2046,14 +2710,14 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1">
         <v>7</v>
@@ -2061,13 +2725,13 @@
       <c r="H10" s="1">
         <v>40</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="1">
         <f t="shared" si="0"/>
         <v>154885.78947368421</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="5">
@@ -2093,13 +2757,13 @@
       <c r="H11" s="4">
         <v>40.666666666666664</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="1">
         <f t="shared" si="0"/>
         <v>130566.05263157895</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="5">
@@ -2125,13 +2789,13 @@
       <c r="H12" s="4">
         <v>41.333333333333336</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="1">
         <f t="shared" si="0"/>
         <v>138380.26315789475</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="5">
@@ -2157,13 +2821,13 @@
       <c r="H13" s="1">
         <v>42</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="1">
         <f t="shared" si="0"/>
         <v>138699.21052631579</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="5">
@@ -2189,13 +2853,13 @@
       <c r="H14" s="4">
         <v>42.666666666666664</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="1">
         <f t="shared" si="0"/>
         <v>133994.73684210528</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="5">
@@ -2221,13 +2885,13 @@
       <c r="H15" s="4">
         <v>43.333333333333336</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="1">
         <f t="shared" si="0"/>
         <v>140293.94736842107</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="5">
@@ -2253,13 +2917,13 @@
       <c r="H16" s="1">
         <v>44</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="1">
         <f t="shared" si="0"/>
         <v>138380.26315789475</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="5">
@@ -2285,13 +2949,13 @@
       <c r="H17" s="4">
         <v>44.666666666666664</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="1">
         <f t="shared" si="0"/>
         <v>136626.05263157896</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="5">
@@ -2311,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0F729F-C529-4664-B380-6B3D1560D1EA}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2340,13 +3004,13 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2355,10 +3019,10 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -2368,19 +3032,19 @@
         <v>700001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1">
         <v>6.5</v>
@@ -2394,7 +3058,7 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="5">
@@ -2426,7 +3090,7 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="5">
@@ -2458,7 +3122,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="5">
@@ -2490,7 +3154,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5">
@@ -2522,7 +3186,7 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="5">
@@ -2554,7 +3218,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="5">
@@ -2586,7 +3250,7 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="5">
@@ -2618,7 +3282,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="5">
@@ -2650,7 +3314,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="5">
@@ -2790,4 +3454,489 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AFF6B0-2ED8-40AD-89AB-0D56B3E2506F}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.23046875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>800001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="I2" s="6">
+        <f>M2</f>
+        <v>121157.10526315789</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="5">
+        <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
+        <v>121157.10526315789</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>800002</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>40</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I10" si="0">M3</f>
+        <v>78099.210526315786</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M10" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
+        <v>78099.210526315786</v>
+      </c>
+      <c r="N3" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>800003</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>41</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>72278.421052631587</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>72278.421052631587</v>
+      </c>
+      <c r="N4" s="2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>800004</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>67733.421052631587</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>67733.421052631587</v>
+      </c>
+      <c r="N5" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>800005</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>42</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>76504.473684210534</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>76504.473684210534</v>
+      </c>
+      <c r="N6" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>800006</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>77301.84210526316</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>77301.84210526316</v>
+      </c>
+      <c r="N7" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>800007</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>69647.105263157893</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>69647.105263157893</v>
+      </c>
+      <c r="N8" s="2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>800008</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>74830</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>74830</v>
+      </c>
+      <c r="N9" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>800009</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>97236.052631578947</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>97236.052631578947</v>
+      </c>
+      <c r="N10" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>800010</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>800011</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>800012</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>800013</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>800014</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>800015</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>800016</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8781E2-7576-46A8-931A-D34336CF2AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A94BF-C02F-491C-8599-9FDC087961A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="46">
   <si>
     <t>model</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>100016_1 100016_2 100016_3 100016_4 100016_5 100016_6</t>
+  </si>
+  <si>
+    <t>Cygnal</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -663,7 +666,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I31" si="0">M3</f>
+        <f t="shared" ref="I3:I46" si="0">M3</f>
         <v>63746.578947368427</v>
       </c>
       <c r="J3" s="1"/>
@@ -672,7 +675,7 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M31" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
+        <f t="shared" ref="M3:M46" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
         <v>63746.578947368427</v>
       </c>
       <c r="N3" s="2">
@@ -1577,6 +1580,486 @@
       </c>
       <c r="N31" s="2">
         <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>100031</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="0"/>
+        <v>17578.947368421053</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="5">
+        <f t="shared" si="1"/>
+        <v>17578.947368421053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>100032</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1">
+        <v>36</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>73315</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="5">
+        <f t="shared" si="1"/>
+        <v>73315</v>
+      </c>
+      <c r="N33" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>100033</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="0"/>
+        <v>65341.315789473687</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="5">
+        <f t="shared" si="1"/>
+        <v>65341.315789473687</v>
+      </c>
+      <c r="N34" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>100034</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="0"/>
+        <v>17578.947368421053</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="5">
+        <f t="shared" si="1"/>
+        <v>17578.947368421053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>100035</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>38</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="0"/>
+        <v>65341.315789473687</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="5">
+        <f t="shared" si="1"/>
+        <v>65341.315789473687</v>
+      </c>
+      <c r="N36" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>100036</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="0"/>
+        <v>56570.26315789474</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="5">
+        <f t="shared" si="1"/>
+        <v>56570.26315789474</v>
+      </c>
+      <c r="N37" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>100037</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>39</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="0"/>
+        <v>50191.315789473687</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="5">
+        <f t="shared" si="1"/>
+        <v>50191.315789473687</v>
+      </c>
+      <c r="N38" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>100038</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1">
+        <v>7</v>
+      </c>
+      <c r="H39" s="1">
+        <v>40</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="0"/>
+        <v>55772.894736842107</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="5">
+        <f t="shared" si="1"/>
+        <v>55772.894736842107</v>
+      </c>
+      <c r="N39" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>100039</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="0"/>
+        <v>57367.631578947374</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="5">
+        <f t="shared" si="1"/>
+        <v>57367.631578947374</v>
+      </c>
+      <c r="N40" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>100040</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1">
+        <v>41</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="0"/>
+        <v>143563.15789473685</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="5">
+        <f t="shared" si="1"/>
+        <v>143563.15789473685</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>100041</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>42</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="0"/>
+        <v>136626.05263157896</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="5">
+        <f t="shared" si="1"/>
+        <v>136626.05263157896</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>100042</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1">
+        <v>9</v>
+      </c>
+      <c r="H43" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="0"/>
+        <v>69647.105263157893</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="5">
+        <f t="shared" si="1"/>
+        <v>69647.105263157893</v>
+      </c>
+      <c r="N43" s="2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>100043</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H44" s="1">
+        <v>43</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="0"/>
+        <v>65341.315789473687</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="5">
+        <f t="shared" si="1"/>
+        <v>65341.315789473687</v>
+      </c>
+      <c r="N44" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>100044</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1">
+        <v>10</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="0"/>
+        <v>87029.736842105267</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="5">
+        <f t="shared" si="1"/>
+        <v>87029.736842105267</v>
+      </c>
+      <c r="N45" s="2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>100045</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="0"/>
+        <v>73155.526315789481</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="5">
+        <f t="shared" si="1"/>
+        <v>73155.526315789481</v>
+      </c>
+      <c r="N46" s="2">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F105B3-D1AB-4524-9EC3-00B6BED1E5F9}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I17"/>
     </sheetView>
   </sheetViews>
@@ -2975,7 +3458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0F729F-C529-4664-B380-6B3D1560D1EA}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A94BF-C02F-491C-8599-9FDC087961A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4798F2EF-297D-4DD6-AB2E-429CE30D2FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="5">
@@ -3459,7 +3459,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3943,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AFF6B0-2ED8-40AD-89AB-0D56B3E2506F}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="5">

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4798F2EF-297D-4DD6-AB2E-429CE30D2FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D8E3B1-BEA7-44B3-A6C2-EAAB3776B251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="47">
   <si>
     <t>model</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Cygnal</t>
+  </si>
+  <si>
+    <t>1000031_1 1000031_2 1000031_3 1000031_4 1000031_5 1000031_6</t>
   </si>
 </sst>
 </file>
@@ -554,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31:K32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -563,7 +566,7 @@
     <col min="1" max="2" width="9.23046875" style="2"/>
     <col min="3" max="3" width="31.84375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.23046875" style="2"/>
-    <col min="6" max="6" width="51.921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.07421875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.69140625" style="2" customWidth="1"/>
     <col min="9" max="11" width="9.23046875" style="2"/>
     <col min="12" max="12" width="10.07421875" style="2" bestFit="1" customWidth="1"/>
@@ -1596,7 +1599,9 @@
       <c r="E32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G32" s="1">
         <v>3.5</v>
       </c>
@@ -1609,7 +1614,7 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="5">
@@ -3944,7 +3949,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4026,7 +4031,7 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="5">

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D8E3B1-BEA7-44B3-A6C2-EAAB3776B251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394CC5F5-338D-41FD-AFBF-35BB0644A1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -169,7 +169,7 @@
     <t>Cygnal</t>
   </si>
   <si>
-    <t>1000031_1 1000031_2 1000031_3 1000031_4 1000031_5 1000031_6</t>
+    <t>100031_1 100031_2 100031_3 100031_4 100031_5 100031_6</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3948,7 +3948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AFF6B0-2ED8-40AD-89AB-0D56B3E2506F}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394CC5F5-338D-41FD-AFBF-35BB0644A1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91190C38-F602-449A-A769-9293C3CFD206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Hoka" sheetId="6" r:id="rId3"/>
     <sheet name="The North Face" sheetId="7" r:id="rId4"/>
     <sheet name="Timberland" sheetId="9" r:id="rId5"/>
+    <sheet name="Adidas" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="50">
   <si>
     <t>model</t>
   </si>
@@ -170,6 +171,15 @@
   </si>
   <si>
     <t>100031_1 100031_2 100031_3 100031_4 100031_5 100031_6</t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puffylette </t>
+  </si>
+  <si>
+    <t>900001_1 900001_2 900001_3 900001_4 900001_5 900001_6</t>
   </si>
 </sst>
 </file>
@@ -557,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -4427,4 +4437,489 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B19D1D-483E-48F2-ADAB-DFF52736FC78}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.23046875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>900001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="I2" s="6">
+        <f>M2</f>
+        <v>121157.10526315789</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="5">
+        <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
+        <v>121157.10526315789</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>900002</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>40</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I10" si="0">M3</f>
+        <v>78099.210526315786</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M10" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
+        <v>78099.210526315786</v>
+      </c>
+      <c r="N3" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>900003</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>41</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>72278.421052631587</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>72278.421052631587</v>
+      </c>
+      <c r="N4" s="2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>900004</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>67733.421052631587</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>67733.421052631587</v>
+      </c>
+      <c r="N5" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>900005</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>42</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>76504.473684210534</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>76504.473684210534</v>
+      </c>
+      <c r="N6" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>900006</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>77301.84210526316</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>77301.84210526316</v>
+      </c>
+      <c r="N7" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>900007</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>69647.105263157893</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>69647.105263157893</v>
+      </c>
+      <c r="N8" s="2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>900008</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>74830</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>74830</v>
+      </c>
+      <c r="N9" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>900009</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>97236.052631578947</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>97236.052631578947</v>
+      </c>
+      <c r="N10" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>900010</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>900011</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>900012</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>900013</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>900014</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>900015</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>900016</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91190C38-F602-449A-A769-9293C3CFD206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8862062C-A4AA-42D8-9805-0A0DE2A3A9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="The North Face" sheetId="7" r:id="rId4"/>
     <sheet name="Timberland" sheetId="9" r:id="rId5"/>
     <sheet name="Adidas" sheetId="10" r:id="rId6"/>
+    <sheet name="Native" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="53">
   <si>
     <t>model</t>
   </si>
@@ -180,6 +181,15 @@
   </si>
   <si>
     <t>900001_1 900001_2 900001_3 900001_4 900001_5 900001_6</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>110001_1 110001_2 110001_3 110001_4 110001_5</t>
+  </si>
+  <si>
+    <t>Fitzsimmons 3</t>
   </si>
 </sst>
 </file>
@@ -4443,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B19D1D-483E-48F2-ADAB-DFF52736FC78}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4506,7 +4516,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>30</v>
@@ -4515,10 +4525,10 @@
         <v>49</v>
       </c>
       <c r="G2" s="1">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>39.5</v>
+        <v>35.5</v>
       </c>
       <c r="I2" s="6">
         <f>M2</f>
@@ -4547,14 +4557,14 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I10" si="0">M3</f>
-        <v>78099.210526315786</v>
+        <v>43812.368421052633</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
@@ -4563,10 +4573,10 @@
       <c r="L3" s="1"/>
       <c r="M3" s="5">
         <f t="shared" ref="M3:M10" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
-        <v>78099.210526315786</v>
+        <v>43812.368421052633</v>
       </c>
       <c r="N3" s="2">
-        <v>759</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -4579,14 +4589,14 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="0"/>
-        <v>72278.421052631587</v>
+        <v>44609.736842105267</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
@@ -4595,10 +4605,10 @@
       <c r="L4" s="1"/>
       <c r="M4" s="5">
         <f t="shared" si="1"/>
-        <v>72278.421052631587</v>
+        <v>44609.736842105267</v>
       </c>
       <c r="N4" s="2">
-        <v>686</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -4611,14 +4621,14 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1">
-        <v>41.5</v>
+        <v>39</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>67733.421052631587</v>
+        <v>43812.368421052633</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
@@ -4627,10 +4637,10 @@
       <c r="L5" s="1"/>
       <c r="M5" s="5">
         <f t="shared" si="1"/>
-        <v>67733.421052631587</v>
+        <v>43812.368421052633</v>
       </c>
       <c r="N5" s="2">
-        <v>629</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -4643,14 +4653,14 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>76504.473684210534</v>
+        <v>45407.1052631579</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
@@ -4659,10 +4669,10 @@
       <c r="L6" s="1"/>
       <c r="M6" s="5">
         <f t="shared" si="1"/>
-        <v>76504.473684210534</v>
+        <v>45407.1052631579</v>
       </c>
       <c r="N6" s="2">
-        <v>739</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -4675,14 +4685,14 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>77301.84210526316</v>
+        <v>47799.210526315794</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
@@ -4691,10 +4701,10 @@
       <c r="L7" s="1"/>
       <c r="M7" s="5">
         <f t="shared" si="1"/>
-        <v>77301.84210526316</v>
+        <v>47799.210526315794</v>
       </c>
       <c r="N7" s="2">
-        <v>749</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -4707,14 +4717,14 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1">
-        <v>43.5</v>
+        <v>43</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>69647.105263157893</v>
+        <v>49393.947368421053</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
@@ -4723,10 +4733,10 @@
       <c r="L8" s="1"/>
       <c r="M8" s="5">
         <f t="shared" si="1"/>
-        <v>69647.105263157893</v>
+        <v>49393.947368421053</v>
       </c>
       <c r="N8" s="2">
-        <v>653</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -4742,11 +4752,11 @@
         <v>10</v>
       </c>
       <c r="H9" s="1">
-        <v>44</v>
+        <v>44.5</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>74830</v>
+        <v>48596.57894736842</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
@@ -4755,10 +4765,10 @@
       <c r="L9" s="1"/>
       <c r="M9" s="5">
         <f t="shared" si="1"/>
-        <v>74830</v>
+        <v>48596.57894736842</v>
       </c>
       <c r="N9" s="2">
-        <v>718</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -4770,16 +4780,9 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>44.5</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="0"/>
-        <v>97236.052631578947</v>
-      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
         <v>25</v>
@@ -4922,4 +4925,495 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1129E8C7-496E-4AC5-9F63-2C6E81B9B7D4}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.23046875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>110001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>35</v>
+      </c>
+      <c r="I2" s="6">
+        <f>M2</f>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="5">
+        <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="N2" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>110002</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>36</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I12" si="0">M3</f>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M12" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="N3" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>110003</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>37</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="N4" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>110004</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>38</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="N5" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>110005</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>39</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="N6" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>110006</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>40</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="N7" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>110007</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>41</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="N8" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>110008</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>42</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="N9" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>110009</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>43</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="N10" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>110010</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>44</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="N11" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>110011</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>45</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>49154.736842105267</v>
+      </c>
+      <c r="N12" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>110012</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>110013</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>110014</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>110015</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>110016</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8862062C-A4AA-42D8-9805-0A0DE2A3A9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95983954-E98D-4677-80EB-0D2F292C97FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -658,7 +658,7 @@
       </c>
       <c r="I2" s="6">
         <f>M2</f>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
@@ -666,8 +666,8 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="5">
-        <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
-        <v>63746.578947368427</v>
+        <f>(N2*75+N2*75*0.01+12500+4200+5000)/0.95</f>
+        <v>69009.736842105267</v>
       </c>
       <c r="N2" s="2">
         <v>579</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I46" si="0">M3</f>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
@@ -698,8 +698,8 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M46" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
-        <v>63746.578947368427</v>
+        <f t="shared" ref="M3:M46" si="1">(N3*75+N3*75*0.01+12500+4200+5000)/0.95</f>
+        <v>69009.736842105267</v>
       </c>
       <c r="N3" s="2">
         <v>579</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
@@ -731,7 +731,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N4" s="2">
         <v>579</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
@@ -763,7 +763,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N5" s="2">
         <v>579</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
@@ -795,7 +795,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N6" s="2">
         <v>579</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
@@ -827,7 +827,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N7" s="2">
         <v>579</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
@@ -859,7 +859,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N8" s="2">
         <v>579</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
@@ -891,7 +891,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N9" s="2">
         <v>579</v>
@@ -914,7 +914,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
@@ -923,7 +923,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N10" s="2">
         <v>579</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
@@ -955,7 +955,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N11" s="2">
         <v>579</v>
@@ -978,7 +978,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
@@ -987,7 +987,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N12" s="2">
         <v>579</v>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
@@ -1019,7 +1019,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N13" s="2">
         <v>579</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
@@ -1051,7 +1051,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N14" s="2">
         <v>579</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
@@ -1083,7 +1083,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N15" s="2">
         <v>579</v>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
@@ -1115,7 +1115,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N16" s="2">
         <v>579</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
@@ -1151,7 +1151,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N17" s="2">
         <v>579</v>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
@@ -1183,7 +1183,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N18" s="2">
         <v>579</v>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
@@ -1215,7 +1215,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N19" s="2">
         <v>579</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
@@ -1247,7 +1247,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N20" s="2">
         <v>579</v>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
@@ -1279,7 +1279,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N21" s="2">
         <v>579</v>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
@@ -1311,7 +1311,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N22" s="2">
         <v>579</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
@@ -1343,7 +1343,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N23" s="2">
         <v>579</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
@@ -1375,7 +1375,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N24" s="2">
         <v>579</v>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
@@ -1407,7 +1407,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N25" s="2">
         <v>579</v>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
@@ -1439,7 +1439,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N26" s="2">
         <v>579</v>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
@@ -1471,7 +1471,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N27" s="2">
         <v>579</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I28" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
@@ -1503,7 +1503,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N28" s="2">
         <v>579</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I29" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
@@ -1535,7 +1535,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N29" s="2">
         <v>579</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I30" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
@@ -1567,7 +1567,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N30" s="2">
         <v>579</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I31" s="6">
         <f t="shared" si="0"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
@@ -1599,7 +1599,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="5">
         <f t="shared" si="1"/>
-        <v>63746.578947368427</v>
+        <v>69009.736842105267</v>
       </c>
       <c r="N31" s="2">
         <v>579</v>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="I32" s="6">
         <f t="shared" si="0"/>
-        <v>17578.947368421053</v>
+        <v>78578.15789473684</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
@@ -1639,7 +1639,10 @@
       <c r="L32" s="1"/>
       <c r="M32" s="5">
         <f t="shared" si="1"/>
-        <v>17578.947368421053</v>
+        <v>78578.15789473684</v>
+      </c>
+      <c r="N32" s="2">
+        <v>699</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
@@ -1659,7 +1662,7 @@
       </c>
       <c r="I33" s="6">
         <f t="shared" si="0"/>
-        <v>73315</v>
+        <v>78578.15789473684</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
@@ -1668,7 +1671,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="5">
         <f t="shared" si="1"/>
-        <v>73315</v>
+        <v>78578.15789473684</v>
       </c>
       <c r="N33" s="2">
         <v>699</v>
@@ -1691,7 +1694,7 @@
       </c>
       <c r="I34" s="6">
         <f t="shared" si="0"/>
-        <v>65341.315789473687</v>
+        <v>70604.473684210534</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
@@ -1700,7 +1703,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="5">
         <f t="shared" si="1"/>
-        <v>65341.315789473687</v>
+        <v>70604.473684210534</v>
       </c>
       <c r="N34" s="2">
         <v>599</v>
@@ -1723,7 +1726,7 @@
       </c>
       <c r="I35" s="6">
         <f t="shared" si="0"/>
-        <v>17578.947368421053</v>
+        <v>22842.105263157897</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
@@ -1732,7 +1735,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="5">
         <f t="shared" si="1"/>
-        <v>17578.947368421053</v>
+        <v>22842.105263157897</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
@@ -1752,7 +1755,7 @@
       </c>
       <c r="I36" s="6">
         <f t="shared" si="0"/>
-        <v>65341.315789473687</v>
+        <v>70604.473684210534</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
@@ -1761,7 +1764,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="5">
         <f t="shared" si="1"/>
-        <v>65341.315789473687</v>
+        <v>70604.473684210534</v>
       </c>
       <c r="N36" s="2">
         <v>599</v>
@@ -1784,7 +1787,7 @@
       </c>
       <c r="I37" s="6">
         <f t="shared" si="0"/>
-        <v>56570.26315789474</v>
+        <v>61833.42105263158</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
@@ -1793,7 +1796,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="5">
         <f t="shared" si="1"/>
-        <v>56570.26315789474</v>
+        <v>61833.42105263158</v>
       </c>
       <c r="N37" s="2">
         <v>489</v>
@@ -1816,7 +1819,7 @@
       </c>
       <c r="I38" s="6">
         <f t="shared" si="0"/>
-        <v>50191.315789473687</v>
+        <v>55454.473684210527</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
@@ -1825,7 +1828,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="5">
         <f t="shared" si="1"/>
-        <v>50191.315789473687</v>
+        <v>55454.473684210527</v>
       </c>
       <c r="N38" s="2">
         <v>409</v>
@@ -1848,7 +1851,7 @@
       </c>
       <c r="I39" s="6">
         <f t="shared" si="0"/>
-        <v>55772.894736842107</v>
+        <v>61036.052631578947</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
@@ -1857,7 +1860,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="5">
         <f t="shared" si="1"/>
-        <v>55772.894736842107</v>
+        <v>61036.052631578947</v>
       </c>
       <c r="N39" s="2">
         <v>479</v>
@@ -1880,7 +1883,7 @@
       </c>
       <c r="I40" s="6">
         <f t="shared" si="0"/>
-        <v>57367.631578947374</v>
+        <v>62630.789473684214</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
@@ -1889,7 +1892,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="5">
         <f t="shared" si="1"/>
-        <v>57367.631578947374</v>
+        <v>62630.789473684214</v>
       </c>
       <c r="N40" s="2">
         <v>499</v>
@@ -1912,7 +1915,7 @@
       </c>
       <c r="I41" s="6">
         <f t="shared" si="0"/>
-        <v>143563.15789473685</v>
+        <v>148826.31578947368</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
@@ -1921,7 +1924,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="5">
         <f t="shared" si="1"/>
-        <v>143563.15789473685</v>
+        <v>148826.31578947368</v>
       </c>
       <c r="N41" s="2">
         <v>1580</v>
@@ -1944,7 +1947,7 @@
       </c>
       <c r="I42" s="6">
         <f t="shared" si="0"/>
-        <v>136626.05263157896</v>
+        <v>141889.21052631579</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
@@ -1953,7 +1956,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="5">
         <f t="shared" si="1"/>
-        <v>136626.05263157896</v>
+        <v>141889.21052631579</v>
       </c>
       <c r="N42" s="2">
         <v>1493</v>
@@ -1976,7 +1979,7 @@
       </c>
       <c r="I43" s="6">
         <f t="shared" si="0"/>
-        <v>69647.105263157893</v>
+        <v>74910.263157894748</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
@@ -1985,7 +1988,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="5">
         <f t="shared" si="1"/>
-        <v>69647.105263157893</v>
+        <v>74910.263157894748</v>
       </c>
       <c r="N43" s="2">
         <v>653</v>
@@ -2008,7 +2011,7 @@
       </c>
       <c r="I44" s="6">
         <f t="shared" si="0"/>
-        <v>65341.315789473687</v>
+        <v>70604.473684210534</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
@@ -2017,7 +2020,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="5">
         <f t="shared" si="1"/>
-        <v>65341.315789473687</v>
+        <v>70604.473684210534</v>
       </c>
       <c r="N44" s="2">
         <v>599</v>
@@ -2040,7 +2043,7 @@
       </c>
       <c r="I45" s="6">
         <f t="shared" si="0"/>
-        <v>87029.736842105267</v>
+        <v>92292.894736842107</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
@@ -2049,7 +2052,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="5">
         <f t="shared" si="1"/>
-        <v>87029.736842105267</v>
+        <v>92292.894736842107</v>
       </c>
       <c r="N45" s="2">
         <v>871</v>
@@ -2072,7 +2075,7 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="0"/>
-        <v>73155.526315789481</v>
+        <v>78418.68421052632</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
@@ -2081,7 +2084,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="5">
         <f t="shared" si="1"/>
-        <v>73155.526315789481</v>
+        <v>78418.68421052632</v>
       </c>
       <c r="N46" s="2">
         <v>697</v>
@@ -2095,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2114,7 +2117,7 @@
     <col min="13" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>500001</v>
       </c>
@@ -2175,16 +2178,24 @@
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1">
-        <v>60000</v>
+      <c r="I2" s="6">
+        <f>M2</f>
+        <v>69009.736842105267</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M2" s="5">
+        <f>(N2*75+N2*75*0.01+12500+4200+5000)/0.95</f>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N2" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>500002</v>
       </c>
@@ -2197,16 +2208,24 @@
         <v>2</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>60000</v>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I33" si="0">M3</f>
+        <v>69009.736842105267</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M33" si="1">(N3*75+N3*75*0.01+12500+4200+5000)/0.95</f>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N3" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>500003</v>
       </c>
@@ -2219,16 +2238,24 @@
         <v>3</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>60000</v>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N4" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>500004</v>
       </c>
@@ -2241,16 +2268,24 @@
         <v>4</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>60000</v>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N5" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>500005</v>
       </c>
@@ -2263,16 +2298,24 @@
         <v>5</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>60000</v>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N6" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>500006</v>
       </c>
@@ -2285,16 +2328,24 @@
         <v>6</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>60000</v>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N7" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>500007</v>
       </c>
@@ -2307,16 +2358,24 @@
         <v>7</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>60000</v>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N8" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>500008</v>
       </c>
@@ -2333,16 +2392,24 @@
         <v>1</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>60000</v>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N9" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>500009</v>
       </c>
@@ -2355,16 +2422,24 @@
         <v>2</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>60000</v>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N10" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>500010</v>
       </c>
@@ -2377,16 +2452,24 @@
         <v>3</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>60000</v>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N11" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>500011</v>
       </c>
@@ -2399,16 +2482,24 @@
         <v>4</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>60000</v>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N12" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>500012</v>
       </c>
@@ -2421,16 +2512,24 @@
         <v>5</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>60000</v>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N13" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>500013</v>
       </c>
@@ -2443,16 +2542,24 @@
         <v>6</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1">
-        <v>60000</v>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N14" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>500014</v>
       </c>
@@ -2465,16 +2572,24 @@
         <v>7</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1">
-        <v>60000</v>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M15" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N15" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2483,16 +2598,24 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1">
-        <v>60000</v>
+      <c r="I16" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N16" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>500101</v>
       </c>
@@ -2515,16 +2638,24 @@
         <v>1</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1">
-        <v>60000</v>
+      <c r="I17" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N17" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>500102</v>
       </c>
@@ -2537,16 +2668,24 @@
         <v>2</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1">
-        <v>60000</v>
+      <c r="I18" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M18" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N18" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>500103</v>
       </c>
@@ -2559,16 +2698,24 @@
         <v>3</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1">
-        <v>60000</v>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M19" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N19" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>500104</v>
       </c>
@@ -2581,16 +2728,24 @@
         <v>4</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1">
-        <v>60000</v>
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M20" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N20" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>500105</v>
       </c>
@@ -2603,16 +2758,24 @@
         <v>5</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1">
-        <v>60000</v>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M21" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N21" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>500106</v>
       </c>
@@ -2625,16 +2788,24 @@
         <v>6</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1">
-        <v>60000</v>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M22" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N22" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>500107</v>
       </c>
@@ -2647,16 +2818,24 @@
         <v>7</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1">
-        <v>60000</v>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M23" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N23" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>500108</v>
       </c>
@@ -2669,16 +2848,24 @@
         <v>8</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1">
-        <v>60000</v>
+      <c r="I24" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M24" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N24" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2689,16 +2876,24 @@
         <v>9</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1">
-        <v>60000</v>
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M25" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N25" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>500201</v>
       </c>
@@ -2721,16 +2916,24 @@
         <v>1</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1">
-        <v>60000</v>
+      <c r="I26" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M26" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N26" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>500202</v>
       </c>
@@ -2743,16 +2946,24 @@
         <v>2</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1">
-        <v>60000</v>
+      <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M27" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N27" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>500203</v>
       </c>
@@ -2765,16 +2976,24 @@
         <v>3</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1">
-        <v>60000</v>
+      <c r="I28" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M28" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N28" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>500204</v>
       </c>
@@ -2787,16 +3006,24 @@
         <v>4</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="1">
-        <v>60000</v>
+      <c r="I29" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M29" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N29" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>500205</v>
       </c>
@@ -2809,16 +3036,24 @@
         <v>5</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1">
-        <v>60000</v>
+      <c r="I30" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M30" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N30" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>500206</v>
       </c>
@@ -2831,16 +3066,24 @@
         <v>6</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="1">
-        <v>60000</v>
+      <c r="I31" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M31" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N31" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>500207</v>
       </c>
@@ -2853,16 +3096,24 @@
         <v>7</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1">
-        <v>60000</v>
+      <c r="I32" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M32" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N32" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>500208</v>
       </c>
@@ -2875,14 +3126,22 @@
         <v>8</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1">
-        <v>60000</v>
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>69009.736842105267</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L33" s="1"/>
+      <c r="M33" s="5">
+        <f t="shared" si="1"/>
+        <v>69009.736842105267</v>
+      </c>
+      <c r="N33" s="2">
+        <v>579</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2894,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F105B3-D1AB-4524-9EC3-00B6BED1E5F9}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2975,7 +3234,7 @@
       <c r="H2" s="1">
         <v>40</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6">
         <f>M2</f>
         <v>176175.5263157895</v>
       </c>
@@ -3006,7 +3265,7 @@
       <c r="H3" s="4">
         <v>40.666666666666664</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="6">
         <f t="shared" ref="I3:I17" si="0">M3</f>
         <v>192920.26315789475</v>
       </c>
@@ -3038,7 +3297,7 @@
       <c r="H4" s="4">
         <v>41.333333333333336</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <f t="shared" si="0"/>
         <v>17578.947368421053</v>
       </c>
@@ -3067,7 +3326,7 @@
       <c r="H5" s="1">
         <v>42</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>261493.94736842107</v>
       </c>
@@ -3099,7 +3358,7 @@
       <c r="H6" s="4">
         <v>42.666666666666664</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>192920.26315789475</v>
       </c>
@@ -3131,7 +3390,7 @@
       <c r="H7" s="4">
         <v>43.333333333333336</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>208867.63157894739</v>
       </c>
@@ -3163,7 +3422,7 @@
       <c r="H8" s="1">
         <v>44</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
         <v>200893.94736842107</v>
       </c>
@@ -3195,7 +3454,7 @@
       <c r="H9" s="4">
         <v>44.666666666666664</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>208867.63157894739</v>
       </c>
@@ -3233,7 +3492,7 @@
       <c r="H10" s="1">
         <v>40</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>154885.78947368421</v>
       </c>
@@ -3265,7 +3524,7 @@
       <c r="H11" s="4">
         <v>40.666666666666664</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>130566.05263157895</v>
       </c>
@@ -3297,7 +3556,7 @@
       <c r="H12" s="4">
         <v>41.333333333333336</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>138380.26315789475</v>
       </c>
@@ -3329,7 +3588,7 @@
       <c r="H13" s="1">
         <v>42</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>138699.21052631579</v>
       </c>
@@ -3361,7 +3620,7 @@
       <c r="H14" s="4">
         <v>42.666666666666664</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>133994.73684210528</v>
       </c>
@@ -3393,7 +3652,7 @@
       <c r="H15" s="4">
         <v>43.333333333333336</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>140293.94736842107</v>
       </c>
@@ -3425,7 +3684,7 @@
       <c r="H16" s="1">
         <v>44</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="6">
         <f t="shared" si="0"/>
         <v>138380.26315789475</v>
       </c>
@@ -3457,7 +3716,7 @@
       <c r="H17" s="4">
         <v>44.666666666666664</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="6">
         <f t="shared" si="0"/>
         <v>136626.05263157896</v>
       </c>
@@ -3483,7 +3742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0F729F-C529-4664-B380-6B3D1560D1EA}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3968,7 +4227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AFF6B0-2ED8-40AD-89AB-0D56B3E2506F}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -4563,7 +4822,7 @@
         <v>37</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I10" si="0">M3</f>
+        <f t="shared" ref="I3:I9" si="0">M3</f>
         <v>43812.368421052633</v>
       </c>
       <c r="J3" s="1"/>
@@ -4931,7 +5190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1129E8C7-496E-4AC5-9F63-2C6E81B9B7D4}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95983954-E98D-4677-80EB-0D2F292C97FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687C95FB-036F-4D0A-852C-DB40CEBF37A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Timberland" sheetId="9" r:id="rId5"/>
     <sheet name="Adidas" sheetId="10" r:id="rId6"/>
     <sheet name="Native" sheetId="11" r:id="rId7"/>
+    <sheet name="Dickies" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="60">
   <si>
     <t>model</t>
   </si>
@@ -191,13 +192,35 @@
   <si>
     <t>Fitzsimmons 3</t>
   </si>
+  <si>
+    <t>Dickies</t>
+  </si>
+  <si>
+    <t>120001_1 120001_2 120001_3 120001_4 120001_5 120001_6</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>british style</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>120011_1 120011_2 120011_3 120011_4 120011_5 120011_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120018_1 120018_2 120018_3 120018_4 120018_5 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0_ ;[Red]\-0.0\ "/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -251,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,6 +292,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -658,7 +685,7 @@
       </c>
       <c r="I2" s="6">
         <f>M2</f>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
@@ -666,8 +693,8 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="5">
-        <f>(N2*75+N2*75*0.01+12500+4200+5000)/0.95</f>
-        <v>69009.736842105267</v>
+        <f t="shared" ref="M2:M7" si="0">(N2*75+N2*75*0.01+15000+4200+5000)/0.95</f>
+        <v>71641.315789473694</v>
       </c>
       <c r="N2" s="2">
         <v>579</v>
@@ -689,8 +716,8 @@
         <v>36</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I46" si="0">M3</f>
-        <v>69009.736842105267</v>
+        <f t="shared" ref="I3:I46" si="1">M3</f>
+        <v>71641.315789473694</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
@@ -698,8 +725,8 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M46" si="1">(N3*75+N3*75*0.01+12500+4200+5000)/0.95</f>
-        <v>69009.736842105267</v>
+        <f t="shared" si="0"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N3" s="2">
         <v>579</v>
@@ -721,8 +748,8 @@
         <v>36.5</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
@@ -730,8 +757,8 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="0"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N4" s="2">
         <v>579</v>
@@ -753,8 +780,8 @@
         <v>37.5</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
@@ -762,8 +789,8 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="0"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N5" s="2">
         <v>579</v>
@@ -785,8 +812,8 @@
         <v>38</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
@@ -794,8 +821,8 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="0"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N6" s="2">
         <v>579</v>
@@ -817,8 +844,8 @@
         <v>38.5</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
@@ -826,8 +853,8 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="0"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N7" s="2">
         <v>579</v>
@@ -849,8 +876,8 @@
         <v>39</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
@@ -858,8 +885,8 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f>(N8*75+N8*75*0.01+15000+4200+5000)/0.95</f>
+        <v>71641.315789473694</v>
       </c>
       <c r="N8" s="2">
         <v>579</v>
@@ -881,8 +908,8 @@
         <v>40</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
@@ -890,8 +917,8 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" ref="M9:M46" si="2">(N9*75+N9*75*0.01+15000+4200+5000)/0.95</f>
+        <v>71641.315789473694</v>
       </c>
       <c r="N9" s="2">
         <v>579</v>
@@ -913,8 +940,8 @@
         <v>40.5</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
@@ -922,8 +949,8 @@
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N10" s="2">
         <v>579</v>
@@ -945,8 +972,8 @@
         <v>41</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
@@ -954,8 +981,8 @@
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N11" s="2">
         <v>579</v>
@@ -977,8 +1004,8 @@
         <v>42</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
@@ -986,8 +1013,8 @@
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N12" s="2">
         <v>579</v>
@@ -1009,8 +1036,8 @@
         <v>42.5</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
@@ -1018,8 +1045,8 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N13" s="2">
         <v>579</v>
@@ -1041,8 +1068,8 @@
         <v>43</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
@@ -1050,8 +1077,8 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N14" s="2">
         <v>579</v>
@@ -1073,8 +1100,8 @@
         <v>44</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
@@ -1082,8 +1109,8 @@
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N15" s="2">
         <v>579</v>
@@ -1105,8 +1132,8 @@
         <v>44.5</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
@@ -1114,8 +1141,8 @@
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N16" s="2">
         <v>579</v>
@@ -1141,8 +1168,8 @@
         <v>35.5</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
@@ -1150,8 +1177,8 @@
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N17" s="2">
         <v>579</v>
@@ -1173,8 +1200,8 @@
         <v>36</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
@@ -1182,8 +1209,8 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N18" s="2">
         <v>579</v>
@@ -1205,8 +1232,8 @@
         <v>36.5</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
@@ -1214,8 +1241,8 @@
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N19" s="2">
         <v>579</v>
@@ -1237,8 +1264,8 @@
         <v>37.5</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
@@ -1246,8 +1273,8 @@
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N20" s="2">
         <v>579</v>
@@ -1269,8 +1296,8 @@
         <v>38</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
@@ -1278,8 +1305,8 @@
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N21" s="2">
         <v>579</v>
@@ -1301,8 +1328,8 @@
         <v>38.5</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
@@ -1310,8 +1337,8 @@
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N22" s="2">
         <v>579</v>
@@ -1333,8 +1360,8 @@
         <v>39</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
@@ -1342,8 +1369,8 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N23" s="2">
         <v>579</v>
@@ -1365,8 +1392,8 @@
         <v>40</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
@@ -1374,8 +1401,8 @@
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N24" s="2">
         <v>579</v>
@@ -1397,8 +1424,8 @@
         <v>40.5</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
@@ -1406,8 +1433,8 @@
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N25" s="2">
         <v>579</v>
@@ -1429,8 +1456,8 @@
         <v>41</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
@@ -1438,8 +1465,8 @@
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N26" s="2">
         <v>579</v>
@@ -1461,8 +1488,8 @@
         <v>42</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
@@ -1470,8 +1497,8 @@
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N27" s="2">
         <v>579</v>
@@ -1493,8 +1520,8 @@
         <v>42.5</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
@@ -1502,8 +1529,8 @@
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N28" s="2">
         <v>579</v>
@@ -1525,8 +1552,8 @@
         <v>43</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
@@ -1534,8 +1561,8 @@
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N29" s="2">
         <v>579</v>
@@ -1557,8 +1584,8 @@
         <v>44</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
@@ -1566,8 +1593,8 @@
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N30" s="2">
         <v>579</v>
@@ -1589,8 +1616,8 @@
         <v>44.5</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="1"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
@@ -1598,8 +1625,8 @@
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="5">
-        <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <f t="shared" si="2"/>
+        <v>71641.315789473694</v>
       </c>
       <c r="N31" s="2">
         <v>579</v>
@@ -1629,8 +1656,8 @@
         <v>35.5</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="0"/>
-        <v>78578.15789473684</v>
+        <f t="shared" si="1"/>
+        <v>81209.736842105267</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
@@ -1638,8 +1665,8 @@
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="5">
-        <f t="shared" si="1"/>
-        <v>78578.15789473684</v>
+        <f t="shared" si="2"/>
+        <v>81209.736842105267</v>
       </c>
       <c r="N32" s="2">
         <v>699</v>
@@ -1661,8 +1688,8 @@
         <v>36</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="0"/>
-        <v>78578.15789473684</v>
+        <f t="shared" si="1"/>
+        <v>81209.736842105267</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
@@ -1670,8 +1697,8 @@
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="5">
-        <f t="shared" si="1"/>
-        <v>78578.15789473684</v>
+        <f t="shared" si="2"/>
+        <v>81209.736842105267</v>
       </c>
       <c r="N33" s="2">
         <v>699</v>
@@ -1693,8 +1720,8 @@
         <v>36.5</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="0"/>
-        <v>70604.473684210534</v>
+        <f t="shared" si="1"/>
+        <v>73236.052631578947</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
@@ -1702,8 +1729,8 @@
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="5">
-        <f t="shared" si="1"/>
-        <v>70604.473684210534</v>
+        <f t="shared" si="2"/>
+        <v>73236.052631578947</v>
       </c>
       <c r="N34" s="2">
         <v>599</v>
@@ -1725,8 +1752,8 @@
         <v>37.5</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="0"/>
-        <v>22842.105263157897</v>
+        <f t="shared" si="1"/>
+        <v>25473.684210526317</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
@@ -1734,8 +1761,8 @@
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="5">
-        <f t="shared" si="1"/>
-        <v>22842.105263157897</v>
+        <f t="shared" si="2"/>
+        <v>25473.684210526317</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
@@ -1754,8 +1781,8 @@
         <v>38</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="0"/>
-        <v>70604.473684210534</v>
+        <f t="shared" si="1"/>
+        <v>73236.052631578947</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
@@ -1763,8 +1790,8 @@
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="5">
-        <f t="shared" si="1"/>
-        <v>70604.473684210534</v>
+        <f t="shared" si="2"/>
+        <v>73236.052631578947</v>
       </c>
       <c r="N36" s="2">
         <v>599</v>
@@ -1786,8 +1813,8 @@
         <v>38.5</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="0"/>
-        <v>61833.42105263158</v>
+        <f t="shared" si="1"/>
+        <v>64465</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
@@ -1795,8 +1822,8 @@
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="5">
-        <f t="shared" si="1"/>
-        <v>61833.42105263158</v>
+        <f t="shared" si="2"/>
+        <v>64465</v>
       </c>
       <c r="N37" s="2">
         <v>489</v>
@@ -1818,8 +1845,8 @@
         <v>39</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="0"/>
-        <v>55454.473684210527</v>
+        <f t="shared" si="1"/>
+        <v>58086.052631578947</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
@@ -1827,8 +1854,8 @@
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="5">
-        <f t="shared" si="1"/>
-        <v>55454.473684210527</v>
+        <f t="shared" si="2"/>
+        <v>58086.052631578947</v>
       </c>
       <c r="N38" s="2">
         <v>409</v>
@@ -1850,8 +1877,8 @@
         <v>40</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="0"/>
-        <v>61036.052631578947</v>
+        <f t="shared" si="1"/>
+        <v>63667.631578947374</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
@@ -1859,8 +1886,8 @@
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="5">
-        <f t="shared" si="1"/>
-        <v>61036.052631578947</v>
+        <f t="shared" si="2"/>
+        <v>63667.631578947374</v>
       </c>
       <c r="N39" s="2">
         <v>479</v>
@@ -1882,8 +1909,8 @@
         <v>40.5</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="0"/>
-        <v>62630.789473684214</v>
+        <f t="shared" si="1"/>
+        <v>65262.368421052633</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
@@ -1891,8 +1918,8 @@
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="5">
-        <f t="shared" si="1"/>
-        <v>62630.789473684214</v>
+        <f t="shared" si="2"/>
+        <v>65262.368421052633</v>
       </c>
       <c r="N40" s="2">
         <v>499</v>
@@ -1914,8 +1941,8 @@
         <v>41</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="0"/>
-        <v>148826.31578947368</v>
+        <f t="shared" si="1"/>
+        <v>151457.89473684211</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
@@ -1923,8 +1950,8 @@
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="5">
-        <f t="shared" si="1"/>
-        <v>148826.31578947368</v>
+        <f t="shared" si="2"/>
+        <v>151457.89473684211</v>
       </c>
       <c r="N41" s="2">
         <v>1580</v>
@@ -1946,8 +1973,8 @@
         <v>42</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="0"/>
-        <v>141889.21052631579</v>
+        <f t="shared" si="1"/>
+        <v>144520.78947368421</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
@@ -1955,8 +1982,8 @@
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="5">
-        <f t="shared" si="1"/>
-        <v>141889.21052631579</v>
+        <f t="shared" si="2"/>
+        <v>144520.78947368421</v>
       </c>
       <c r="N42" s="2">
         <v>1493</v>
@@ -1978,8 +2005,8 @@
         <v>42.5</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="0"/>
-        <v>74910.263157894748</v>
+        <f t="shared" si="1"/>
+        <v>77541.84210526316</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
@@ -1987,8 +2014,8 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="5">
-        <f t="shared" si="1"/>
-        <v>74910.263157894748</v>
+        <f t="shared" si="2"/>
+        <v>77541.84210526316</v>
       </c>
       <c r="N43" s="2">
         <v>653</v>
@@ -2010,8 +2037,8 @@
         <v>43</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="0"/>
-        <v>70604.473684210534</v>
+        <f t="shared" si="1"/>
+        <v>73236.052631578947</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
@@ -2019,8 +2046,8 @@
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="5">
-        <f t="shared" si="1"/>
-        <v>70604.473684210534</v>
+        <f t="shared" si="2"/>
+        <v>73236.052631578947</v>
       </c>
       <c r="N44" s="2">
         <v>599</v>
@@ -2042,8 +2069,8 @@
         <v>44</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="0"/>
-        <v>92292.894736842107</v>
+        <f t="shared" si="1"/>
+        <v>94924.473684210534</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
@@ -2051,8 +2078,8 @@
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="5">
-        <f t="shared" si="1"/>
-        <v>92292.894736842107</v>
+        <f t="shared" si="2"/>
+        <v>94924.473684210534</v>
       </c>
       <c r="N45" s="2">
         <v>871</v>
@@ -2074,8 +2101,8 @@
         <v>44.5</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="0"/>
-        <v>78418.68421052632</v>
+        <f t="shared" si="1"/>
+        <v>81050.263157894748</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
@@ -2083,8 +2110,8 @@
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="5">
-        <f t="shared" si="1"/>
-        <v>78418.68421052632</v>
+        <f t="shared" si="2"/>
+        <v>81050.263157894748</v>
       </c>
       <c r="N46" s="2">
         <v>697</v>
@@ -2100,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2180,7 +2207,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6">
         <f>M2</f>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
@@ -2188,8 +2215,8 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="5">
-        <f>(N2*75+N2*75*0.01+12500+4200+5000)/0.95</f>
-        <v>69009.736842105267</v>
+        <f>(N2*75+N2*75*0.01+15000+4200+5000)/0.95</f>
+        <v>71641.315789473694</v>
       </c>
       <c r="N2" s="2">
         <v>579</v>
@@ -2210,7 +2237,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I33" si="0">M3</f>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
@@ -2218,8 +2245,8 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M33" si="1">(N3*75+N3*75*0.01+12500+4200+5000)/0.95</f>
-        <v>69009.736842105267</v>
+        <f t="shared" ref="M3:M33" si="1">(N3*75+N3*75*0.01+15000+4200+5000)/0.95</f>
+        <v>71641.315789473694</v>
       </c>
       <c r="N3" s="2">
         <v>579</v>
@@ -2240,7 +2267,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
@@ -2249,7 +2276,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N4" s="2">
         <v>579</v>
@@ -2270,7 +2297,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
@@ -2279,7 +2306,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N5" s="2">
         <v>579</v>
@@ -2300,7 +2327,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
@@ -2309,7 +2336,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N6" s="2">
         <v>579</v>
@@ -2330,7 +2357,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
@@ -2339,7 +2366,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N7" s="2">
         <v>579</v>
@@ -2360,7 +2387,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
@@ -2369,7 +2396,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N8" s="2">
         <v>579</v>
@@ -2394,7 +2421,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
@@ -2403,7 +2430,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N9" s="2">
         <v>579</v>
@@ -2424,7 +2451,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
@@ -2433,7 +2460,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N10" s="2">
         <v>579</v>
@@ -2454,7 +2481,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
@@ -2463,7 +2490,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N11" s="2">
         <v>579</v>
@@ -2484,7 +2511,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
@@ -2493,7 +2520,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N12" s="2">
         <v>579</v>
@@ -2514,7 +2541,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
@@ -2523,7 +2550,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N13" s="2">
         <v>579</v>
@@ -2544,7 +2571,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
@@ -2553,7 +2580,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N14" s="2">
         <v>579</v>
@@ -2574,7 +2601,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
@@ -2583,7 +2610,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N15" s="2">
         <v>579</v>
@@ -2600,7 +2627,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
@@ -2609,7 +2636,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N16" s="2">
         <v>579</v>
@@ -2640,7 +2667,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
@@ -2649,7 +2676,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N17" s="2">
         <v>579</v>
@@ -2670,7 +2697,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
@@ -2679,7 +2706,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N18" s="2">
         <v>579</v>
@@ -2700,7 +2727,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
@@ -2709,7 +2736,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N19" s="2">
         <v>579</v>
@@ -2730,7 +2757,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
@@ -2739,7 +2766,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N20" s="2">
         <v>579</v>
@@ -2760,7 +2787,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
@@ -2769,7 +2796,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N21" s="2">
         <v>579</v>
@@ -2790,7 +2817,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
@@ -2799,7 +2826,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N22" s="2">
         <v>579</v>
@@ -2820,7 +2847,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
@@ -2829,7 +2856,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N23" s="2">
         <v>579</v>
@@ -2850,7 +2877,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
@@ -2859,7 +2886,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N24" s="2">
         <v>579</v>
@@ -2878,7 +2905,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
@@ -2887,7 +2914,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N25" s="2">
         <v>579</v>
@@ -2918,7 +2945,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
@@ -2927,7 +2954,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N26" s="2">
         <v>579</v>
@@ -2948,7 +2975,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
@@ -2957,7 +2984,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N27" s="2">
         <v>579</v>
@@ -2978,7 +3005,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
@@ -2987,7 +3014,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N28" s="2">
         <v>579</v>
@@ -3008,7 +3035,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
@@ -3017,7 +3044,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N29" s="2">
         <v>579</v>
@@ -3038,7 +3065,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
@@ -3047,7 +3074,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N30" s="2">
         <v>579</v>
@@ -3068,7 +3095,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
@@ -3077,7 +3104,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N31" s="2">
         <v>579</v>
@@ -3098,7 +3125,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
@@ -3107,7 +3134,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N32" s="2">
         <v>579</v>
@@ -3128,7 +3155,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="6">
         <f t="shared" si="0"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
@@ -3137,7 +3164,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="5">
         <f t="shared" si="1"/>
-        <v>69009.736842105267</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N33" s="2">
         <v>579</v>
@@ -5675,4 +5702,865 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EE7DAE-5F88-4DCD-935A-6D905A01DBED}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.23046875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>120001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6">
+        <f>M2</f>
+        <v>40303.947368421053</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="5">
+        <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
+        <v>40303.947368421053</v>
+      </c>
+      <c r="N2" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>120002</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>39</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I25" si="0">M3</f>
+        <v>39745.789473684214</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M25" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
+        <v>39745.789473684214</v>
+      </c>
+      <c r="N3" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>120003</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>41021.57894736842</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>41021.57894736842</v>
+      </c>
+      <c r="N4" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>120004</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>41</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>40463.42105263158</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>40463.42105263158</v>
+      </c>
+      <c r="N5" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>120005</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>42</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>40463.42105263158</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>40463.42105263158</v>
+      </c>
+      <c r="N6" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>120006</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>43</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>39985</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>39985</v>
+      </c>
+      <c r="N7" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>120007</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>39267.368421052633</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>39267.368421052633</v>
+      </c>
+      <c r="N8" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>120008</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>45</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>40941.84210526316</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>40941.84210526316</v>
+      </c>
+      <c r="N9" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>120009</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>46</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>47001.84210526316</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>47001.84210526316</v>
+      </c>
+      <c r="N10" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>120010</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>47</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>49393.947368421053</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>49393.947368421053</v>
+      </c>
+      <c r="N11" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>120011</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>34</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>17578.947368421053</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>17578.947368421053</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>120012</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>35</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N13" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>120013</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>36</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>41340.526315789473</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>41340.526315789473</v>
+      </c>
+      <c r="N14" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>120014</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>37</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>41101.315789473687</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="5">
+        <f t="shared" si="1"/>
+        <v>41101.315789473687</v>
+      </c>
+      <c r="N15" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>120015</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>38</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N16" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>120016</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>39</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="0"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="N17" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>120017</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>40</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="0"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="5">
+        <f t="shared" si="1"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="N18" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>120018</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>34</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="5">
+        <f t="shared" si="1"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="N19" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>120019</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>35</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="5">
+        <f t="shared" si="1"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="N20" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>120020</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>36</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="5">
+        <f t="shared" si="1"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="N21" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>120021</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>37</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N22" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>120022</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>38</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N23" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>120023</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1">
+        <v>39</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N24" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>120024</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>40</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N25" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>120025</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>120026</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687C95FB-036F-4D0A-852C-DB40CEBF37A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DF3CBF-6967-49FE-8FAE-B78541703987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="62">
   <si>
     <t>model</t>
   </si>
@@ -213,6 +213,12 @@
   <si>
     <t xml:space="preserve">120018_1 120018_2 120018_3 120018_4 120018_5 </t>
   </si>
+  <si>
+    <t>Air Force 1 "wheat" mid</t>
+  </si>
+  <si>
+    <t>100046_1 100046_2 100046_3 100046_4 100046_5 100046_6</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,11 +276,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,6 +315,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -716,7 +738,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I46" si="1">M3</f>
+        <f t="shared" ref="I3:I61" si="1">M3</f>
         <v>71641.315789473694</v>
       </c>
       <c r="J3" s="1"/>
@@ -917,7 +939,7 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="5">
-        <f t="shared" ref="M9:M46" si="2">(N9*75+N9*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M9:M61" si="2">(N9*75+N9*75*0.01+15000+4200+5000)/0.95</f>
         <v>71641.315789473694</v>
       </c>
       <c r="N9" s="2">
@@ -2115,6 +2137,701 @@
       </c>
       <c r="N46" s="2">
         <v>697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>100046</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H47" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I47" s="6">
+        <f t="shared" si="1"/>
+        <v>88386.052631578947</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="5">
+        <f t="shared" si="2"/>
+        <v>88386.052631578947</v>
+      </c>
+      <c r="N47" s="2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>100047</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1">
+        <v>4</v>
+      </c>
+      <c r="H48" s="1">
+        <v>36</v>
+      </c>
+      <c r="I48" s="6">
+        <f t="shared" si="1"/>
+        <v>129051.84210526316</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="5">
+        <f t="shared" si="2"/>
+        <v>129051.84210526316</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>100048</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H49" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I49" s="6">
+        <f t="shared" si="1"/>
+        <v>107522.89473684211</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="5">
+        <f t="shared" si="2"/>
+        <v>107522.89473684211</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>100049</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1">
+        <v>5</v>
+      </c>
+      <c r="H50" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" si="1"/>
+        <v>97157.105263157893</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="5">
+        <f t="shared" si="2"/>
+        <v>97157.105263157893</v>
+      </c>
+      <c r="N50" s="2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>100050</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>38</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="1"/>
+        <v>96359.736842105267</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="5">
+        <f t="shared" si="2"/>
+        <v>96359.736842105267</v>
+      </c>
+      <c r="N51" s="2">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>100051</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1">
+        <v>6</v>
+      </c>
+      <c r="H52" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="1"/>
+        <v>84399.210526315786</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="5">
+        <f t="shared" si="2"/>
+        <v>84399.210526315786</v>
+      </c>
+      <c r="N52" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>100052</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H53" s="1">
+        <v>39</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="1"/>
+        <v>75628.15789473684</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="5">
+        <f t="shared" si="2"/>
+        <v>75628.15789473684</v>
+      </c>
+      <c r="N53" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>100053</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1">
+        <v>7</v>
+      </c>
+      <c r="H54" s="1">
+        <v>40</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="1"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="5">
+        <f t="shared" si="2"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="N54" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>100054</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I55" s="6">
+        <f t="shared" si="1"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="5">
+        <f t="shared" si="2"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="N55" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>100055</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1">
+        <v>8</v>
+      </c>
+      <c r="H56" s="1">
+        <v>41</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" si="1"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="5">
+        <f t="shared" si="2"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="N56" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>100056</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>42</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="1"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="5">
+        <f t="shared" si="2"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N57" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>100057</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1">
+        <v>9</v>
+      </c>
+      <c r="H58" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="1"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="5">
+        <f t="shared" si="2"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="N58" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>100058</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>43</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="1"/>
+        <v>77222.894736842107</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="5">
+        <f t="shared" si="2"/>
+        <v>77222.894736842107</v>
+      </c>
+      <c r="N59" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>100059</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1">
+        <v>44</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="1"/>
+        <v>77222.894736842107</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="5">
+        <f t="shared" si="2"/>
+        <v>77222.894736842107</v>
+      </c>
+      <c r="N60" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>100060</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H61" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="1"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="5">
+        <f t="shared" si="2"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="N61" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>100061</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>100062</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>100063</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>100064</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>100065</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>100066</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>100067</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="9">
+        <v>100068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>100069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>100070</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>100071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>100072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>100073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>100074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>100075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>100076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>100077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>100078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>100079</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>100080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>100081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>100082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>100083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>100084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>100085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>100086</v>
       </c>
     </row>
   </sheetData>
@@ -2127,7 +2844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -5708,8 +6425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EE7DAE-5F88-4DCD-935A-6D905A01DBED}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DF3CBF-6967-49FE-8FAE-B78541703987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5DC447-C5E5-450F-BF85-33FAB27EA7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5DC447-C5E5-450F-BF85-33FAB27EA7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE553511-8FF5-4D9E-B844-A385CFBD9071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Adidas" sheetId="10" r:id="rId6"/>
     <sheet name="Native" sheetId="11" r:id="rId7"/>
     <sheet name="Dickies" sheetId="13" r:id="rId8"/>
+    <sheet name="Skechers" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="62">
   <si>
     <t>model</t>
   </si>
@@ -626,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -6425,6 +6426,869 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EE7DAE-5F88-4DCD-935A-6D905A01DBED}">
   <dimension ref="A1:N27"/>
   <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.23046875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>120001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6">
+        <f>M2</f>
+        <v>40303.947368421053</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="5">
+        <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
+        <v>40303.947368421053</v>
+      </c>
+      <c r="N2" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>120002</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>39</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I25" si="0">M3</f>
+        <v>39745.789473684214</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M25" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
+        <v>39745.789473684214</v>
+      </c>
+      <c r="N3" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>120003</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>41021.57894736842</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>41021.57894736842</v>
+      </c>
+      <c r="N4" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>120004</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>41</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>40463.42105263158</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>40463.42105263158</v>
+      </c>
+      <c r="N5" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>120005</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>42</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>40463.42105263158</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>40463.42105263158</v>
+      </c>
+      <c r="N6" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>120006</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>43</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>39985</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>39985</v>
+      </c>
+      <c r="N7" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>120007</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>39267.368421052633</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>39267.368421052633</v>
+      </c>
+      <c r="N8" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>120008</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>45</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>40941.84210526316</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>40941.84210526316</v>
+      </c>
+      <c r="N9" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>120009</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>46</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>47001.84210526316</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>47001.84210526316</v>
+      </c>
+      <c r="N10" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>120010</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>47</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>49393.947368421053</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>49393.947368421053</v>
+      </c>
+      <c r="N11" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>120011</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>34</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N12" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>120012</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>35</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N13" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>120013</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>36</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>41340.526315789473</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>41340.526315789473</v>
+      </c>
+      <c r="N14" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>120014</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>37</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>41101.315789473687</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="5">
+        <f t="shared" si="1"/>
+        <v>41101.315789473687</v>
+      </c>
+      <c r="N15" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>120015</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>38</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N16" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>120016</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>39</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="0"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="N17" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>120017</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>40</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="0"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="5">
+        <f t="shared" si="1"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="N18" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>120018</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>34</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="5">
+        <f t="shared" si="1"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="N19" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>120019</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>35</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="5">
+        <f t="shared" si="1"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="N20" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>120020</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>36</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="5">
+        <f t="shared" si="1"/>
+        <v>42775.789473684214</v>
+      </c>
+      <c r="N21" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>120021</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1">
+        <v>37</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N22" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>120022</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>38</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N23" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>120023</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1">
+        <v>39</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N24" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>120024</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>40</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="5">
+        <f t="shared" si="1"/>
+        <v>42217.631578947374</v>
+      </c>
+      <c r="N25" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>120025</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>120026</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB198-90E3-43B8-AC7F-4804B31B1E93}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
     <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE553511-8FF5-4D9E-B844-A385CFBD9071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF804870-DC56-48BD-9239-93BDEB4C8818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -305,9 +305,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,6 +316,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,7 +706,7 @@
       <c r="H2" s="1">
         <v>35.5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>M2</f>
         <v>71641.315789473694</v>
       </c>
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f t="shared" ref="M2:M7" si="0">(N2*75+N2*75*0.01+15000+4200+5000)/0.95</f>
         <v>71641.315789473694</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="H3" s="1">
         <v>36</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I61" si="1">M3</f>
         <v>71641.315789473694</v>
       </c>
@@ -747,7 +747,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="H4" s="1">
         <v>36.5</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="H5" s="1">
         <v>37.5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -811,7 +811,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -834,7 +834,7 @@
       <c r="H6" s="1">
         <v>38</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -843,7 +843,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="H7" s="1">
         <v>38.5</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -875,7 +875,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="H8" s="1">
         <v>39</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -907,7 +907,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f>(N8*75+N8*75*0.01+15000+4200+5000)/0.95</f>
         <v>71641.315789473694</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="H9" s="1">
         <v>40</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -939,7 +939,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" ref="M9:M61" si="2">(N9*75+N9*75*0.01+15000+4200+5000)/0.95</f>
         <v>71641.315789473694</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="H10" s="1">
         <v>40.5</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -971,7 +971,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="H11" s="1">
         <v>41</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>25</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="H12" s="1">
         <v>42</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="H13" s="1">
         <v>42.5</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="H14" s="1">
         <v>43</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>25</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="H15" s="1">
         <v>44</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>25</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="H16" s="1">
         <v>44.5</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>25</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="H17" s="1">
         <v>35.5</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="H18" s="1">
         <v>36</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>25</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="H19" s="1">
         <v>36.5</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="H20" s="1">
         <v>37.5</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>25</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="H21" s="1">
         <v>38</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>25</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="H22" s="1">
         <v>38.5</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>25</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="H23" s="1">
         <v>39</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>25</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="H24" s="1">
         <v>40</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>25</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="H25" s="1">
         <v>40.5</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="H26" s="1">
         <v>41</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1510,7 +1510,7 @@
       <c r="H27" s="1">
         <v>42</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>25</v>
       </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="H28" s="1">
         <v>42.5</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>25</v>
       </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1574,7 +1574,7 @@
       <c r="H29" s="1">
         <v>43</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>25</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="H30" s="1">
         <v>44</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>25</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="5">
+      <c r="M30" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="H31" s="1">
         <v>44.5</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <f t="shared" si="2"/>
         <v>71641.315789473694</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="H32" s="1">
         <v>35.5</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <f t="shared" si="1"/>
         <v>81209.736842105267</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <f t="shared" si="2"/>
         <v>81209.736842105267</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="H33" s="1">
         <v>36</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <f t="shared" si="1"/>
         <v>81209.736842105267</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>25</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="5">
+      <c r="M33" s="4">
         <f t="shared" si="2"/>
         <v>81209.736842105267</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="H34" s="1">
         <v>36.5</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <f t="shared" si="1"/>
         <v>73236.052631578947</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>25</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="5">
+      <c r="M34" s="4">
         <f t="shared" si="2"/>
         <v>73236.052631578947</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="H35" s="1">
         <v>37.5</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <f t="shared" si="1"/>
         <v>25473.684210526317</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>32</v>
       </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="5">
+      <c r="M35" s="4">
         <f t="shared" si="2"/>
         <v>25473.684210526317</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="H36" s="1">
         <v>38</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <f t="shared" si="1"/>
         <v>73236.052631578947</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>25</v>
       </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="5">
+      <c r="M36" s="4">
         <f t="shared" si="2"/>
         <v>73236.052631578947</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="H37" s="1">
         <v>38.5</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <f t="shared" si="1"/>
         <v>64465</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>25</v>
       </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="5">
+      <c r="M37" s="4">
         <f t="shared" si="2"/>
         <v>64465</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="H38" s="1">
         <v>39</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <f t="shared" si="1"/>
         <v>58086.052631578947</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>25</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="5">
+      <c r="M38" s="4">
         <f t="shared" si="2"/>
         <v>58086.052631578947</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="H39" s="1">
         <v>40</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <f t="shared" si="1"/>
         <v>63667.631578947374</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="5">
+      <c r="M39" s="4">
         <f t="shared" si="2"/>
         <v>63667.631578947374</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="H40" s="1">
         <v>40.5</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <f t="shared" si="1"/>
         <v>65262.368421052633</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>25</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="5">
+      <c r="M40" s="4">
         <f t="shared" si="2"/>
         <v>65262.368421052633</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="H41" s="1">
         <v>41</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <f t="shared" si="1"/>
         <v>151457.89473684211</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>25</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="5">
+      <c r="M41" s="4">
         <f t="shared" si="2"/>
         <v>151457.89473684211</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="H42" s="1">
         <v>42</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="5">
         <f t="shared" si="1"/>
         <v>144520.78947368421</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>25</v>
       </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="5">
+      <c r="M42" s="4">
         <f t="shared" si="2"/>
         <v>144520.78947368421</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="H43" s="1">
         <v>42.5</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="5">
         <f t="shared" si="1"/>
         <v>77541.84210526316</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>25</v>
       </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="5">
+      <c r="M43" s="4">
         <f t="shared" si="2"/>
         <v>77541.84210526316</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="H44" s="1">
         <v>43</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="5">
         <f t="shared" si="1"/>
         <v>73236.052631578947</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>25</v>
       </c>
       <c r="L44" s="1"/>
-      <c r="M44" s="5">
+      <c r="M44" s="4">
         <f t="shared" si="2"/>
         <v>73236.052631578947</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="H45" s="1">
         <v>44</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="5">
         <f t="shared" si="1"/>
         <v>94924.473684210534</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>25</v>
       </c>
       <c r="L45" s="1"/>
-      <c r="M45" s="5">
+      <c r="M45" s="4">
         <f t="shared" si="2"/>
         <v>94924.473684210534</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="H46" s="1">
         <v>44.5</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="5">
         <f t="shared" si="1"/>
         <v>81050.263157894748</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>25</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="5">
+      <c r="M46" s="4">
         <f t="shared" si="2"/>
         <v>81050.263157894748</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="H47" s="1">
         <v>35.5</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <f t="shared" si="1"/>
         <v>88386.052631578947</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>25</v>
       </c>
       <c r="L47" s="1"/>
-      <c r="M47" s="5">
+      <c r="M47" s="4">
         <f t="shared" si="2"/>
         <v>88386.052631578947</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="H48" s="1">
         <v>36</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <f t="shared" si="1"/>
         <v>129051.84210526316</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>25</v>
       </c>
       <c r="L48" s="1"/>
-      <c r="M48" s="5">
+      <c r="M48" s="4">
         <f t="shared" si="2"/>
         <v>129051.84210526316</v>
       </c>
@@ -2227,7 +2227,7 @@
       <c r="H49" s="1">
         <v>36.5</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <f t="shared" si="1"/>
         <v>107522.89473684211</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>25</v>
       </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="5">
+      <c r="M49" s="4">
         <f t="shared" si="2"/>
         <v>107522.89473684211</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="H50" s="1">
         <v>37.5</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="5">
         <f t="shared" si="1"/>
         <v>97157.105263157893</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>25</v>
       </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="5">
+      <c r="M50" s="4">
         <f t="shared" si="2"/>
         <v>97157.105263157893</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="H51" s="1">
         <v>38</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="5">
         <f t="shared" si="1"/>
         <v>96359.736842105267</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>25</v>
       </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="5">
+      <c r="M51" s="4">
         <f t="shared" si="2"/>
         <v>96359.736842105267</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="H52" s="1">
         <v>38.5</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <f t="shared" si="1"/>
         <v>84399.210526315786</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>25</v>
       </c>
       <c r="L52" s="1"/>
-      <c r="M52" s="5">
+      <c r="M52" s="4">
         <f t="shared" si="2"/>
         <v>84399.210526315786</v>
       </c>
@@ -2355,7 +2355,7 @@
       <c r="H53" s="1">
         <v>39</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <f t="shared" si="1"/>
         <v>75628.15789473684</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>25</v>
       </c>
       <c r="L53" s="1"/>
-      <c r="M53" s="5">
+      <c r="M53" s="4">
         <f t="shared" si="2"/>
         <v>75628.15789473684</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="H54" s="1">
         <v>40</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="5">
         <f t="shared" si="1"/>
         <v>74830.789473684214</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>25</v>
       </c>
       <c r="L54" s="1"/>
-      <c r="M54" s="5">
+      <c r="M54" s="4">
         <f t="shared" si="2"/>
         <v>74830.789473684214</v>
       </c>
@@ -2419,7 +2419,7 @@
       <c r="H55" s="1">
         <v>40.5</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="5">
         <f t="shared" si="1"/>
         <v>74830.789473684214</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>25</v>
       </c>
       <c r="L55" s="1"/>
-      <c r="M55" s="5">
+      <c r="M55" s="4">
         <f t="shared" si="2"/>
         <v>74830.789473684214</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="H56" s="1">
         <v>41</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="5">
         <f t="shared" si="1"/>
         <v>74830.789473684214</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>25</v>
       </c>
       <c r="L56" s="1"/>
-      <c r="M56" s="5">
+      <c r="M56" s="4">
         <f t="shared" si="2"/>
         <v>74830.789473684214</v>
       </c>
@@ -2483,7 +2483,7 @@
       <c r="H57" s="1">
         <v>42</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="5">
         <f t="shared" si="1"/>
         <v>74033.421052631587</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>25</v>
       </c>
       <c r="L57" s="1"/>
-      <c r="M57" s="5">
+      <c r="M57" s="4">
         <f t="shared" si="2"/>
         <v>74033.421052631587</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="H58" s="1">
         <v>42.5</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="5">
         <f t="shared" si="1"/>
         <v>74830.789473684214</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>25</v>
       </c>
       <c r="L58" s="1"/>
-      <c r="M58" s="5">
+      <c r="M58" s="4">
         <f t="shared" si="2"/>
         <v>74830.789473684214</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="H59" s="1">
         <v>43</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <f t="shared" si="1"/>
         <v>77222.894736842107</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>25</v>
       </c>
       <c r="L59" s="1"/>
-      <c r="M59" s="5">
+      <c r="M59" s="4">
         <f t="shared" si="2"/>
         <v>77222.894736842107</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="H60" s="1">
         <v>44</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="5">
         <f t="shared" si="1"/>
         <v>77222.894736842107</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>25</v>
       </c>
       <c r="L60" s="1"/>
-      <c r="M60" s="5">
+      <c r="M60" s="4">
         <f t="shared" si="2"/>
         <v>77222.894736842107</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="H61" s="1">
         <v>44.5</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="5">
         <f t="shared" si="1"/>
         <v>81209.736842105267</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>25</v>
       </c>
       <c r="L61" s="1"/>
-      <c r="M61" s="5">
+      <c r="M61" s="4">
         <f t="shared" si="2"/>
         <v>81209.736842105267</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="9">
+      <c r="A69" s="8">
         <v>100068</v>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>M2</f>
         <v>71641.315789473694</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>(N2*75+N2*75*0.01+15000+4200+5000)/0.95</f>
         <v>71641.315789473694</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I33" si="0">M3</f>
         <v>71641.315789473694</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M33" si="1">(N3*75+N3*75*0.01+15000+4200+5000)/0.95</f>
         <v>71641.315789473694</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>25</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>25</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>25</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>25</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>25</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>25</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>25</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>25</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>6</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>25</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>7</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>25</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>8</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>25</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>9</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>25</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>25</v>
       </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>25</v>
       </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>25</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>5</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>25</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="5">
+      <c r="M30" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>6</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>25</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>7</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>25</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>8</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <f t="shared" si="0"/>
         <v>71641.315789473694</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>25</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="5">
+      <c r="M33" s="4">
         <f t="shared" si="1"/>
         <v>71641.315789473694</v>
       </c>
@@ -3898,8 +3898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F105B3-D1AB-4524-9EC3-00B6BED1E5F9}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3976,10 +3976,10 @@
       <c r="G2" s="1">
         <v>7</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="9">
         <v>40</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>M2</f>
         <v>176175.5263157895</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
         <v>176175.5263157895</v>
       </c>
@@ -4007,10 +4007,10 @@
       <c r="G3" s="3">
         <v>7.5</v>
       </c>
-      <c r="H3" s="4">
-        <v>40.666666666666664</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H3" s="9">
+        <v>40.5</v>
+      </c>
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I17" si="0">M3</f>
         <v>192920.26315789475</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M17" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
         <v>192920.26315789475</v>
       </c>
@@ -4039,10 +4039,10 @@
       <c r="G4" s="1">
         <v>8</v>
       </c>
-      <c r="H4" s="4">
-        <v>41.333333333333336</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H4" s="9">
+        <v>41.5</v>
+      </c>
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>17578.947368421053</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>32</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" si="1"/>
         <v>17578.947368421053</v>
       </c>
@@ -4068,10 +4068,10 @@
       <c r="G5" s="1">
         <v>8.5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="9">
         <v>42</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>261493.94736842107</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>261493.94736842107</v>
       </c>
@@ -4100,10 +4100,10 @@
       <c r="G6" s="1">
         <v>9</v>
       </c>
-      <c r="H6" s="4">
-        <v>42.666666666666664</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>192920.26315789475</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>192920.26315789475</v>
       </c>
@@ -4132,10 +4132,10 @@
       <c r="G7" s="1">
         <v>9.5</v>
       </c>
-      <c r="H7" s="4">
-        <v>43.333333333333336</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="H7" s="9">
+        <v>43.5</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>208867.63157894739</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>208867.63157894739</v>
       </c>
@@ -4164,10 +4164,10 @@
       <c r="G8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="9">
         <v>44</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>200893.94736842107</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>200893.94736842107</v>
       </c>
@@ -4196,10 +4196,10 @@
       <c r="G9" s="1">
         <v>10.5</v>
       </c>
-      <c r="H9" s="4">
-        <v>44.666666666666664</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="H9" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>208867.63157894739</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>208867.63157894739</v>
       </c>
@@ -4234,10 +4234,10 @@
       <c r="G10" s="1">
         <v>7</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="9">
         <v>40</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>154885.78947368421</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>154885.78947368421</v>
       </c>
@@ -4266,10 +4266,10 @@
       <c r="G11" s="1">
         <v>7.5</v>
       </c>
-      <c r="H11" s="4">
-        <v>40.666666666666664</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="H11" s="9">
+        <v>40.5</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>130566.05263157895</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>25</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f t="shared" si="1"/>
         <v>130566.05263157895</v>
       </c>
@@ -4298,10 +4298,10 @@
       <c r="G12" s="1">
         <v>8</v>
       </c>
-      <c r="H12" s="4">
-        <v>41.333333333333336</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="H12" s="9">
+        <v>41.5</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>138380.26315789475</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f t="shared" si="1"/>
         <v>138380.26315789475</v>
       </c>
@@ -4330,10 +4330,10 @@
       <c r="G13" s="1">
         <v>8.5</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="9">
         <v>42</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>138699.21052631579</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f t="shared" si="1"/>
         <v>138699.21052631579</v>
       </c>
@@ -4362,10 +4362,10 @@
       <c r="G14" s="1">
         <v>9</v>
       </c>
-      <c r="H14" s="4">
-        <v>42.666666666666664</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="H14" s="9">
+        <v>42.5</v>
+      </c>
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>133994.73684210528</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>25</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f t="shared" si="1"/>
         <v>133994.73684210528</v>
       </c>
@@ -4394,10 +4394,10 @@
       <c r="G15" s="1">
         <v>9.5</v>
       </c>
-      <c r="H15" s="4">
-        <v>43.333333333333336</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="H15" s="9">
+        <v>43.5</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>140293.94736842107</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>25</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <f t="shared" si="1"/>
         <v>140293.94736842107</v>
       </c>
@@ -4426,10 +4426,10 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="9">
         <v>44</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="0"/>
         <v>138380.26315789475</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>25</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <f t="shared" si="1"/>
         <v>138380.26315789475</v>
       </c>
@@ -4458,10 +4458,10 @@
       <c r="G17" s="1">
         <v>10.5</v>
       </c>
-      <c r="H17" s="4">
-        <v>44.666666666666664</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="H17" s="9">
+        <v>44.5</v>
+      </c>
+      <c r="I17" s="5">
         <f t="shared" si="0"/>
         <v>136626.05263157896</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <f t="shared" si="1"/>
         <v>136626.05263157896</v>
       </c>
@@ -4488,7 +4488,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4564,7 +4564,7 @@
       <c r="H2" s="1">
         <v>38.5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>M2</f>
         <v>121157.10526315789</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
         <v>121157.10526315789</v>
       </c>
@@ -4596,7 +4596,7 @@
       <c r="H3" s="1">
         <v>39</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I10" si="0">M3</f>
         <v>113183.42105263159</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M10" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
         <v>113183.42105263159</v>
       </c>
@@ -4628,7 +4628,7 @@
       <c r="H4" s="1">
         <v>40</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>121157.10526315789</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>32</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" si="1"/>
         <v>121157.10526315789</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="H5" s="1">
         <v>40.5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>121157.10526315789</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>121157.10526315789</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="H6" s="1">
         <v>41</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>113183.42105263159</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>113183.42105263159</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="H7" s="1">
         <v>42</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>113183.42105263159</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>113183.42105263159</v>
       </c>
@@ -4756,7 +4756,7 @@
       <c r="H8" s="1">
         <v>42.5</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>118366.31578947369</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>118366.31578947369</v>
       </c>
@@ -4788,7 +4788,7 @@
       <c r="H9" s="1">
         <v>43</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>103615</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>103615</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="H10" s="1">
         <v>44</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>118366.31578947369</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>118366.31578947369</v>
       </c>
@@ -4848,11 +4848,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -4866,11 +4866,11 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -4884,11 +4884,11 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -4902,11 +4902,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -4920,11 +4920,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -4938,11 +4938,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
@@ -4956,11 +4956,11 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="2"/>
     </row>
   </sheetData>
@@ -5049,7 +5049,7 @@
       <c r="H2" s="1">
         <v>39.5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>M2</f>
         <v>121157.10526315789</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>32</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
         <v>121157.10526315789</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="H3" s="1">
         <v>40</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I10" si="0">M3</f>
         <v>78099.210526315786</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M10" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
         <v>78099.210526315786</v>
       </c>
@@ -5113,7 +5113,7 @@
       <c r="H4" s="1">
         <v>41</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>72278.421052631587</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" si="1"/>
         <v>72278.421052631587</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="H5" s="1">
         <v>41.5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>67733.421052631587</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>67733.421052631587</v>
       </c>
@@ -5177,7 +5177,7 @@
       <c r="H6" s="1">
         <v>42</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>76504.473684210534</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>76504.473684210534</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="H7" s="1">
         <v>43</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>77301.84210526316</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>77301.84210526316</v>
       </c>
@@ -5241,7 +5241,7 @@
       <c r="H8" s="1">
         <v>43.5</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>69647.105263157893</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>69647.105263157893</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="H9" s="1">
         <v>44</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>74830</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>74830</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="H10" s="1">
         <v>44.5</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>97236.052631578947</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>97236.052631578947</v>
       </c>
@@ -5333,11 +5333,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -5351,11 +5351,11 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -5369,11 +5369,11 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -5387,11 +5387,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -5405,11 +5405,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -5423,11 +5423,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
@@ -5441,11 +5441,11 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="2"/>
     </row>
   </sheetData>
@@ -5534,7 +5534,7 @@
       <c r="H2" s="1">
         <v>35.5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>M2</f>
         <v>121157.10526315789</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>32</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
         <v>121157.10526315789</v>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="H3" s="1">
         <v>37</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I9" si="0">M3</f>
         <v>43812.368421052633</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M10" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
         <v>43812.368421052633</v>
       </c>
@@ -5598,7 +5598,7 @@
       <c r="H4" s="1">
         <v>38</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>44609.736842105267</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" si="1"/>
         <v>44609.736842105267</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="H5" s="1">
         <v>39</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>43812.368421052633</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>43812.368421052633</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="H6" s="1">
         <v>40.5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>45407.1052631579</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>45407.1052631579</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="H7" s="1">
         <v>42</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>47799.210526315794</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>47799.210526315794</v>
       </c>
@@ -5726,7 +5726,7 @@
       <c r="H8" s="1">
         <v>43</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>49393.947368421053</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>49393.947368421053</v>
       </c>
@@ -5758,7 +5758,7 @@
       <c r="H9" s="1">
         <v>44.5</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>48596.57894736842</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>48596.57894736842</v>
       </c>
@@ -5786,13 +5786,13 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>97236.052631578947</v>
       </c>
@@ -5811,11 +5811,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -5829,11 +5829,11 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -5847,11 +5847,11 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -5865,11 +5865,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -5883,11 +5883,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -5901,11 +5901,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
@@ -5919,11 +5919,11 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="2"/>
     </row>
   </sheetData>
@@ -6010,7 +6010,7 @@
       <c r="H2" s="1">
         <v>35</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>M2</f>
         <v>49154.736842105267</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>32</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
         <v>49154.736842105267</v>
       </c>
@@ -6040,7 +6040,7 @@
       <c r="H3" s="1">
         <v>36</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I12" si="0">M3</f>
         <v>49154.736842105267</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M12" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
         <v>49154.736842105267</v>
       </c>
@@ -6070,7 +6070,7 @@
       <c r="H4" s="1">
         <v>37</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>49154.736842105267</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" si="1"/>
         <v>49154.736842105267</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="H5" s="1">
         <v>38</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>49154.736842105267</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>49154.736842105267</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="H6" s="1">
         <v>39</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>49154.736842105267</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>49154.736842105267</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="H7" s="1">
         <v>40</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>49154.736842105267</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>49154.736842105267</v>
       </c>
@@ -6190,7 +6190,7 @@
       <c r="H8" s="1">
         <v>41</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>49154.736842105267</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>49154.736842105267</v>
       </c>
@@ -6220,7 +6220,7 @@
       <c r="H9" s="1">
         <v>42</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>49154.736842105267</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>49154.736842105267</v>
       </c>
@@ -6250,7 +6250,7 @@
       <c r="H10" s="1">
         <v>43</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>49154.736842105267</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>49154.736842105267</v>
       </c>
@@ -6280,7 +6280,7 @@
       <c r="H11" s="1">
         <v>44</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>49154.736842105267</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>25</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f t="shared" si="1"/>
         <v>49154.736842105267</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="H12" s="1">
         <v>45</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>49154.736842105267</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f t="shared" si="1"/>
         <v>49154.736842105267</v>
       </c>
@@ -6338,11 +6338,11 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -6356,11 +6356,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -6374,11 +6374,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -6392,11 +6392,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
@@ -6410,11 +6410,11 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="2"/>
     </row>
   </sheetData>
@@ -6426,7 +6426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EE7DAE-5F88-4DCD-935A-6D905A01DBED}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -6501,7 +6501,7 @@
       <c r="H2" s="1">
         <v>38</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>M2</f>
         <v>40303.947368421053</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
         <v>40303.947368421053</v>
       </c>
@@ -6531,7 +6531,7 @@
       <c r="H3" s="1">
         <v>39</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I25" si="0">M3</f>
         <v>39745.789473684214</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M25" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
         <v>39745.789473684214</v>
       </c>
@@ -6561,7 +6561,7 @@
       <c r="H4" s="1">
         <v>40</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>41021.57894736842</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" si="1"/>
         <v>41021.57894736842</v>
       </c>
@@ -6591,7 +6591,7 @@
       <c r="H5" s="1">
         <v>41</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>40463.42105263158</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>40463.42105263158</v>
       </c>
@@ -6621,7 +6621,7 @@
       <c r="H6" s="1">
         <v>42</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>40463.42105263158</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>40463.42105263158</v>
       </c>
@@ -6651,7 +6651,7 @@
       <c r="H7" s="1">
         <v>43</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>39985</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>39985</v>
       </c>
@@ -6681,7 +6681,7 @@
       <c r="H8" s="1">
         <v>44</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>39267.368421052633</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>39267.368421052633</v>
       </c>
@@ -6711,7 +6711,7 @@
       <c r="H9" s="1">
         <v>45</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>40941.84210526316</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>40941.84210526316</v>
       </c>
@@ -6741,7 +6741,7 @@
       <c r="H10" s="1">
         <v>46</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>47001.84210526316</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>47001.84210526316</v>
       </c>
@@ -6771,7 +6771,7 @@
       <c r="H11" s="1">
         <v>47</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>49393.947368421053</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>25</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f t="shared" si="1"/>
         <v>49393.947368421053</v>
       </c>
@@ -6805,13 +6805,13 @@
       <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>4.5</v>
       </c>
       <c r="H12" s="1">
         <v>34</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>32</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -6843,7 +6843,7 @@
       <c r="H13" s="1">
         <v>35</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -6869,13 +6869,13 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>5.5</v>
       </c>
       <c r="H14" s="1">
         <v>36</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>41340.526315789473</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>25</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f t="shared" si="1"/>
         <v>41340.526315789473</v>
       </c>
@@ -6907,7 +6907,7 @@
       <c r="H15" s="1">
         <v>37</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>41101.315789473687</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>25</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <f t="shared" si="1"/>
         <v>41101.315789473687</v>
       </c>
@@ -6933,13 +6933,13 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>6.5</v>
       </c>
       <c r="H16" s="1">
         <v>38</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>25</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -6971,7 +6971,7 @@
       <c r="H17" s="1">
         <v>39</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f t="shared" si="0"/>
         <v>42775.789473684214</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <f t="shared" si="1"/>
         <v>42775.789473684214</v>
       </c>
@@ -6992,27 +6992,27 @@
       <c r="A18" s="1">
         <v>120017</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7">
         <v>7.5</v>
       </c>
       <c r="H18" s="1">
         <v>40</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f t="shared" si="0"/>
         <v>42775.789473684214</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="5">
+      <c r="L18" s="6"/>
+      <c r="M18" s="4">
         <f t="shared" si="1"/>
         <v>42775.789473684214</v>
       </c>
@@ -7024,31 +7024,31 @@
       <c r="A19" s="1">
         <v>120018</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>4.5</v>
       </c>
       <c r="H19" s="1">
         <v>34</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <f t="shared" si="0"/>
         <v>42775.789473684214</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="5">
+      <c r="L19" s="6"/>
+      <c r="M19" s="4">
         <f t="shared" si="1"/>
         <v>42775.789473684214</v>
       </c>
@@ -7060,27 +7060,27 @@
       <c r="A20" s="1">
         <v>120019</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="1">
         <v>5</v>
       </c>
       <c r="H20" s="1">
         <v>35</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <f t="shared" si="0"/>
         <v>42775.789473684214</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="5">
+      <c r="L20" s="6"/>
+      <c r="M20" s="4">
         <f t="shared" si="1"/>
         <v>42775.789473684214</v>
       </c>
@@ -7092,27 +7092,27 @@
       <c r="A21" s="1">
         <v>120020</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7">
         <v>5.5</v>
       </c>
       <c r="H21" s="1">
         <v>36</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <f t="shared" si="0"/>
         <v>42775.789473684214</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="5">
+      <c r="L21" s="6"/>
+      <c r="M21" s="4">
         <f t="shared" si="1"/>
         <v>42775.789473684214</v>
       </c>
@@ -7124,27 +7124,27 @@
       <c r="A22" s="1">
         <v>120021</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="1">
         <v>6</v>
       </c>
       <c r="H22" s="1">
         <v>37</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="5">
+      <c r="L22" s="6"/>
+      <c r="M22" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -7156,27 +7156,27 @@
       <c r="A23" s="1">
         <v>120022</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7">
         <v>6.5</v>
       </c>
       <c r="H23" s="1">
         <v>38</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="5">
+      <c r="L23" s="6"/>
+      <c r="M23" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -7188,27 +7188,27 @@
       <c r="A24" s="1">
         <v>120023</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="1">
         <v>7</v>
       </c>
       <c r="H24" s="1">
         <v>39</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="5">
+      <c r="L24" s="6"/>
+      <c r="M24" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -7220,27 +7220,27 @@
       <c r="A25" s="1">
         <v>120024</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7">
         <v>7.5</v>
       </c>
       <c r="H25" s="1">
         <v>40</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="5">
+      <c r="L25" s="6"/>
+      <c r="M25" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -7252,33 +7252,33 @@
       <c r="A26" s="1">
         <v>120025</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>120026</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7364,7 +7364,7 @@
       <c r="H2" s="1">
         <v>38</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>M2</f>
         <v>40303.947368421053</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>(N2*75+N2*75*0.01+12500+4200)/0.95</f>
         <v>40303.947368421053</v>
       </c>
@@ -7394,7 +7394,7 @@
       <c r="H3" s="1">
         <v>39</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I25" si="0">M3</f>
         <v>39745.789473684214</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M25" si="1">(N3*75+N3*75*0.01+12500+4200)/0.95</f>
         <v>39745.789473684214</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="H4" s="1">
         <v>40</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="0"/>
         <v>41021.57894736842</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" si="1"/>
         <v>41021.57894736842</v>
       </c>
@@ -7454,7 +7454,7 @@
       <c r="H5" s="1">
         <v>41</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>40463.42105263158</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>40463.42105263158</v>
       </c>
@@ -7484,7 +7484,7 @@
       <c r="H6" s="1">
         <v>42</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>40463.42105263158</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>40463.42105263158</v>
       </c>
@@ -7514,7 +7514,7 @@
       <c r="H7" s="1">
         <v>43</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>39985</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>39985</v>
       </c>
@@ -7544,7 +7544,7 @@
       <c r="H8" s="1">
         <v>44</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>39267.368421052633</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>39267.368421052633</v>
       </c>
@@ -7574,7 +7574,7 @@
       <c r="H9" s="1">
         <v>45</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>40941.84210526316</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>40941.84210526316</v>
       </c>
@@ -7604,7 +7604,7 @@
       <c r="H10" s="1">
         <v>46</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>47001.84210526316</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>47001.84210526316</v>
       </c>
@@ -7634,7 +7634,7 @@
       <c r="H11" s="1">
         <v>47</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>49393.947368421053</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>25</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f t="shared" si="1"/>
         <v>49393.947368421053</v>
       </c>
@@ -7668,13 +7668,13 @@
       <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>4.5</v>
       </c>
       <c r="H12" s="1">
         <v>34</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>17578.947368421053</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>32</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f t="shared" si="1"/>
         <v>17578.947368421053</v>
       </c>
@@ -7704,7 +7704,7 @@
       <c r="H13" s="1">
         <v>35</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>25</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -7730,13 +7730,13 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>5.5</v>
       </c>
       <c r="H14" s="1">
         <v>36</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>41340.526315789473</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>25</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f t="shared" si="1"/>
         <v>41340.526315789473</v>
       </c>
@@ -7768,7 +7768,7 @@
       <c r="H15" s="1">
         <v>37</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>41101.315789473687</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>25</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <f t="shared" si="1"/>
         <v>41101.315789473687</v>
       </c>
@@ -7794,13 +7794,13 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>6.5</v>
       </c>
       <c r="H16" s="1">
         <v>38</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>25</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="H17" s="1">
         <v>39</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f t="shared" si="0"/>
         <v>42775.789473684214</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <f t="shared" si="1"/>
         <v>42775.789473684214</v>
       </c>
@@ -7853,27 +7853,27 @@
       <c r="A18" s="1">
         <v>120017</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7">
         <v>7.5</v>
       </c>
       <c r="H18" s="1">
         <v>40</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f t="shared" si="0"/>
         <v>42775.789473684214</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="5">
+      <c r="L18" s="6"/>
+      <c r="M18" s="4">
         <f t="shared" si="1"/>
         <v>42775.789473684214</v>
       </c>
@@ -7885,31 +7885,31 @@
       <c r="A19" s="1">
         <v>120018</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>4.5</v>
       </c>
       <c r="H19" s="1">
         <v>34</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <f t="shared" si="0"/>
         <v>42775.789473684214</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="5">
+      <c r="L19" s="6"/>
+      <c r="M19" s="4">
         <f t="shared" si="1"/>
         <v>42775.789473684214</v>
       </c>
@@ -7921,27 +7921,27 @@
       <c r="A20" s="1">
         <v>120019</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="1">
         <v>5</v>
       </c>
       <c r="H20" s="1">
         <v>35</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <f t="shared" si="0"/>
         <v>42775.789473684214</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="5">
+      <c r="L20" s="6"/>
+      <c r="M20" s="4">
         <f t="shared" si="1"/>
         <v>42775.789473684214</v>
       </c>
@@ -7953,27 +7953,27 @@
       <c r="A21" s="1">
         <v>120020</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7">
         <v>5.5</v>
       </c>
       <c r="H21" s="1">
         <v>36</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <f t="shared" si="0"/>
         <v>42775.789473684214</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="5">
+      <c r="L21" s="6"/>
+      <c r="M21" s="4">
         <f t="shared" si="1"/>
         <v>42775.789473684214</v>
       </c>
@@ -7985,27 +7985,27 @@
       <c r="A22" s="1">
         <v>120021</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="1">
         <v>6</v>
       </c>
       <c r="H22" s="1">
         <v>37</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="5">
+      <c r="L22" s="6"/>
+      <c r="M22" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -8017,27 +8017,27 @@
       <c r="A23" s="1">
         <v>120022</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7">
         <v>6.5</v>
       </c>
       <c r="H23" s="1">
         <v>38</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="5">
+      <c r="L23" s="6"/>
+      <c r="M23" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -8049,27 +8049,27 @@
       <c r="A24" s="1">
         <v>120023</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="1">
         <v>7</v>
       </c>
       <c r="H24" s="1">
         <v>39</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="5">
+      <c r="L24" s="6"/>
+      <c r="M24" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -8081,27 +8081,27 @@
       <c r="A25" s="1">
         <v>120024</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7">
         <v>7.5</v>
       </c>
       <c r="H25" s="1">
         <v>40</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="0"/>
         <v>42217.631578947374</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="5">
+      <c r="L25" s="6"/>
+      <c r="M25" s="4">
         <f t="shared" si="1"/>
         <v>42217.631578947374</v>
       </c>
@@ -8113,33 +8113,33 @@
       <c r="A26" s="1">
         <v>120025</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>120026</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF804870-DC56-48BD-9239-93BDEB4C8818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338C19EE-71CC-42E2-8EEC-52B3645D650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="67">
   <si>
     <t>model</t>
   </si>
@@ -220,6 +220,21 @@
   <si>
     <t>100046_1 100046_2 100046_3 100046_4 100046_5 100046_6</t>
   </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>100061_1 100061_2 100061_3 100061_4 100061_5</t>
+  </si>
+  <si>
+    <t>Woodside</t>
+  </si>
+  <si>
+    <t>100070_1 100070_2 100070_3 100070_4</t>
+  </si>
+  <si>
+    <t>Приготовьтесь к новым приключениям с Woodside Chukka. Прочная конструкция сочетает в себе искусственный мех внутри и толстую резиновую накладку, чтобы ваши ноги оставались сухими и тёплыми.</t>
+  </si>
 </sst>
 </file>
 
@@ -318,8 +333,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="D57" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -637,13 +652,16 @@
     <col min="3" max="3" width="31.84375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.23046875" style="2"/>
     <col min="6" max="6" width="58.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.69140625" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9.23046875" style="2"/>
-    <col min="12" max="12" width="10.07421875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.4609375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.61328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.84375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9.23046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -739,7 +757,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I61" si="1">M3</f>
+        <f t="shared" ref="I3:I66" si="1">M3</f>
         <v>71641.315789473694</v>
       </c>
       <c r="J3" s="1"/>
@@ -940,7 +958,7 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="4">
-        <f t="shared" ref="M9:M61" si="2">(N9*75+N9*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M9:M72" si="2">(N9*75+N9*75*0.01+15000+4200+5000)/0.95</f>
         <v>71641.315789473694</v>
       </c>
       <c r="N9" s="2">
@@ -2628,21 +2646,47 @@
         <v>699</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>100061</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="1">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" si="1"/>
+        <v>47640.526315789473</v>
+      </c>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="K62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M62" s="4">
+        <f t="shared" si="2"/>
+        <v>47640.526315789473</v>
+      </c>
+      <c r="N62" s="2">
+        <v>278</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
@@ -2653,12 +2697,28 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="G63" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H63" s="1">
+        <v>36</v>
+      </c>
+      <c r="I63" s="5">
+        <f t="shared" si="1"/>
+        <v>44849.736842105267</v>
+      </c>
       <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="K63" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L63" s="1"/>
+      <c r="M63" s="4">
+        <f t="shared" si="2"/>
+        <v>44849.736842105267</v>
+      </c>
+      <c r="N63" s="2">
+        <v>243</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
@@ -2669,14 +2729,30 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="G64" s="1">
+        <v>6</v>
+      </c>
+      <c r="H64" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I64" s="5">
+        <f t="shared" si="1"/>
+        <v>47321.57894736842</v>
+      </c>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="K64" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M64" s="4">
+        <f t="shared" si="2"/>
+        <v>47321.57894736842</v>
+      </c>
+      <c r="N64" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>100064</v>
       </c>
@@ -2685,14 +2761,30 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="G65" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H65" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I65" s="5">
+        <f t="shared" si="1"/>
+        <v>47082.368421052633</v>
+      </c>
       <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="K65" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M65" s="4">
+        <f t="shared" si="2"/>
+        <v>47082.368421052633</v>
+      </c>
+      <c r="N65" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>100065</v>
       </c>
@@ -2701,14 +2793,30 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="G66" s="1">
+        <v>7</v>
+      </c>
+      <c r="H66" s="1">
+        <v>38</v>
+      </c>
+      <c r="I66" s="5">
+        <f t="shared" si="1"/>
+        <v>53222.1052631579</v>
+      </c>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="K66" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M66" s="4">
+        <f t="shared" si="2"/>
+        <v>53222.1052631579</v>
+      </c>
+      <c r="N66" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>100066</v>
       </c>
@@ -2717,14 +2825,30 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="G67" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H67" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" ref="I67:I79" si="3">M67</f>
+        <v>62870.26315789474</v>
+      </c>
       <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
+      <c r="K67" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M67" s="4">
+        <f t="shared" si="2"/>
+        <v>62870.26315789474</v>
+      </c>
+      <c r="N67" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>100067</v>
       </c>
@@ -2733,70 +2857,389 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="G68" s="1">
+        <v>8</v>
+      </c>
+      <c r="H68" s="1">
+        <v>39</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" si="3"/>
+        <v>73236.052631578947</v>
+      </c>
       <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="K68" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="8">
+      <c r="M68" s="4">
+        <f t="shared" si="2"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="N68" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
         <v>100068</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H69" s="1">
+        <v>40</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="3"/>
+        <v>83601.84210526316</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="4">
+        <f t="shared" si="2"/>
+        <v>83601.84210526316</v>
+      </c>
+      <c r="N69" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>100069</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1">
+        <v>9</v>
+      </c>
+      <c r="H70" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="3"/>
+        <v>94924.473684210534</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="4">
+        <f t="shared" si="2"/>
+        <v>94924.473684210534</v>
+      </c>
+      <c r="N70" s="2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>100070</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" s="1">
+        <v>5</v>
+      </c>
+      <c r="H71" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I71" s="5">
+        <f t="shared" si="3"/>
+        <v>83601.84210526316</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71" t="s">
+        <v>66</v>
+      </c>
+      <c r="M71" s="4">
+        <f t="shared" si="2"/>
+        <v>83601.84210526316</v>
+      </c>
+      <c r="N71" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>100071</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H72" s="1">
+        <v>36</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="3"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="4">
+        <f t="shared" si="2"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="N72" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>100072</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1">
+        <v>6</v>
+      </c>
+      <c r="H73" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="3"/>
+        <v>65342.1052631579</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="4">
+        <f t="shared" ref="M73:M79" si="4">(N73*75+N73*75*0.01+15000+4200+5000)/0.95</f>
+        <v>65342.1052631579</v>
+      </c>
+      <c r="N73" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>100073</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H74" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I74" s="5">
+        <f t="shared" si="3"/>
+        <v>67096.315789473694</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="4">
+        <f t="shared" si="4"/>
+        <v>67096.315789473694</v>
+      </c>
+      <c r="N74" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>100074</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1">
+        <v>7</v>
+      </c>
+      <c r="H75" s="1">
+        <v>38</v>
+      </c>
+      <c r="I75" s="5">
+        <f t="shared" si="3"/>
+        <v>65342.1052631579</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="4">
+        <f t="shared" si="4"/>
+        <v>65342.1052631579</v>
+      </c>
+      <c r="N75" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>100075</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H76" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I76" s="5">
+        <f t="shared" si="3"/>
+        <v>83681.578947368427</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="4">
+        <f t="shared" si="4"/>
+        <v>83681.578947368427</v>
+      </c>
+      <c r="N76" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>100076</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1">
+        <v>39</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="3"/>
+        <v>83681.578947368427</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="M77" s="4">
+        <f t="shared" si="4"/>
+        <v>83681.578947368427</v>
+      </c>
+      <c r="N77" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>100077</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H78" s="1">
+        <v>40</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="3"/>
+        <v>83681.578947368427</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="4">
+        <f t="shared" si="4"/>
+        <v>83681.578947368427</v>
+      </c>
+      <c r="N78" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>100078</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="1">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1">
+        <v>9</v>
+      </c>
+      <c r="H79" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="3"/>
+        <v>83681.578947368427</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L79" s="1"/>
+      <c r="M79" s="4">
+        <f t="shared" si="4"/>
+        <v>83681.578947368427</v>
+      </c>
+      <c r="N79" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A80" s="8">
         <v>100079</v>
       </c>
     </row>
@@ -2845,7 +3288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -3898,7 +4341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F105B3-D1AB-4524-9EC3-00B6BED1E5F9}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -3976,7 +4419,7 @@
       <c r="G2" s="1">
         <v>7</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="1">
         <v>40</v>
       </c>
       <c r="I2" s="5">
@@ -4007,7 +4450,7 @@
       <c r="G3" s="3">
         <v>7.5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="1">
         <v>40.5</v>
       </c>
       <c r="I3" s="5">
@@ -4039,7 +4482,7 @@
       <c r="G4" s="1">
         <v>8</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="1">
         <v>41.5</v>
       </c>
       <c r="I4" s="5">
@@ -4068,7 +4511,7 @@
       <c r="G5" s="1">
         <v>8.5</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="1">
         <v>42</v>
       </c>
       <c r="I5" s="5">
@@ -4100,7 +4543,7 @@
       <c r="G6" s="1">
         <v>9</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="1">
         <v>42.5</v>
       </c>
       <c r="I6" s="5">
@@ -4132,7 +4575,7 @@
       <c r="G7" s="1">
         <v>9.5</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="1">
         <v>43.5</v>
       </c>
       <c r="I7" s="5">
@@ -4164,7 +4607,7 @@
       <c r="G8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="1">
         <v>44</v>
       </c>
       <c r="I8" s="5">
@@ -4196,7 +4639,7 @@
       <c r="G9" s="1">
         <v>10.5</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="1">
         <v>44.5</v>
       </c>
       <c r="I9" s="5">
@@ -4234,7 +4677,7 @@
       <c r="G10" s="1">
         <v>7</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="1">
         <v>40</v>
       </c>
       <c r="I10" s="5">
@@ -4266,7 +4709,7 @@
       <c r="G11" s="1">
         <v>7.5</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="1">
         <v>40.5</v>
       </c>
       <c r="I11" s="5">
@@ -4298,7 +4741,7 @@
       <c r="G12" s="1">
         <v>8</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="1">
         <v>41.5</v>
       </c>
       <c r="I12" s="5">
@@ -4330,7 +4773,7 @@
       <c r="G13" s="1">
         <v>8.5</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="1">
         <v>42</v>
       </c>
       <c r="I13" s="5">
@@ -4362,7 +4805,7 @@
       <c r="G14" s="1">
         <v>9</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="1">
         <v>42.5</v>
       </c>
       <c r="I14" s="5">
@@ -4394,7 +4837,7 @@
       <c r="G15" s="1">
         <v>9.5</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="1">
         <v>43.5</v>
       </c>
       <c r="I15" s="5">
@@ -4426,7 +4869,7 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="1">
         <v>44</v>
       </c>
       <c r="I16" s="5">
@@ -4458,7 +4901,7 @@
       <c r="G17" s="1">
         <v>10.5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="1">
         <v>44.5</v>
       </c>
       <c r="I17" s="5">
@@ -7289,8 +7732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB198-90E3-43B8-AC7F-4804B31B1E93}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7370,7 +7813,7 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="4">
@@ -7400,7 +7843,7 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="4">
@@ -7430,7 +7873,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="4">
@@ -7460,7 +7903,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="4">
@@ -7490,7 +7933,7 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="4">
@@ -7520,7 +7963,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="4">
@@ -7550,7 +7993,7 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="4">
@@ -7580,7 +8023,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="4">
@@ -7610,7 +8053,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="4">
@@ -7640,7 +8083,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="4">

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338C19EE-71CC-42E2-8EEC-52B3645D650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF36AE1-2579-4408-8B81-EC6F0252D475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="72">
   <si>
     <t>model</t>
   </si>
@@ -235,6 +235,22 @@
   <si>
     <t>Приготовьтесь к новым приключениям с Woodside Chukka. Прочная конструкция сочетает в себе искусственный мех внутри и толстую резиновую накладку, чтобы ваши ноги оставались сухими и тёплыми.</t>
   </si>
+  <si>
+    <t>P-6000</t>
+  </si>
+  <si>
+    <t>100079_1 100079_2 100079_3 100079_4 100079_5 100079_6</t>
+  </si>
+  <si>
+    <t>Nike P-6000 әлдеқайда 2006 жылғы Nike Air Pegasus-тен шабыт алып, сізге бұрынғы 2000-ші жылдарды еске түсіретін, тыныс алуға мүмкіндік беретін және ыңғайлы біріктірілген көрнекті стильді ұсынады.
+Nike P-6000 вдохновляется моделью Nike Air Pegasus 2006 года, предлагая вам смесь культового стиля, которая обеспечивает воздухопроницаемость, комфорт и вызывает ассоциации с атмосферой начала 2000-х.</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>100094_1 100094_2 100094_3 100094_4 100094_5</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,19 +303,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -330,11 +333,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D57" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="D98" workbookViewId="0">
+      <selection activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2175,12 +2178,6 @@
       <c r="F47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="H47" s="1">
-        <v>35.5</v>
-      </c>
       <c r="I47" s="5">
         <f t="shared" si="1"/>
         <v>88386.052631578947</v>
@@ -2207,12 +2204,6 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1">
-        <v>4</v>
-      </c>
-      <c r="H48" s="1">
-        <v>36</v>
-      </c>
       <c r="I48" s="5">
         <f t="shared" si="1"/>
         <v>129051.84210526316</v>
@@ -2239,12 +2230,6 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="H49" s="1">
-        <v>36.5</v>
-      </c>
       <c r="I49" s="5">
         <f t="shared" si="1"/>
         <v>107522.89473684211</v>
@@ -2271,12 +2256,6 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1">
-        <v>5</v>
-      </c>
-      <c r="H50" s="1">
-        <v>37.5</v>
-      </c>
       <c r="I50" s="5">
         <f t="shared" si="1"/>
         <v>97157.105263157893</v>
@@ -2303,12 +2282,6 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="H51" s="1">
-        <v>38</v>
-      </c>
       <c r="I51" s="5">
         <f t="shared" si="1"/>
         <v>96359.736842105267</v>
@@ -2335,12 +2308,6 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1">
-        <v>6</v>
-      </c>
-      <c r="H52" s="1">
-        <v>38.5</v>
-      </c>
       <c r="I52" s="5">
         <f t="shared" si="1"/>
         <v>84399.210526315786</v>
@@ -2367,12 +2334,6 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="H53" s="1">
-        <v>39</v>
-      </c>
       <c r="I53" s="5">
         <f t="shared" si="1"/>
         <v>75628.15789473684</v>
@@ -2399,12 +2360,6 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1">
-        <v>7</v>
-      </c>
-      <c r="H54" s="1">
-        <v>40</v>
-      </c>
       <c r="I54" s="5">
         <f t="shared" si="1"/>
         <v>74830.789473684214</v>
@@ -2431,12 +2386,6 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="H55" s="1">
-        <v>40.5</v>
-      </c>
       <c r="I55" s="5">
         <f t="shared" si="1"/>
         <v>74830.789473684214</v>
@@ -2463,12 +2412,6 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1">
-        <v>8</v>
-      </c>
-      <c r="H56" s="1">
-        <v>41</v>
-      </c>
       <c r="I56" s="5">
         <f t="shared" si="1"/>
         <v>74830.789473684214</v>
@@ -2495,12 +2438,6 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="H57" s="1">
-        <v>42</v>
-      </c>
       <c r="I57" s="5">
         <f t="shared" si="1"/>
         <v>74033.421052631587</v>
@@ -2527,12 +2464,6 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1">
-        <v>9</v>
-      </c>
-      <c r="H58" s="1">
-        <v>42.5</v>
-      </c>
       <c r="I58" s="5">
         <f t="shared" si="1"/>
         <v>74830.789473684214</v>
@@ -2559,12 +2490,6 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="H59" s="1">
-        <v>43</v>
-      </c>
       <c r="I59" s="5">
         <f t="shared" si="1"/>
         <v>77222.894736842107</v>
@@ -2591,12 +2516,6 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1">
-        <v>10</v>
-      </c>
-      <c r="H60" s="1">
-        <v>44</v>
-      </c>
       <c r="I60" s="5">
         <f t="shared" si="1"/>
         <v>77222.894736842107</v>
@@ -2623,12 +2542,6 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="H61" s="1">
-        <v>44.5</v>
-      </c>
       <c r="I61" s="5">
         <f t="shared" si="1"/>
         <v>81209.736842105267</v>
@@ -2677,7 +2590,7 @@
       <c r="K62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="L62" s="8" t="s">
         <v>66</v>
       </c>
       <c r="M62" s="4">
@@ -2832,7 +2745,7 @@
         <v>38.5</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67:I79" si="3">M67</f>
+        <f t="shared" ref="I67:I109" si="3">M67</f>
         <v>62870.26315789474</v>
       </c>
       <c r="J67" s="1"/>
@@ -2901,7 +2814,7 @@
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="4">
@@ -2933,7 +2846,7 @@
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="4">
@@ -3238,44 +3151,950 @@
         <v>730</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A80" s="8">
+    <row r="80" spans="1:14" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
         <v>100079</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H80" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="3"/>
+        <v>64465</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M80" s="4">
+        <f t="shared" ref="M80:M94" si="5">(N80*75+N80*75*0.01+15000+4200+5000)/0.95</f>
+        <v>64465</v>
+      </c>
+      <c r="N80" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>100080</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1">
+        <v>4</v>
+      </c>
+      <c r="H81" s="1">
+        <v>36</v>
+      </c>
+      <c r="I81" s="5">
+        <f t="shared" si="3"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L81" s="1"/>
+      <c r="M81" s="4">
+        <f t="shared" si="5"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="N81" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>100081</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H82" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I82" s="5">
+        <f t="shared" si="3"/>
+        <v>70046.578947368427</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="M82" s="4">
+        <f t="shared" si="5"/>
+        <v>70046.578947368427</v>
+      </c>
+      <c r="N82" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>100082</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1">
+        <v>5</v>
+      </c>
+      <c r="H83" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I83" s="5">
+        <f t="shared" si="3"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="4">
+        <f t="shared" si="5"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N83" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>100083</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H84" s="1">
+        <v>38</v>
+      </c>
+      <c r="I84" s="5">
+        <f t="shared" si="3"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" s="1"/>
+      <c r="M84" s="4">
+        <f t="shared" si="5"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="N84" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>100084</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1">
+        <v>6</v>
+      </c>
+      <c r="H85" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I85" s="5">
+        <f t="shared" si="3"/>
+        <v>62870.26315789474</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="1"/>
+      <c r="M85" s="4">
+        <f t="shared" si="5"/>
+        <v>62870.26315789474</v>
+      </c>
+      <c r="N85" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>100085</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H86" s="1">
+        <v>39</v>
+      </c>
+      <c r="I86" s="5">
+        <f t="shared" si="3"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" s="1"/>
+      <c r="M86" s="4">
+        <f t="shared" si="5"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="N86" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>100086</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1">
+        <v>7</v>
+      </c>
+      <c r="H87" s="1">
+        <v>40</v>
+      </c>
+      <c r="I87" s="5">
+        <f t="shared" si="3"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="4">
+        <f t="shared" si="5"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="N87" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>100087</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H88" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I88" s="5">
+        <f t="shared" si="3"/>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L88" s="1"/>
+      <c r="M88" s="4">
+        <f t="shared" si="5"/>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="N88" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>100088</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1">
+        <v>8</v>
+      </c>
+      <c r="H89" s="1">
+        <v>41</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="3"/>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" s="1"/>
+      <c r="M89" s="4">
+        <f t="shared" si="5"/>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="N89" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>100089</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H90" s="1">
+        <v>42</v>
+      </c>
+      <c r="I90" s="5">
+        <f t="shared" si="3"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L90" s="1"/>
+      <c r="M90" s="4">
+        <f t="shared" si="5"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="N90" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>100090</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1">
+        <v>9</v>
+      </c>
+      <c r="H91" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I91" s="5">
+        <f t="shared" si="3"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L91" s="1"/>
+      <c r="M91" s="4">
+        <f t="shared" si="5"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="N91" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>100091</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H92" s="1">
+        <v>43</v>
+      </c>
+      <c r="I92" s="5">
+        <f t="shared" si="3"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="1"/>
+      <c r="M92" s="4">
+        <f t="shared" si="5"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="N92" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>100092</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1">
+        <v>10</v>
+      </c>
+      <c r="H93" s="1">
+        <v>44</v>
+      </c>
+      <c r="I93" s="5">
+        <f t="shared" si="3"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" s="1"/>
+      <c r="M93" s="4">
+        <f t="shared" si="5"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="N93" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>100093</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H94" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I94" s="5">
+        <f t="shared" si="3"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L94" s="1"/>
+      <c r="M94" s="4">
+        <f t="shared" si="5"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="N94" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>100094</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G95" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H95" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I95" s="5">
+        <f t="shared" si="3"/>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M95" s="4">
+        <f t="shared" ref="M95:M109" si="6">(N95*75+N95*75*0.01+15000+4200+5000)/0.95</f>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="N95" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>100095</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1">
+        <v>4</v>
+      </c>
+      <c r="H96" s="1">
+        <v>36</v>
+      </c>
+      <c r="I96" s="5">
+        <f t="shared" si="3"/>
+        <v>65262.368421052633</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="4">
+        <f t="shared" si="6"/>
+        <v>65262.368421052633</v>
+      </c>
+      <c r="N96" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>100096</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H97" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I97" s="5">
+        <f t="shared" si="3"/>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="4">
+        <f t="shared" si="6"/>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="N97" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>100097</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1">
+        <v>5</v>
+      </c>
+      <c r="H98" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I98" s="5">
+        <f t="shared" si="3"/>
+        <v>69249.210526315786</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="4">
+        <f t="shared" si="6"/>
+        <v>69249.210526315786</v>
+      </c>
+      <c r="N98" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>100098</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H99" s="1">
+        <v>38</v>
+      </c>
+      <c r="I99" s="5">
+        <f t="shared" si="3"/>
+        <v>78817.631578947374</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="4">
+        <f t="shared" si="6"/>
+        <v>78817.631578947374</v>
+      </c>
+      <c r="N99" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>100099</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1">
+        <v>6</v>
+      </c>
+      <c r="H100" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I100" s="5">
+        <f t="shared" si="3"/>
+        <v>80412.368421052641</v>
+      </c>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="4">
+        <f t="shared" si="6"/>
+        <v>80412.368421052641</v>
+      </c>
+      <c r="N100" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>100100</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H101" s="1">
+        <v>39</v>
+      </c>
+      <c r="I101" s="5">
+        <f t="shared" si="3"/>
+        <v>82804.473684210534</v>
+      </c>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="4">
+        <f t="shared" si="6"/>
+        <v>82804.473684210534</v>
+      </c>
+      <c r="N101" s="2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>100101</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1">
+        <v>7</v>
+      </c>
+      <c r="H102" s="1">
+        <v>40</v>
+      </c>
+      <c r="I102" s="5">
+        <f t="shared" si="3"/>
+        <v>70843.947368421053</v>
+      </c>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="4">
+        <f t="shared" si="6"/>
+        <v>70843.947368421053</v>
+      </c>
+      <c r="N102" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>100102</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H103" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I103" s="5">
+        <f t="shared" si="3"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="4">
+        <f t="shared" si="6"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="N103" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>100103</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1">
+        <v>8</v>
+      </c>
+      <c r="H104" s="1">
+        <v>41</v>
+      </c>
+      <c r="I104" s="5">
+        <f t="shared" si="3"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="4">
+        <f t="shared" si="6"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="N104" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>100104</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H105" s="1">
+        <v>42</v>
+      </c>
+      <c r="I105" s="5">
+        <f t="shared" si="3"/>
+        <v>65262.368421052633</v>
+      </c>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="4">
+        <f t="shared" si="6"/>
+        <v>65262.368421052633</v>
+      </c>
+      <c r="N105" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>100105</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1">
+        <v>9</v>
+      </c>
+      <c r="H106" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I106" s="5">
+        <f t="shared" si="3"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="4">
+        <f t="shared" si="6"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="N106" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>100106</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H107" s="1">
+        <v>43</v>
+      </c>
+      <c r="I107" s="5">
+        <f t="shared" si="3"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="4">
+        <f t="shared" si="6"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="N107" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>100107</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1">
+        <v>10</v>
+      </c>
+      <c r="H108" s="1">
+        <v>44</v>
+      </c>
+      <c r="I108" s="5">
+        <f t="shared" si="3"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="4">
+        <f t="shared" si="6"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="N108" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>100108</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H109" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I109" s="5">
+        <f t="shared" si="3"/>
+        <v>82007.105263157893</v>
+      </c>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="4">
+        <f t="shared" si="6"/>
+        <v>82007.105263157893</v>
+      </c>
+      <c r="N109" s="2">
+        <v>709</v>
       </c>
     </row>
   </sheetData>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF36AE1-2579-4408-8B81-EC6F0252D475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D69348-E91B-4DF0-B5C4-4F2AFE56C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="72">
   <si>
     <t>model</t>
   </si>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D98" workbookViewId="0">
-      <selection activeCell="L115" sqref="L115"/>
+    <sheetView tabSelected="1" topLeftCell="D97" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95:K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3697,7 +3697,9 @@
         <v>65262.368421052633</v>
       </c>
       <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
+      <c r="K96" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L96" s="1"/>
       <c r="M96" s="4">
         <f t="shared" si="6"/>
@@ -3727,7 +3729,9 @@
         <v>66059.736842105267</v>
       </c>
       <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
+      <c r="K97" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L97" s="1"/>
       <c r="M97" s="4">
         <f t="shared" si="6"/>
@@ -3757,7 +3761,9 @@
         <v>69249.210526315786</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
+      <c r="K98" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L98" s="1"/>
       <c r="M98" s="4">
         <f t="shared" si="6"/>
@@ -3787,7 +3793,9 @@
         <v>78817.631578947374</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
+      <c r="K99" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L99" s="1"/>
       <c r="M99" s="4">
         <f t="shared" si="6"/>
@@ -3817,7 +3825,9 @@
         <v>80412.368421052641</v>
       </c>
       <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
+      <c r="K100" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L100" s="1"/>
       <c r="M100" s="4">
         <f t="shared" si="6"/>
@@ -3847,7 +3857,9 @@
         <v>82804.473684210534</v>
       </c>
       <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
+      <c r="K101" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L101" s="1"/>
       <c r="M101" s="4">
         <f t="shared" si="6"/>
@@ -3877,7 +3889,9 @@
         <v>70843.947368421053</v>
       </c>
       <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
+      <c r="K102" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L102" s="1"/>
       <c r="M102" s="4">
         <f t="shared" si="6"/>
@@ -3907,7 +3921,9 @@
         <v>71641.315789473694</v>
       </c>
       <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
+      <c r="K103" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L103" s="1"/>
       <c r="M103" s="4">
         <f t="shared" si="6"/>
@@ -3937,7 +3953,9 @@
         <v>68451.84210526316</v>
       </c>
       <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
+      <c r="K104" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L104" s="1"/>
       <c r="M104" s="4">
         <f t="shared" si="6"/>
@@ -3967,7 +3985,9 @@
         <v>65262.368421052633</v>
       </c>
       <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
+      <c r="K105" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L105" s="1"/>
       <c r="M105" s="4">
         <f t="shared" si="6"/>
@@ -3997,7 +4017,9 @@
         <v>68451.84210526316</v>
       </c>
       <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
+      <c r="K106" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L106" s="1"/>
       <c r="M106" s="4">
         <f t="shared" si="6"/>
@@ -4027,7 +4049,9 @@
         <v>71641.315789473694</v>
       </c>
       <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
+      <c r="K107" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L107" s="1"/>
       <c r="M107" s="4">
         <f t="shared" si="6"/>
@@ -4057,7 +4081,9 @@
         <v>73236.052631578947</v>
       </c>
       <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
+      <c r="K108" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L108" s="1"/>
       <c r="M108" s="4">
         <f t="shared" si="6"/>
@@ -4087,7 +4113,9 @@
         <v>82007.105263157893</v>
       </c>
       <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
+      <c r="K109" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L109" s="1"/>
       <c r="M109" s="4">
         <f t="shared" si="6"/>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D69348-E91B-4DF0-B5C4-4F2AFE56C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8AC6A1-1548-4FA6-9789-9D04C90A2F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="75">
   <si>
     <t>model</t>
   </si>
@@ -250,6 +250,16 @@
   </si>
   <si>
     <t>100094_1 100094_2 100094_3 100094_4 100094_5</t>
+  </si>
+  <si>
+    <t>Zoom Vomero Roam</t>
+  </si>
+  <si>
+    <t>100109_1 100109_2 100109_3 100109_4 100109_5 100109_6</t>
+  </si>
+  <si>
+    <t>Қала жағдайына арналған бұл қыстық Vomero нұсқасы дымқыл ауа райы үшін жасалған. Төзімді материалдар мен резеңке лайқорғағыш аяқ киімді кір мен шалшықтан қорғайды. Сонымен қатар, көлемді ортаңғы табан кез келген жерде жүрсеңіз, жайлылық пен стильді айқын сездіреді.
+Созданная для городских условий, эта зимняя версия Vomero подходит для влажной погоды. Прочные материалы и резиновый грязезащитный кант помогают защитить обувь от грязи и луж. А массивная средняя подошва обеспечивает заметный комфорт и стиль, куда бы вы ни отправились.</t>
   </si>
 </sst>
 </file>
@@ -643,10 +653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D97" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95:K109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -658,7 +669,7 @@
     <col min="7" max="7" width="7.4609375" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.61328125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.15234375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.15234375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="48.84375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9.23046875" style="2"/>
@@ -2745,7 +2756,7 @@
         <v>38.5</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67:I109" si="3">M67</f>
+        <f t="shared" ref="I67:I124" si="3">M67</f>
         <v>62870.26315789474</v>
       </c>
       <c r="J67" s="1"/>
@@ -3159,7 +3170,9 @@
       <c r="C80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E80" s="1" t="s">
         <v>7</v>
       </c>
@@ -3670,7 +3683,7 @@
         <v>69</v>
       </c>
       <c r="M95" s="4">
-        <f t="shared" ref="M95:M109" si="6">(N95*75+N95*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M95:M124" si="6">(N95*75+N95*75*0.01+15000+4200+5000)/0.95</f>
         <v>66059.736842105267</v>
       </c>
       <c r="N95" s="2">
@@ -4124,6 +4137,624 @@
       <c r="N109" s="2">
         <v>709</v>
       </c>
+    </row>
+    <row r="110" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>100109</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G110" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H110" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I110" s="5">
+        <f t="shared" si="3"/>
+        <v>99549.210526315801</v>
+      </c>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M110" s="4">
+        <f t="shared" si="6"/>
+        <v>99549.210526315801</v>
+      </c>
+      <c r="N110" s="2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>100110</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1">
+        <v>4</v>
+      </c>
+      <c r="H111" s="1">
+        <v>36</v>
+      </c>
+      <c r="I111" s="5">
+        <f t="shared" si="3"/>
+        <v>98751.84210526316</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L111" s="1"/>
+      <c r="M111" s="4">
+        <f t="shared" si="6"/>
+        <v>98751.84210526316</v>
+      </c>
+      <c r="N111" s="2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>100111</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H112" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I112" s="5">
+        <f t="shared" si="3"/>
+        <v>98751.84210526316</v>
+      </c>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L112" s="1"/>
+      <c r="M112" s="4">
+        <f t="shared" si="6"/>
+        <v>98751.84210526316</v>
+      </c>
+      <c r="N112" s="2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>100112</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1">
+        <v>5</v>
+      </c>
+      <c r="H113" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I113" s="5">
+        <f t="shared" si="3"/>
+        <v>98751.84210526316</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L113" s="1"/>
+      <c r="M113" s="4">
+        <f t="shared" si="6"/>
+        <v>98751.84210526316</v>
+      </c>
+      <c r="N113" s="2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>100113</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H114" s="1">
+        <v>38</v>
+      </c>
+      <c r="I114" s="5">
+        <f t="shared" si="3"/>
+        <v>98751.84210526316</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L114" s="1"/>
+      <c r="M114" s="4">
+        <f t="shared" si="6"/>
+        <v>98751.84210526316</v>
+      </c>
+      <c r="N114" s="2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>100114</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1">
+        <v>6</v>
+      </c>
+      <c r="H115" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I115" s="5">
+        <f t="shared" si="3"/>
+        <v>97157.105263157893</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L115" s="1"/>
+      <c r="M115" s="4">
+        <f t="shared" si="6"/>
+        <v>97157.105263157893</v>
+      </c>
+      <c r="N115" s="2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>100115</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H116" s="1">
+        <v>39</v>
+      </c>
+      <c r="I116" s="5">
+        <f t="shared" si="3"/>
+        <v>86791.315789473694</v>
+      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L116" s="1"/>
+      <c r="M116" s="4">
+        <f t="shared" si="6"/>
+        <v>86791.315789473694</v>
+      </c>
+      <c r="N116" s="2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>100116</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1">
+        <v>7</v>
+      </c>
+      <c r="H117" s="1">
+        <v>40</v>
+      </c>
+      <c r="I117" s="5">
+        <f t="shared" si="3"/>
+        <v>79296.052631578947</v>
+      </c>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L117" s="1"/>
+      <c r="M117" s="4">
+        <f t="shared" si="6"/>
+        <v>79296.052631578947</v>
+      </c>
+      <c r="N117" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>100117</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H118" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I118" s="5">
+        <f t="shared" si="3"/>
+        <v>81050.263157894748</v>
+      </c>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L118" s="1"/>
+      <c r="M118" s="4">
+        <f t="shared" si="6"/>
+        <v>81050.263157894748</v>
+      </c>
+      <c r="N118" s="2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>100118</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1">
+        <v>8</v>
+      </c>
+      <c r="H119" s="1">
+        <v>41</v>
+      </c>
+      <c r="I119" s="5">
+        <f t="shared" si="3"/>
+        <v>80412.368421052641</v>
+      </c>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L119" s="1"/>
+      <c r="M119" s="4">
+        <f t="shared" si="6"/>
+        <v>80412.368421052641</v>
+      </c>
+      <c r="N119" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>100119</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H120" s="1">
+        <v>42</v>
+      </c>
+      <c r="I120" s="5">
+        <f t="shared" si="3"/>
+        <v>82007.105263157893</v>
+      </c>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L120" s="1"/>
+      <c r="M120" s="4">
+        <f t="shared" si="6"/>
+        <v>82007.105263157893</v>
+      </c>
+      <c r="N120" s="2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>100120</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1">
+        <v>9</v>
+      </c>
+      <c r="H121" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I121" s="5">
+        <f t="shared" si="3"/>
+        <v>90778.15789473684</v>
+      </c>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L121" s="1"/>
+      <c r="M121" s="4">
+        <f t="shared" si="6"/>
+        <v>90778.15789473684</v>
+      </c>
+      <c r="N121" s="2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>100121</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H122" s="1">
+        <v>43</v>
+      </c>
+      <c r="I122" s="5">
+        <f t="shared" si="3"/>
+        <v>86791.315789473694</v>
+      </c>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L122" s="1"/>
+      <c r="M122" s="4">
+        <f t="shared" si="6"/>
+        <v>86791.315789473694</v>
+      </c>
+      <c r="N122" s="2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>100122</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1">
+        <v>10</v>
+      </c>
+      <c r="H123" s="1">
+        <v>44</v>
+      </c>
+      <c r="I123" s="5">
+        <f t="shared" si="3"/>
+        <v>83601.84210526316</v>
+      </c>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L123" s="1"/>
+      <c r="M123" s="4">
+        <f t="shared" si="6"/>
+        <v>83601.84210526316</v>
+      </c>
+      <c r="N123" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>100123</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H124" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I124" s="5">
+        <f t="shared" si="3"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L124" s="1"/>
+      <c r="M124" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N124" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>100124</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>100125</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>100126</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>100127</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>100128</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>100129</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>100130</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>100131</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8AC6A1-1548-4FA6-9789-9D04C90A2F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9190EF6B-E099-4D3B-B230-231BDD427711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="76">
   <si>
     <t>model</t>
   </si>
@@ -252,14 +252,17 @@
     <t>100094_1 100094_2 100094_3 100094_4 100094_5</t>
   </si>
   <si>
-    <t>Zoom Vomero Roam</t>
-  </si>
-  <si>
     <t>100109_1 100109_2 100109_3 100109_4 100109_5 100109_6</t>
   </si>
   <si>
     <t>Қала жағдайына арналған бұл қыстық Vomero нұсқасы дымқыл ауа райы үшін жасалған. Төзімді материалдар мен резеңке лайқорғағыш аяқ киімді кір мен шалшықтан қорғайды. Сонымен қатар, көлемді ортаңғы табан кез келген жерде жүрсеңіз, жайлылық пен стильді айқын сездіреді.
 Созданная для городских условий, эта зимняя версия Vomero подходит для влажной погоды. Прочные материалы и резиновый грязезащитный кант помогают защитить обувь от грязи и луж. А массивная средняя подошва обеспечивает заметный комфорт и стиль, куда бы вы ни отправились.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100124_1 100124_2 100124_3 100124_4 100124_5 </t>
+  </si>
+  <si>
+    <t>Zoom Vomero Roam winterized</t>
   </si>
 </sst>
 </file>
@@ -653,11 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K110" sqref="K110"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2756,7 +2759,7 @@
         <v>38.5</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67:I124" si="3">M67</f>
+        <f t="shared" ref="I67:I130" si="3">M67</f>
         <v>62870.26315789474</v>
       </c>
       <c r="J67" s="1"/>
@@ -3683,7 +3686,7 @@
         <v>69</v>
       </c>
       <c r="M95" s="4">
-        <f t="shared" ref="M95:M124" si="6">(N95*75+N95*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M95:M139" si="6">(N95*75+N95*75*0.01+15000+4200+5000)/0.95</f>
         <v>66059.736842105267</v>
       </c>
       <c r="N95" s="2">
@@ -4144,7 +4147,7 @@
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>38</v>
@@ -4153,7 +4156,7 @@
         <v>43</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G110" s="1">
         <v>3.5</v>
@@ -4170,7 +4173,7 @@
         <v>25</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M110" s="4">
         <f t="shared" si="6"/>
@@ -4635,14 +4638,34 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
+      <c r="E125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G125" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H125" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I125" s="5">
+        <f t="shared" si="3"/>
+        <v>84478.947368421053</v>
+      </c>
       <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
+      <c r="K125" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="L125" s="1"/>
+      <c r="M125" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N125" s="2">
+        <v>740</v>
+      </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
@@ -4653,12 +4676,28 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
+      <c r="G126" s="1">
+        <v>4</v>
+      </c>
+      <c r="H126" s="1">
+        <v>36</v>
+      </c>
+      <c r="I126" s="5">
+        <f t="shared" si="3"/>
+        <v>84478.947368421053</v>
+      </c>
       <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
+      <c r="K126" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="L126" s="1"/>
+      <c r="M126" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N126" s="2">
+        <v>740</v>
+      </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
@@ -4669,12 +4708,28 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
+      <c r="G127" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H127" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I127" s="5">
+        <f t="shared" si="3"/>
+        <v>84478.947368421053</v>
+      </c>
       <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
+      <c r="K127" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="L127" s="1"/>
+      <c r="M127" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N127" s="2">
+        <v>740</v>
+      </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
@@ -4685,14 +4740,30 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
+      <c r="G128" s="1">
+        <v>5</v>
+      </c>
+      <c r="H128" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I128" s="5">
+        <f t="shared" si="3"/>
+        <v>84478.947368421053</v>
+      </c>
       <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
+      <c r="K128" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="L128" s="1"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M128" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N128" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>100128</v>
       </c>
@@ -4701,14 +4772,30 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
+      <c r="G129" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H129" s="1">
+        <v>38</v>
+      </c>
+      <c r="I129" s="5">
+        <f t="shared" si="3"/>
+        <v>84478.947368421053</v>
+      </c>
       <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
+      <c r="K129" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="L129" s="1"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M129" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N129" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>100129</v>
       </c>
@@ -4717,14 +4804,30 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
+      <c r="G130" s="1">
+        <v>6</v>
+      </c>
+      <c r="H130" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I130" s="5">
+        <f t="shared" si="3"/>
+        <v>84478.947368421053</v>
+      </c>
       <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
+      <c r="K130" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="L130" s="1"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M130" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N130" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>100130</v>
       </c>
@@ -4733,14 +4836,30 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
+      <c r="G131" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H131" s="1">
+        <v>39</v>
+      </c>
+      <c r="I131" s="5">
+        <f t="shared" ref="I131:I137" si="7">M131</f>
+        <v>79615</v>
+      </c>
       <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
+      <c r="K131" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L131" s="1"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M131" s="4">
+        <f t="shared" si="6"/>
+        <v>79615</v>
+      </c>
+      <c r="N131" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>100131</v>
       </c>
@@ -4749,12 +4868,252 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
+      <c r="G132" s="1">
+        <v>7</v>
+      </c>
+      <c r="H132" s="1">
+        <v>40</v>
+      </c>
+      <c r="I132" s="5">
+        <f t="shared" si="7"/>
+        <v>82804.473684210534</v>
+      </c>
       <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
+      <c r="K132" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="L132" s="1"/>
+      <c r="M132" s="4">
+        <f t="shared" si="6"/>
+        <v>82804.473684210534</v>
+      </c>
+      <c r="N132" s="2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>100132</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H133" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I133" s="5">
+        <f t="shared" si="7"/>
+        <v>89183.421052631587</v>
+      </c>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L133" s="1"/>
+      <c r="M133" s="4">
+        <f t="shared" si="6"/>
+        <v>89183.421052631587</v>
+      </c>
+      <c r="N133" s="2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>100133</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1">
+        <v>8</v>
+      </c>
+      <c r="H134" s="1">
+        <v>41</v>
+      </c>
+      <c r="I134" s="5">
+        <f t="shared" si="7"/>
+        <v>70843.947368421053</v>
+      </c>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L134" s="1"/>
+      <c r="M134" s="4">
+        <f t="shared" si="6"/>
+        <v>70843.947368421053</v>
+      </c>
+      <c r="N134" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>100134</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H135" s="1">
+        <v>42</v>
+      </c>
+      <c r="I135" s="5">
+        <f t="shared" si="7"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L135" s="1"/>
+      <c r="M135" s="4">
+        <f t="shared" si="6"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N135" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>100135</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1">
+        <v>9</v>
+      </c>
+      <c r="H136" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I136" s="5">
+        <f t="shared" si="7"/>
+        <v>80412.368421052641</v>
+      </c>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L136" s="1"/>
+      <c r="M136" s="4">
+        <f t="shared" si="6"/>
+        <v>80412.368421052641</v>
+      </c>
+      <c r="N136" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>100136</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H137" s="1">
+        <v>43</v>
+      </c>
+      <c r="I137" s="5">
+        <f>M137</f>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L137" s="1"/>
+      <c r="M137" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N137" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>100136</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1">
+        <v>10</v>
+      </c>
+      <c r="H138" s="1">
+        <v>44</v>
+      </c>
+      <c r="I138" s="5">
+        <f t="shared" ref="I138:I139" si="8">M138</f>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L138" s="1"/>
+      <c r="M138" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N138" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>100136</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H139" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I139" s="5">
+        <f t="shared" si="8"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L139" s="1"/>
+      <c r="M139" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N139" s="2">
+        <v>740</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9190EF6B-E099-4D3B-B230-231BDD427711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530EDFF7-94F8-466A-950B-FBBBD4268B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="76">
   <si>
     <t>model</t>
   </si>
@@ -658,9 +658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L125" sqref="L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4631,7 +4631,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>100124</v>
       </c>
@@ -4658,7 +4658,9 @@
       <c r="K125" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L125" s="1"/>
+      <c r="L125" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="M125" s="4">
         <f t="shared" si="6"/>
         <v>84478.947368421053</v>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530EDFF7-94F8-466A-950B-FBBBD4268B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870A13CF-0F91-461A-84A3-1E7AC04333C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="77">
   <si>
     <t>model</t>
   </si>
@@ -263,6 +263,22 @@
   </si>
   <si>
     <t>Zoom Vomero Roam winterized</t>
+  </si>
+  <si>
+    <t>Қала жағдайына арналған бұл қыстық Vomero нұсқасы дымқыл ауа райы үшін жасалған. Төзімді материалдар мен резеңке лайқорғағыш аяқ киімді кір мен шалшықтан қорғайды. Сонымен қатар, көлемді ортаңғы табан кез келген жерде жүрсеңіз, жайлылық пен стильді айқын сездіреді.
+Созданная для городских условий, эта зимняя версия Vomero подходит для влажной погоды. Прочные материалы и резиновый грязезащитный кант помогают защитить обувь от грязи и луж. А массивная средняя подошва обеспечивает заметный комфорт и стиль, куда бы вы ни отправились.
+Преимущества
+Слои текстиля и замши в верхней части создают прочную и комфортную посадку.
+Фиксатор шнурков легко регулировать, он оснащён крючком, чтобы держаться на месте.
+Водоотталкивающее покрытие и резиновый грязезащитный кант помогают защитить от влаги, сохраняя ноги сухими.
+Амортизирующие модули Nike Air Zoom обеспечивают комфорт в течение всего дня.
+Подошва HART (High Abrasion Rubber Tech) использует меньше резиновой смеси, чем другие наши технологии XDR, — без потери прочности и износостойкости. Меньше материала делает подошву легче и гибче.
+Детали товара
+Петли для удобного надевания
+Светоотражающие элементы
+Резиновый грязезащитный кант
+Пенка в промежуточной подошве
+Резиновая подметка</t>
   </si>
 </sst>
 </file>
@@ -659,7 +675,7 @@
   <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L125" sqref="L125"/>
     </sheetView>
   </sheetViews>
@@ -4631,7 +4647,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>100124</v>
       </c>
@@ -4659,7 +4675,7 @@
         <v>32</v>
       </c>
       <c r="L125" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M125" s="4">
         <f t="shared" si="6"/>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870A13CF-0F91-461A-84A3-1E7AC04333C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7182FBC5-631A-4A4D-9046-DA627D6A3E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="78">
   <si>
     <t>model</t>
   </si>
@@ -280,6 +280,9 @@
 Пенка в промежуточной подошве
 Резиновая подметка</t>
   </si>
+  <si>
+    <t>100139_1 100139_2 100139_3 100139_4</t>
+  </si>
 </sst>
 </file>
 
@@ -341,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,6 +370,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,11 +678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L125" sqref="L125"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3702,7 +3708,7 @@
         <v>69</v>
       </c>
       <c r="M95" s="4">
-        <f t="shared" ref="M95:M139" si="6">(N95*75+N95*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M95:M154" si="6">(N95*75+N95*75*0.01+15000+4200+5000)/0.95</f>
         <v>66059.736842105267</v>
       </c>
       <c r="N95" s="2">
@@ -4674,7 +4680,7 @@
       <c r="K125" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L125" s="9" t="s">
+      <c r="L125" s="10" t="s">
         <v>76</v>
       </c>
       <c r="M125" s="4">
@@ -4861,7 +4867,7 @@
         <v>39</v>
       </c>
       <c r="I131" s="5">
-        <f t="shared" ref="I131:I137" si="7">M131</f>
+        <f t="shared" ref="I131:I136" si="7">M131</f>
         <v>79615</v>
       </c>
       <c r="J131" s="1"/>
@@ -5071,7 +5077,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
-        <v>100136</v>
+        <v>100137</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5085,7 +5091,7 @@
         <v>44</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" ref="I138:I139" si="8">M138</f>
+        <f t="shared" ref="I138:I154" si="8">M138</f>
         <v>84478.947368421053</v>
       </c>
       <c r="J138" s="1"/>
@@ -5103,7 +5109,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
-        <v>100136</v>
+        <v>100138</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5131,6 +5137,425 @@
       </c>
       <c r="N139" s="2">
         <v>740</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>100139</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G140" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H140" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I140" s="5">
+        <f t="shared" si="8"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M140" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N140" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>100140</v>
+      </c>
+      <c r="G141" s="1">
+        <v>4</v>
+      </c>
+      <c r="H141" s="1">
+        <v>36</v>
+      </c>
+      <c r="I141" s="5">
+        <f t="shared" si="8"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M141" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N141" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
+        <v>100141</v>
+      </c>
+      <c r="G142" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H142" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I142" s="5">
+        <f t="shared" si="8"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M142" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N142" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A143" s="1">
+        <v>100142</v>
+      </c>
+      <c r="G143" s="1">
+        <v>5</v>
+      </c>
+      <c r="H143" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I143" s="5">
+        <f t="shared" si="8"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M143" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N143" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
+        <v>100143</v>
+      </c>
+      <c r="G144" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H144" s="1">
+        <v>38</v>
+      </c>
+      <c r="I144" s="5">
+        <f t="shared" si="8"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M144" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N144" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
+        <v>100144</v>
+      </c>
+      <c r="G145" s="1">
+        <v>6</v>
+      </c>
+      <c r="H145" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I145" s="5">
+        <f t="shared" si="8"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M145" s="4">
+        <f t="shared" si="6"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="N145" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
+        <v>100145</v>
+      </c>
+      <c r="G146" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H146" s="1">
+        <v>39</v>
+      </c>
+      <c r="I146" s="5">
+        <f t="shared" si="8"/>
+        <v>60478.157894736847</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M146" s="4">
+        <f t="shared" si="6"/>
+        <v>60478.157894736847</v>
+      </c>
+      <c r="N146" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
+        <v>100146</v>
+      </c>
+      <c r="G147" s="1">
+        <v>7</v>
+      </c>
+      <c r="H147" s="1">
+        <v>40</v>
+      </c>
+      <c r="I147" s="5">
+        <f t="shared" si="8"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M147" s="4">
+        <f t="shared" si="6"/>
+        <v>84478.947368421053</v>
+      </c>
+      <c r="N147" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
+        <v>100147</v>
+      </c>
+      <c r="G148" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H148" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I148" s="5">
+        <f t="shared" si="8"/>
+        <v>58086.052631578947</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M148" s="4">
+        <f t="shared" si="6"/>
+        <v>58086.052631578947</v>
+      </c>
+      <c r="N148" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>100148</v>
+      </c>
+      <c r="G149" s="1">
+        <v>8</v>
+      </c>
+      <c r="H149" s="1">
+        <v>41</v>
+      </c>
+      <c r="I149" s="5">
+        <f t="shared" si="8"/>
+        <v>56491.315789473687</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M149" s="4">
+        <f t="shared" si="6"/>
+        <v>56491.315789473687</v>
+      </c>
+      <c r="N149" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>100149</v>
+      </c>
+      <c r="G150" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H150" s="1">
+        <v>42</v>
+      </c>
+      <c r="I150" s="5">
+        <f t="shared" si="8"/>
+        <v>56491.315789473687</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M150" s="4">
+        <f t="shared" si="6"/>
+        <v>56491.315789473687</v>
+      </c>
+      <c r="N150" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>100150</v>
+      </c>
+      <c r="G151" s="1">
+        <v>9</v>
+      </c>
+      <c r="H151" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I151" s="5">
+        <f t="shared" si="8"/>
+        <v>57288.68421052632</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M151" s="4">
+        <f t="shared" si="6"/>
+        <v>57288.68421052632</v>
+      </c>
+      <c r="N151" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
+        <v>100151</v>
+      </c>
+      <c r="G152" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H152" s="1">
+        <v>43</v>
+      </c>
+      <c r="I152" s="5">
+        <f t="shared" si="8"/>
+        <v>58086.052631578947</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M152" s="4">
+        <f t="shared" si="6"/>
+        <v>58086.052631578947</v>
+      </c>
+      <c r="N152" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
+        <v>100152</v>
+      </c>
+      <c r="G153" s="1">
+        <v>10</v>
+      </c>
+      <c r="H153" s="1">
+        <v>44</v>
+      </c>
+      <c r="I153" s="5">
+        <f t="shared" si="8"/>
+        <v>60478.157894736847</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M153" s="4">
+        <f t="shared" si="6"/>
+        <v>60478.157894736847</v>
+      </c>
+      <c r="N153" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A154" s="1">
+        <v>100153</v>
+      </c>
+      <c r="G154" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H154" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I154" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" s="4">
+        <f t="shared" si="6"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N154" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
+        <v>100154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A156" s="1">
+        <v>100155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A157" s="1">
+        <v>100156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A158" s="1">
+        <v>100157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A159" s="1">
+        <v>100158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A160" s="1">
+        <v>100159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A161" s="1">
+        <v>100160</v>
       </c>
     </row>
   </sheetData>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7182FBC5-631A-4A4D-9046-DA627D6A3E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE2EFC5-C2D9-45ED-A6CE-69759516290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="80">
   <si>
     <t>model</t>
   </si>
@@ -265,23 +265,17 @@
     <t>Zoom Vomero Roam winterized</t>
   </si>
   <si>
-    <t>Қала жағдайына арналған бұл қыстық Vomero нұсқасы дымқыл ауа райы үшін жасалған. Төзімді материалдар мен резеңке лайқорғағыш аяқ киімді кір мен шалшықтан қорғайды. Сонымен қатар, көлемді ортаңғы табан кез келген жерде жүрсеңіз, жайлылық пен стильді айқын сездіреді.
-Созданная для городских условий, эта зимняя версия Vomero подходит для влажной погоды. Прочные материалы и резиновый грязезащитный кант помогают защитить обувь от грязи и луж. А массивная средняя подошва обеспечивает заметный комфорт и стиль, куда бы вы ни отправились.
-Преимущества
-Слои текстиля и замши в верхней части создают прочную и комфортную посадку.
-Фиксатор шнурков легко регулировать, он оснащён крючком, чтобы держаться на месте.
-Водоотталкивающее покрытие и резиновый грязезащитный кант помогают защитить от влаги, сохраняя ноги сухими.
-Амортизирующие модули Nike Air Zoom обеспечивают комфорт в течение всего дня.
-Подошва HART (High Abrasion Rubber Tech) использует меньше резиновой смеси, чем другие наши технологии XDR, — без потери прочности и износостойкости. Меньше материала делает подошву легче и гибче.
-Детали товара
-Петли для удобного надевания
-Светоотражающие элементы
-Резиновый грязезащитный кант
-Пенка в промежуточной подошве
-Резиновая подметка</t>
+    <t>100139_1 100139_2 100139_3 100139_4</t>
   </si>
   <si>
-    <t>100139_1 100139_2 100139_3 100139_4</t>
+    <t>Lunar Force 1 Duckboot</t>
+  </si>
+  <si>
+    <t>100154_1 100154_2 100154_3 100154_4 100154_5 100154_6</t>
+  </si>
+  <si>
+    <t>Айдың қараңғы бетіне қарағанда суық болып, жаңбыр сіркіреп тұрған күннің өзінде де стильді көріну керек. Су өткізбейтін былғары мен мықты табанның арқасында Lunar Force 1 AF1 стилін ауа райына бейімдеп, сенің жалқыны сөніп қалмайды. Шнурға арналған металл бөлшектер мен үлкейтілген тілше тау етігінің беріктігін береді, ал мұрын бөлігіндегі жұлдызша өрнегі бейнеңе айқындық қосады.
+Когда на улице холоднее, чем на тёмной стороне Луны, и ещё моросит дождь — всё равно нужно выглядеть круто. Благодаря водоотталкивающей коже и прочной подошве Lunar Force 1 адаптирует стиль AF1 так, чтобы ты сохранял свой огонь в любую погоду. Металлическая фурнитура для шнурков и увеличенный язык придают ботинкам прочность в стиле горной обуви, а звёздный узор на носке добавляет образу остроты.</t>
   </si>
 </sst>
 </file>
@@ -317,7 +311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -340,11 +334,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,6 +380,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,11 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L157" sqref="L157"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3708,7 +3718,7 @@
         <v>69</v>
       </c>
       <c r="M95" s="4">
-        <f t="shared" ref="M95:M154" si="6">(N95*75+N95*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M95:M158" si="6">(N95*75+N95*75*0.01+15000+4200+5000)/0.95</f>
         <v>66059.736842105267</v>
       </c>
       <c r="N95" s="2">
@@ -4653,7 +4663,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>100124</v>
       </c>
@@ -4681,7 +4691,7 @@
         <v>32</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M125" s="4">
         <f t="shared" si="6"/>
@@ -5091,7 +5101,7 @@
         <v>44</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" ref="I138:I154" si="8">M138</f>
+        <f t="shared" ref="I138:I164" si="8">M138</f>
         <v>84478.947368421053</v>
       </c>
       <c r="J138" s="1"/>
@@ -5139,18 +5149,20 @@
         <v>740</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>100139</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>77</v>
+      <c r="F140" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G140" s="1">
         <v>3.5</v>
@@ -5162,8 +5174,12 @@
         <f t="shared" si="8"/>
         <v>84478.947368421053</v>
       </c>
+      <c r="J140" s="1"/>
       <c r="K140" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="L140" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="M140" s="4">
         <f t="shared" si="6"/>
@@ -5177,6 +5193,11 @@
       <c r="A141" s="1">
         <v>100140</v>
       </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
       <c r="G141" s="1">
         <v>4</v>
       </c>
@@ -5187,9 +5208,11 @@
         <f t="shared" si="8"/>
         <v>84478.947368421053</v>
       </c>
+      <c r="J141" s="1"/>
       <c r="K141" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L141" s="1"/>
       <c r="M141" s="4">
         <f t="shared" si="6"/>
         <v>84478.947368421053</v>
@@ -5202,6 +5225,11 @@
       <c r="A142" s="1">
         <v>100141</v>
       </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
       <c r="G142" s="1">
         <v>4.5</v>
       </c>
@@ -5212,9 +5240,11 @@
         <f t="shared" si="8"/>
         <v>84478.947368421053</v>
       </c>
+      <c r="J142" s="1"/>
       <c r="K142" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L142" s="1"/>
       <c r="M142" s="4">
         <f t="shared" si="6"/>
         <v>84478.947368421053</v>
@@ -5227,6 +5257,11 @@
       <c r="A143" s="1">
         <v>100142</v>
       </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
       <c r="G143" s="1">
         <v>5</v>
       </c>
@@ -5237,9 +5272,11 @@
         <f t="shared" si="8"/>
         <v>84478.947368421053</v>
       </c>
+      <c r="J143" s="1"/>
       <c r="K143" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L143" s="1"/>
       <c r="M143" s="4">
         <f t="shared" si="6"/>
         <v>84478.947368421053</v>
@@ -5252,6 +5289,11 @@
       <c r="A144" s="1">
         <v>100143</v>
       </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
       <c r="G144" s="1">
         <v>5.5</v>
       </c>
@@ -5262,9 +5304,11 @@
         <f t="shared" si="8"/>
         <v>84478.947368421053</v>
       </c>
+      <c r="J144" s="1"/>
       <c r="K144" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L144" s="1"/>
       <c r="M144" s="4">
         <f t="shared" si="6"/>
         <v>84478.947368421053</v>
@@ -5277,6 +5321,11 @@
       <c r="A145" s="1">
         <v>100144</v>
       </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
       <c r="G145" s="1">
         <v>6</v>
       </c>
@@ -5287,9 +5336,11 @@
         <f t="shared" si="8"/>
         <v>81209.736842105267</v>
       </c>
-      <c r="K145" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L145" s="1"/>
       <c r="M145" s="4">
         <f t="shared" si="6"/>
         <v>81209.736842105267</v>
@@ -5302,6 +5353,11 @@
       <c r="A146" s="1">
         <v>100145</v>
       </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
       <c r="G146" s="1">
         <v>6.5</v>
       </c>
@@ -5312,9 +5368,11 @@
         <f t="shared" si="8"/>
         <v>60478.157894736847</v>
       </c>
-      <c r="K146" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L146" s="1"/>
       <c r="M146" s="4">
         <f t="shared" si="6"/>
         <v>60478.157894736847</v>
@@ -5327,6 +5385,11 @@
       <c r="A147" s="1">
         <v>100146</v>
       </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
       <c r="G147" s="1">
         <v>7</v>
       </c>
@@ -5337,9 +5400,11 @@
         <f t="shared" si="8"/>
         <v>84478.947368421053</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L147" s="1"/>
       <c r="M147" s="4">
         <f t="shared" si="6"/>
         <v>84478.947368421053</v>
@@ -5352,6 +5417,11 @@
       <c r="A148" s="1">
         <v>100147</v>
       </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
       <c r="G148" s="1">
         <v>7.5</v>
       </c>
@@ -5362,9 +5432,11 @@
         <f t="shared" si="8"/>
         <v>58086.052631578947</v>
       </c>
-      <c r="K148" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L148" s="1"/>
       <c r="M148" s="4">
         <f t="shared" si="6"/>
         <v>58086.052631578947</v>
@@ -5377,6 +5449,11 @@
       <c r="A149" s="1">
         <v>100148</v>
       </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
       <c r="G149" s="1">
         <v>8</v>
       </c>
@@ -5387,9 +5464,11 @@
         <f t="shared" si="8"/>
         <v>56491.315789473687</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L149" s="1"/>
       <c r="M149" s="4">
         <f t="shared" si="6"/>
         <v>56491.315789473687</v>
@@ -5402,6 +5481,11 @@
       <c r="A150" s="1">
         <v>100149</v>
       </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
       <c r="G150" s="1">
         <v>8.5</v>
       </c>
@@ -5412,9 +5496,11 @@
         <f t="shared" si="8"/>
         <v>56491.315789473687</v>
       </c>
-      <c r="K150" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L150" s="1"/>
       <c r="M150" s="4">
         <f t="shared" si="6"/>
         <v>56491.315789473687</v>
@@ -5427,6 +5513,11 @@
       <c r="A151" s="1">
         <v>100150</v>
       </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
       <c r="G151" s="1">
         <v>9</v>
       </c>
@@ -5437,9 +5528,11 @@
         <f t="shared" si="8"/>
         <v>57288.68421052632</v>
       </c>
-      <c r="K151" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L151" s="1"/>
       <c r="M151" s="4">
         <f t="shared" si="6"/>
         <v>57288.68421052632</v>
@@ -5452,6 +5545,11 @@
       <c r="A152" s="1">
         <v>100151</v>
       </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
       <c r="G152" s="1">
         <v>9.5</v>
       </c>
@@ -5462,9 +5560,11 @@
         <f t="shared" si="8"/>
         <v>58086.052631578947</v>
       </c>
-      <c r="K152" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L152" s="1"/>
       <c r="M152" s="4">
         <f t="shared" si="6"/>
         <v>58086.052631578947</v>
@@ -5477,6 +5577,11 @@
       <c r="A153" s="1">
         <v>100152</v>
       </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
       <c r="G153" s="1">
         <v>10</v>
       </c>
@@ -5487,9 +5592,11 @@
         <f t="shared" si="8"/>
         <v>60478.157894736847</v>
       </c>
-      <c r="K153" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L153" s="1"/>
       <c r="M153" s="4">
         <f t="shared" si="6"/>
         <v>60478.157894736847</v>
@@ -5502,6 +5609,11 @@
       <c r="A154" s="1">
         <v>100153</v>
       </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
       <c r="G154" s="1">
         <v>10.5</v>
       </c>
@@ -5512,9 +5624,11 @@
         <f t="shared" si="8"/>
         <v>63587.894736842107</v>
       </c>
-      <c r="K154" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L154" s="1"/>
       <c r="M154" s="4">
         <f t="shared" si="6"/>
         <v>63587.894736842107</v>
@@ -5523,39 +5637,394 @@
         <v>478</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:14" ht="262.3" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>100154</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G155" s="1">
+        <v>6</v>
+      </c>
+      <c r="H155" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I155" s="5">
+        <f t="shared" si="8"/>
+        <v>89183.421052631587</v>
+      </c>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L155" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M155" s="4">
+        <f t="shared" si="6"/>
+        <v>89183.421052631587</v>
+      </c>
+      <c r="N155" s="2">
+        <v>799</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>100155</v>
       </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H156" s="1">
+        <v>39</v>
+      </c>
+      <c r="I156" s="5">
+        <f t="shared" si="8"/>
+        <v>97157.105263157893</v>
+      </c>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L156" s="1"/>
+      <c r="M156" s="4">
+        <f t="shared" si="6"/>
+        <v>97157.105263157893</v>
+      </c>
+      <c r="N156" s="2">
+        <v>899</v>
+      </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>100156</v>
       </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1">
+        <v>7</v>
+      </c>
+      <c r="H157" s="1">
+        <v>40</v>
+      </c>
+      <c r="I157" s="5">
+        <f t="shared" si="8"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L157" s="1"/>
+      <c r="M157" s="4">
+        <f t="shared" si="6"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="N157" s="2">
+        <v>619</v>
+      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>100157</v>
       </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H158" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I158" s="5">
+        <f t="shared" si="8"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L158" s="1"/>
+      <c r="M158" s="4">
+        <f t="shared" si="6"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N158" s="2">
+        <v>609</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>100158</v>
       </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1">
+        <v>8</v>
+      </c>
+      <c r="H159" s="1">
+        <v>41</v>
+      </c>
+      <c r="I159" s="5">
+        <f t="shared" si="8"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L159" s="1"/>
+      <c r="M159" s="4">
+        <f t="shared" ref="M159:M164" si="9">(N159*75+N159*75*0.01+15000+4200+5000)/0.95</f>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N159" s="2">
+        <v>609</v>
+      </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>100159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H160" s="1">
+        <v>42</v>
+      </c>
+      <c r="I160" s="5">
+        <f t="shared" si="8"/>
+        <v>90778.15789473684</v>
+      </c>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L160" s="1"/>
+      <c r="M160" s="4">
+        <f t="shared" si="9"/>
+        <v>90778.15789473684</v>
+      </c>
+      <c r="N160" s="2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>100160</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1">
+        <v>9</v>
+      </c>
+      <c r="H161" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I161" s="5">
+        <f t="shared" si="8"/>
+        <v>94765</v>
+      </c>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L161" s="1"/>
+      <c r="M161" s="4">
+        <f t="shared" si="9"/>
+        <v>94765</v>
+      </c>
+      <c r="N161" s="2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A162" s="1">
+        <v>100161</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H162" s="1">
+        <v>43</v>
+      </c>
+      <c r="I162" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L162" s="1"/>
+      <c r="M162" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N162" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A163" s="1">
+        <v>100162</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1">
+        <v>10</v>
+      </c>
+      <c r="H163" s="1">
+        <v>44</v>
+      </c>
+      <c r="I163" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L163" s="1"/>
+      <c r="M163" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N163" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A164" s="1">
+        <v>100163</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H164" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I164" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L164" s="1"/>
+      <c r="M164" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N164" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A165" s="11">
+        <v>100164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A166" s="1">
+        <v>100165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A167" s="1">
+        <v>100166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A168" s="1">
+        <v>100167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
+        <v>100168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A170" s="1">
+        <v>100169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
+        <v>100170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A172" s="1">
+        <v>100171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
+        <v>100172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
+        <v>100173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
+        <v>100174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A176" s="1">
+        <v>100175</v>
       </c>
     </row>
   </sheetData>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE2EFC5-C2D9-45ED-A6CE-69759516290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DEF65F-26DE-4604-BB96-3D3C900E34F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="82">
   <si>
     <t>model</t>
   </si>
@@ -276,6 +276,12 @@
   <si>
     <t>Айдың қараңғы бетіне қарағанда суық болып, жаңбыр сіркіреп тұрған күннің өзінде де стильді көріну керек. Су өткізбейтін былғары мен мықты табанның арқасында Lunar Force 1 AF1 стилін ауа райына бейімдеп, сенің жалқыны сөніп қалмайды. Шнурға арналған металл бөлшектер мен үлкейтілген тілше тау етігінің беріктігін береді, ал мұрын бөлігіндегі жұлдызша өрнегі бейнеңе айқындық қосады.
 Когда на улице холоднее, чем на тёмной стороне Луны, и ещё моросит дождь — всё равно нужно выглядеть круто. Благодаря водоотталкивающей коже и прочной подошве Lunar Force 1 адаптирует стиль AF1 так, чтобы ты сохранял свой огонь в любую погоду. Металлическая фурнитура для шнурков и увеличенный язык придают ботинкам прочность в стиле горной обуви, а звёздный узор на носке добавляет образу остроты.</t>
+  </si>
+  <si>
+    <t>Offline 3.0 slippers</t>
+  </si>
+  <si>
+    <t>100164_1 100164_2 100164_3 100164_4 100164_5</t>
   </si>
 </sst>
 </file>
@@ -691,8 +697,8 @@
   <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G170" sqref="G170"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5101,7 +5107,7 @@
         <v>44</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" ref="I138:I164" si="8">M138</f>
+        <f t="shared" ref="I138:I173" si="8">M138</f>
         <v>84478.947368421053</v>
       </c>
       <c r="J138" s="1"/>
@@ -5800,7 +5806,7 @@
       </c>
       <c r="L159" s="1"/>
       <c r="M159" s="4">
-        <f t="shared" ref="M159:M164" si="9">(N159*75+N159*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M159:M173" si="9">(N159*75+N159*75*0.01+15000+4200+5000)/0.95</f>
         <v>74033.421052631587</v>
       </c>
       <c r="N159" s="2">
@@ -5968,52 +5974,303 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A165" s="11">
+      <c r="A165" s="1">
         <v>100164</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G165" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H165" s="1">
+        <v>39</v>
+      </c>
+      <c r="I165" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L165" s="1"/>
+      <c r="M165" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N165" s="2">
+        <v>478</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>100165</v>
       </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1">
+        <v>7</v>
+      </c>
+      <c r="H166" s="1">
+        <v>40</v>
+      </c>
+      <c r="I166" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L166" s="1"/>
+      <c r="M166" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N166" s="2">
+        <v>478</v>
+      </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>100166</v>
       </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H167" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I167" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L167" s="1"/>
+      <c r="M167" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N167" s="2">
+        <v>478</v>
+      </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>100167</v>
       </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1">
+        <v>8</v>
+      </c>
+      <c r="H168" s="1">
+        <v>41</v>
+      </c>
+      <c r="I168" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L168" s="1"/>
+      <c r="M168" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N168" s="2">
+        <v>478</v>
+      </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>100168</v>
       </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H169" s="1">
+        <v>42</v>
+      </c>
+      <c r="I169" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L169" s="1"/>
+      <c r="M169" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N169" s="2">
+        <v>478</v>
+      </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>100169</v>
       </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1">
+        <v>9</v>
+      </c>
+      <c r="H170" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I170" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L170" s="1"/>
+      <c r="M170" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N170" s="2">
+        <v>478</v>
+      </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>100170</v>
       </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H171" s="1">
+        <v>43</v>
+      </c>
+      <c r="I171" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L171" s="1"/>
+      <c r="M171" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N171" s="2">
+        <v>478</v>
+      </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>100171</v>
       </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1">
+        <v>10</v>
+      </c>
+      <c r="H172" s="1">
+        <v>44</v>
+      </c>
+      <c r="I172" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L172" s="1"/>
+      <c r="M172" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N172" s="2">
+        <v>478</v>
+      </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>100172</v>
       </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H173" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I173" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L173" s="1"/>
+      <c r="M173" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N173" s="2">
+        <v>478</v>
+      </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A174" s="1">
+      <c r="A174" s="11">
         <v>100173</v>
       </c>
     </row>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DEF65F-26DE-4604-BB96-3D3C900E34F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89651535-25F3-472D-A664-73B10F86B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="85">
   <si>
     <t>model</t>
   </si>
@@ -282,6 +282,16 @@
   </si>
   <si>
     <t>100164_1 100164_2 100164_3 100164_4 100164_5</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 low</t>
+  </si>
+  <si>
+    <t>100173_1 100173_2 100173_3 100173_4 100173_5</t>
+  </si>
+  <si>
+    <t>1985 жылғы алғашқы модельден шабыт алған Air Jordan 1 Low таза да классикалық стиль ұсынады — әрі таныс, әрі әрдайым заманауи. Кез келген киіммен үйлесетін культтік дизайнының арқасында бұл кроссовкалар әрқашан мінсіз көрінуіңе көмектеседі.
+Вдохновлённые оригинальной моделью 1985 года, Air Jordan 1 Low предлагают чистый, классический образ, который одновременно знакомый и всегда свежий. Благодаря культовому дизайну, идеально сочетающемуся с любым стилем, эти кроссовки гарантируют, что ты всегда будешь выглядеть безупречно.</t>
   </si>
 </sst>
 </file>
@@ -694,11 +704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F177" sqref="F177"/>
+      <selection pane="bottomLeft" activeCell="Q181" sqref="Q181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5107,7 +5117,7 @@
         <v>44</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" ref="I138:I173" si="8">M138</f>
+        <f t="shared" ref="I138:I188" si="8">M138</f>
         <v>84478.947368421053</v>
       </c>
       <c r="J138" s="1"/>
@@ -5806,7 +5816,7 @@
       </c>
       <c r="L159" s="1"/>
       <c r="M159" s="4">
-        <f t="shared" ref="M159:M173" si="9">(N159*75+N159*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M159:M188" si="9">(N159*75+N159*75*0.01+15000+4200+5000)/0.95</f>
         <v>74033.421052631587</v>
       </c>
       <c r="N159" s="2">
@@ -6269,19 +6279,519 @@
         <v>478</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A174" s="11">
+    <row r="174" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
         <v>100173</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G174" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H174" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I174" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L174" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M174" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N174" s="2">
+        <v>478</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>100174</v>
       </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1">
+        <v>4</v>
+      </c>
+      <c r="H175" s="1">
+        <v>36</v>
+      </c>
+      <c r="I175" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L175" s="1"/>
+      <c r="M175" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N175" s="2">
+        <v>478</v>
+      </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>100175</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H176" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I176" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L176" s="1"/>
+      <c r="M176" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N176" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
+        <v>100176</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1">
+        <v>5</v>
+      </c>
+      <c r="H177" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I177" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L177" s="1"/>
+      <c r="M177" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N177" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A178" s="1">
+        <v>100177</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H178" s="1">
+        <v>38</v>
+      </c>
+      <c r="I178" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L178" s="1"/>
+      <c r="M178" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N178" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
+        <v>100178</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1">
+        <v>6</v>
+      </c>
+      <c r="H179" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I179" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L179" s="1"/>
+      <c r="M179" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N179" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
+        <v>100179</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H180" s="1">
+        <v>39</v>
+      </c>
+      <c r="I180" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L180" s="1"/>
+      <c r="M180" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N180" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
+        <v>100180</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1">
+        <v>7</v>
+      </c>
+      <c r="H181" s="1">
+        <v>40</v>
+      </c>
+      <c r="I181" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L181" s="1"/>
+      <c r="M181" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N181" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
+        <v>100181</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H182" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I182" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L182" s="1"/>
+      <c r="M182" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N182" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
+        <v>100182</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1">
+        <v>8</v>
+      </c>
+      <c r="H183" s="1">
+        <v>41</v>
+      </c>
+      <c r="I183" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L183" s="1"/>
+      <c r="M183" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N183" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
+        <v>100183</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H184" s="1">
+        <v>42</v>
+      </c>
+      <c r="I184" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L184" s="1"/>
+      <c r="M184" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N184" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
+        <v>100184</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1">
+        <v>9</v>
+      </c>
+      <c r="H185" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I185" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L185" s="1"/>
+      <c r="M185" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N185" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
+        <v>100185</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H186" s="1">
+        <v>43</v>
+      </c>
+      <c r="I186" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L186" s="1"/>
+      <c r="M186" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N186" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
+        <v>100186</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1">
+        <v>10</v>
+      </c>
+      <c r="H187" s="1">
+        <v>44</v>
+      </c>
+      <c r="I187" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L187" s="1"/>
+      <c r="M187" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N187" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
+        <v>100187</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H188" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I188" s="5">
+        <f t="shared" si="8"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L188" s="1"/>
+      <c r="M188" s="4">
+        <f t="shared" si="9"/>
+        <v>63587.894736842107</v>
+      </c>
+      <c r="N188" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A189" s="11">
+        <v>100188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>100189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>100190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A192" s="11">
+        <v>100191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>100192</v>
       </c>
     </row>
   </sheetData>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89651535-25F3-472D-A664-73B10F86B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F7CC03-9B80-436F-9EBC-BE439B59C5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="87">
   <si>
     <t>model</t>
   </si>
@@ -293,6 +293,12 @@
     <t>1985 жылғы алғашқы модельден шабыт алған Air Jordan 1 Low таза да классикалық стиль ұсынады — әрі таныс, әрі әрдайым заманауи. Кез келген киіммен үйлесетін культтік дизайнының арқасында бұл кроссовкалар әрқашан мінсіз көрінуіңе көмектеседі.
 Вдохновлённые оригинальной моделью 1985 года, Air Jordan 1 Low предлагают чистый, классический образ, который одновременно знакомый и всегда свежий. Благодаря культовому дизайну, идеально сочетающемуся с любым стилем, эти кроссовки гарантируют, что ты всегда будешь выглядеть безупречно.</t>
   </si>
+  <si>
+    <t>panda</t>
+  </si>
+  <si>
+    <t>100188_1 100188_2 100188_3 100188_4 100188_5</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -350,24 +356,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,9 +389,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N193"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q181" sqref="Q181"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R192" sqref="R192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5117,7 +5107,7 @@
         <v>44</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" ref="I138:I188" si="8">M138</f>
+        <f t="shared" ref="I138:I201" si="8">M138</f>
         <v>84478.947368421053</v>
       </c>
       <c r="J138" s="1"/>
@@ -5816,7 +5806,7 @@
       </c>
       <c r="L159" s="1"/>
       <c r="M159" s="4">
-        <f t="shared" ref="M159:M188" si="9">(N159*75+N159*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M159:M203" si="9">(N159*75+N159*75*0.01+15000+4200+5000)/0.95</f>
         <v>74033.421052631587</v>
       </c>
       <c r="N159" s="2">
@@ -6304,7 +6294,7 @@
       </c>
       <c r="I174" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>65262.368421052633</v>
       </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1" t="s">
@@ -6315,10 +6305,10 @@
       </c>
       <c r="M174" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>65262.368421052633</v>
       </c>
       <c r="N174" s="2">
-        <v>478</v>
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.4">
@@ -6338,7 +6328,7 @@
       </c>
       <c r="I175" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>64465</v>
       </c>
       <c r="J175" s="1"/>
       <c r="K175" s="1" t="s">
@@ -6347,10 +6337,10 @@
       <c r="L175" s="1"/>
       <c r="M175" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>64465</v>
       </c>
       <c r="N175" s="2">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.4">
@@ -6370,7 +6360,7 @@
       </c>
       <c r="I176" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>63667.631578947374</v>
       </c>
       <c r="J176" s="1"/>
       <c r="K176" s="1" t="s">
@@ -6379,10 +6369,10 @@
       <c r="L176" s="1"/>
       <c r="M176" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>63667.631578947374</v>
       </c>
       <c r="N176" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.4">
@@ -6402,7 +6392,7 @@
       </c>
       <c r="I177" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>66059.736842105267</v>
       </c>
       <c r="J177" s="1"/>
       <c r="K177" s="1" t="s">
@@ -6411,10 +6401,10 @@
       <c r="L177" s="1"/>
       <c r="M177" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>66059.736842105267</v>
       </c>
       <c r="N177" s="2">
-        <v>478</v>
+        <v>509</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.4">
@@ -6434,7 +6424,7 @@
       </c>
       <c r="I178" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>66059.736842105267</v>
       </c>
       <c r="J178" s="1"/>
       <c r="K178" s="1" t="s">
@@ -6443,10 +6433,10 @@
       <c r="L178" s="1"/>
       <c r="M178" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>66059.736842105267</v>
       </c>
       <c r="N178" s="2">
-        <v>478</v>
+        <v>509</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.4">
@@ -6466,7 +6456,7 @@
       </c>
       <c r="I179" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>66857.105263157893</v>
       </c>
       <c r="J179" s="1"/>
       <c r="K179" s="1" t="s">
@@ -6475,10 +6465,10 @@
       <c r="L179" s="1"/>
       <c r="M179" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>66857.105263157893</v>
       </c>
       <c r="N179" s="2">
-        <v>478</v>
+        <v>519</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.4">
@@ -6498,7 +6488,7 @@
       </c>
       <c r="I180" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>69249.210526315786</v>
       </c>
       <c r="J180" s="1"/>
       <c r="K180" s="1" t="s">
@@ -6507,10 +6497,10 @@
       <c r="L180" s="1"/>
       <c r="M180" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>69249.210526315786</v>
       </c>
       <c r="N180" s="2">
-        <v>478</v>
+        <v>549</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.4">
@@ -6530,7 +6520,7 @@
       </c>
       <c r="I181" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J181" s="1"/>
       <c r="K181" s="1" t="s">
@@ -6539,10 +6529,10 @@
       <c r="L181" s="1"/>
       <c r="M181" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N181" s="2">
-        <v>478</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.4">
@@ -6562,7 +6552,7 @@
       </c>
       <c r="I182" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="J182" s="1"/>
       <c r="K182" s="1" t="s">
@@ -6571,10 +6561,10 @@
       <c r="L182" s="1"/>
       <c r="M182" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>71641.315789473694</v>
       </c>
       <c r="N182" s="2">
-        <v>478</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.4">
@@ -6594,7 +6584,7 @@
       </c>
       <c r="I183" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>75628.15789473684</v>
       </c>
       <c r="J183" s="1"/>
       <c r="K183" s="1" t="s">
@@ -6603,10 +6593,10 @@
       <c r="L183" s="1"/>
       <c r="M183" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>75628.15789473684</v>
       </c>
       <c r="N183" s="2">
-        <v>478</v>
+        <v>629</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.4">
@@ -6626,7 +6616,7 @@
       </c>
       <c r="I184" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>77222.894736842107</v>
       </c>
       <c r="J184" s="1"/>
       <c r="K184" s="1" t="s">
@@ -6635,10 +6625,10 @@
       <c r="L184" s="1"/>
       <c r="M184" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>77222.894736842107</v>
       </c>
       <c r="N184" s="2">
-        <v>478</v>
+        <v>649</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.4">
@@ -6658,7 +6648,7 @@
       </c>
       <c r="I185" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>76425.526315789481</v>
       </c>
       <c r="J185" s="1"/>
       <c r="K185" s="1" t="s">
@@ -6667,10 +6657,10 @@
       <c r="L185" s="1"/>
       <c r="M185" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>76425.526315789481</v>
       </c>
       <c r="N185" s="2">
-        <v>478</v>
+        <v>639</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.4">
@@ -6690,7 +6680,7 @@
       </c>
       <c r="I186" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>77222.894736842107</v>
       </c>
       <c r="J186" s="1"/>
       <c r="K186" s="1" t="s">
@@ -6699,10 +6689,10 @@
       <c r="L186" s="1"/>
       <c r="M186" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>77222.894736842107</v>
       </c>
       <c r="N186" s="2">
-        <v>478</v>
+        <v>649</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.4">
@@ -6722,7 +6712,7 @@
       </c>
       <c r="I187" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>74033.421052631587</v>
       </c>
       <c r="J187" s="1"/>
       <c r="K187" s="1" t="s">
@@ -6731,10 +6721,10 @@
       <c r="L187" s="1"/>
       <c r="M187" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>74033.421052631587</v>
       </c>
       <c r="N187" s="2">
-        <v>478</v>
+        <v>609</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.4">
@@ -6754,7 +6744,7 @@
       </c>
       <c r="I188" s="5">
         <f t="shared" si="8"/>
-        <v>63587.894736842107</v>
+        <v>74033.421052631587</v>
       </c>
       <c r="J188" s="1"/>
       <c r="K188" s="1" t="s">
@@ -6763,35 +6753,496 @@
       <c r="L188" s="1"/>
       <c r="M188" s="4">
         <f t="shared" si="9"/>
-        <v>63587.894736842107</v>
+        <v>74033.421052631587</v>
       </c>
       <c r="N188" s="2">
-        <v>478</v>
+        <v>609</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A189" s="11">
+      <c r="A189" s="1">
         <v>100188</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G189" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H189" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I189" s="5">
+        <f t="shared" si="8"/>
+        <v>86791.315789473694</v>
+      </c>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L189" s="1"/>
+      <c r="M189" s="4">
+        <f t="shared" si="9"/>
+        <v>86791.315789473694</v>
+      </c>
+      <c r="N189" s="2">
+        <v>769</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>100189</v>
       </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1">
+        <v>4</v>
+      </c>
+      <c r="H190" s="1">
+        <v>36</v>
+      </c>
+      <c r="I190" s="5">
+        <f t="shared" si="8"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L190" s="1"/>
+      <c r="M190" s="4">
+        <f t="shared" si="9"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="N190" s="2">
+        <v>599</v>
+      </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>100190</v>
       </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H191" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I191" s="5">
+        <f t="shared" si="8"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L191" s="1"/>
+      <c r="M191" s="4">
+        <f t="shared" si="9"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="N191" s="2">
+        <v>519</v>
+      </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A192" s="11">
+      <c r="A192" s="1">
         <v>100191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1">
+        <v>5</v>
+      </c>
+      <c r="H192" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I192" s="5">
+        <f t="shared" si="8"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L192" s="1"/>
+      <c r="M192" s="4">
+        <f t="shared" si="9"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="N192" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>100192</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H193" s="1">
+        <v>38</v>
+      </c>
+      <c r="I193" s="5">
+        <f t="shared" si="8"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L193" s="1"/>
+      <c r="M193" s="4">
+        <f t="shared" si="9"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="N193" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>100193</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1">
+        <v>6</v>
+      </c>
+      <c r="H194" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I194" s="5">
+        <f t="shared" si="8"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L194" s="1"/>
+      <c r="M194" s="4">
+        <f t="shared" si="9"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="N194" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>100194</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H195" s="1">
+        <v>39</v>
+      </c>
+      <c r="I195" s="5">
+        <f t="shared" si="8"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L195" s="1"/>
+      <c r="M195" s="4">
+        <f t="shared" si="9"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="N195" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>100195</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1">
+        <v>7</v>
+      </c>
+      <c r="H196" s="1">
+        <v>40</v>
+      </c>
+      <c r="I196" s="5">
+        <f t="shared" si="8"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L196" s="1"/>
+      <c r="M196" s="4">
+        <f t="shared" si="9"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="N196" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>100196</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H197" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I197" s="5">
+        <f t="shared" si="8"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L197" s="1"/>
+      <c r="M197" s="4">
+        <f t="shared" si="9"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="N197" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
+        <v>100197</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1">
+        <v>8</v>
+      </c>
+      <c r="H198" s="1">
+        <v>41</v>
+      </c>
+      <c r="I198" s="5">
+        <f t="shared" si="8"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L198" s="1"/>
+      <c r="M198" s="4">
+        <f t="shared" si="9"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="N198" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
+        <v>100198</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H199" s="1">
+        <v>42</v>
+      </c>
+      <c r="I199" s="5">
+        <f t="shared" si="8"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L199" s="1"/>
+      <c r="M199" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N199" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
+        <v>100199</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1">
+        <v>9</v>
+      </c>
+      <c r="H200" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I200" s="5">
+        <f t="shared" si="8"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L200" s="1"/>
+      <c r="M200" s="4">
+        <f t="shared" si="9"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="N200" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
+        <v>100200</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H201" s="1">
+        <v>43</v>
+      </c>
+      <c r="I201" s="5">
+        <f t="shared" si="8"/>
+        <v>77222.894736842107</v>
+      </c>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L201" s="1"/>
+      <c r="M201" s="4">
+        <f t="shared" si="9"/>
+        <v>77222.894736842107</v>
+      </c>
+      <c r="N201" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
+        <v>100201</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1">
+        <v>10</v>
+      </c>
+      <c r="H202" s="1">
+        <v>44</v>
+      </c>
+      <c r="I202" s="5">
+        <f t="shared" ref="I202:I203" si="10">M202</f>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L202" s="1"/>
+      <c r="M202" s="4">
+        <f t="shared" si="9"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="N202" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A203" s="1">
+        <v>100202</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H203" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I203" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L203" s="1"/>
+      <c r="M203" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N203" s="2">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F7CC03-9B80-436F-9EBC-BE439B59C5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC841AF-606B-4DCF-9DD7-D8450138EC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="88">
   <si>
     <t>model</t>
   </si>
@@ -294,10 +294,13 @@
 Вдохновлённые оригинальной моделью 1985 года, Air Jordan 1 Low предлагают чистый, классический образ, который одновременно знакомый и всегда свежий. Благодаря культовому дизайну, идеально сочетающемуся с любым стилем, эти кроссовки гарантируют, что ты всегда будешь выглядеть безупречно.</t>
   </si>
   <si>
-    <t>panda</t>
+    <t>100188_1 100188_2 100188_3 100188_4 100188_5</t>
   </si>
   <si>
-    <t>100188_1 100188_2 100188_3 100188_4 100188_5</t>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>100203_1 100203_2 100203_3 100203_4 100203_5 100203_6</t>
   </si>
 </sst>
 </file>
@@ -694,11 +697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N203"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R192" sqref="R192"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N205" sqref="N205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5806,7 +5809,7 @@
       </c>
       <c r="L159" s="1"/>
       <c r="M159" s="4">
-        <f t="shared" ref="M159:M203" si="9">(N159*75+N159*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M159:M218" si="9">(N159*75+N159*75*0.01+15000+4200+5000)/0.95</f>
         <v>74033.421052631587</v>
       </c>
       <c r="N159" s="2">
@@ -6759,7 +6762,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>100188</v>
       </c>
@@ -6769,10 +6772,10 @@
         <v>38</v>
       </c>
       <c r="E189" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="G189" s="1">
         <v>3.5</v>
@@ -6788,7 +6791,9 @@
       <c r="K189" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L189" s="1"/>
+      <c r="L189" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="M189" s="4">
         <f t="shared" si="9"/>
         <v>86791.315789473694</v>
@@ -7197,7 +7202,7 @@
         <v>44</v>
       </c>
       <c r="I202" s="5">
-        <f t="shared" ref="I202:I203" si="10">M202</f>
+        <f t="shared" ref="I202:I218" si="10">M202</f>
         <v>72438.68421052632</v>
       </c>
       <c r="J202" s="1"/>
@@ -7242,6 +7247,387 @@
         <v>74033.421052631587</v>
       </c>
       <c r="N203" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A204" s="1">
+        <v>100203</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G204" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H204" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I204" s="5">
+        <f t="shared" si="10"/>
+        <v>62072.894736842107</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L204" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M204" s="4">
+        <f t="shared" si="9"/>
+        <v>62072.894736842107</v>
+      </c>
+      <c r="N204" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A205" s="1">
+        <v>100204</v>
+      </c>
+      <c r="G205" s="1">
+        <v>4</v>
+      </c>
+      <c r="H205" s="1">
+        <v>36</v>
+      </c>
+      <c r="I205" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M205" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N205" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A206" s="1">
+        <v>100205</v>
+      </c>
+      <c r="G206" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H206" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I206" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M206" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N206" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A207" s="1">
+        <v>100206</v>
+      </c>
+      <c r="G207" s="1">
+        <v>5</v>
+      </c>
+      <c r="H207" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I207" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M207" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N207" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A208" s="1">
+        <v>100207</v>
+      </c>
+      <c r="G208" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H208" s="1">
+        <v>38</v>
+      </c>
+      <c r="I208" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M208" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N208" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A209" s="1">
+        <v>100208</v>
+      </c>
+      <c r="G209" s="1">
+        <v>6</v>
+      </c>
+      <c r="H209" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I209" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M209" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N209" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A210" s="1">
+        <v>100209</v>
+      </c>
+      <c r="G210" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H210" s="1">
+        <v>39</v>
+      </c>
+      <c r="I210" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M210" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N210" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A211" s="1">
+        <v>100210</v>
+      </c>
+      <c r="G211" s="1">
+        <v>7</v>
+      </c>
+      <c r="H211" s="1">
+        <v>40</v>
+      </c>
+      <c r="I211" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M211" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N211" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A212" s="1">
+        <v>100211</v>
+      </c>
+      <c r="G212" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H212" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I212" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M212" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N212" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A213" s="1">
+        <v>100212</v>
+      </c>
+      <c r="G213" s="1">
+        <v>8</v>
+      </c>
+      <c r="H213" s="1">
+        <v>41</v>
+      </c>
+      <c r="I213" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M213" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N213" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A214" s="1">
+        <v>100213</v>
+      </c>
+      <c r="G214" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H214" s="1">
+        <v>42</v>
+      </c>
+      <c r="I214" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M214" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N214" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A215" s="1">
+        <v>100214</v>
+      </c>
+      <c r="G215" s="1">
+        <v>9</v>
+      </c>
+      <c r="H215" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I215" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M215" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N215" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A216" s="1">
+        <v>100215</v>
+      </c>
+      <c r="G216" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H216" s="1">
+        <v>43</v>
+      </c>
+      <c r="I216" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M216" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N216" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G217" s="1">
+        <v>10</v>
+      </c>
+      <c r="H217" s="1">
+        <v>44</v>
+      </c>
+      <c r="I217" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M217" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N217" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G218" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H218" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I218" s="5">
+        <f t="shared" si="10"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M218" s="4">
+        <f t="shared" si="9"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N218" s="2">
         <v>609</v>
       </c>
     </row>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC841AF-606B-4DCF-9DD7-D8450138EC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AA05C2-8999-40E6-9639-B692AC56FBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="91">
   <si>
     <t>model</t>
   </si>
@@ -302,6 +302,16 @@
   <si>
     <t>100203_1 100203_2 100203_3 100203_4 100203_5 100203_6</t>
   </si>
+  <si>
+    <t>Dunk SB Pro</t>
+  </si>
+  <si>
+    <t>100218_1 100218_2 100218_3 100218_4 100218_5 100218_6</t>
+  </si>
+  <si>
+    <t>Классикаға әрқашан сенуге болады. Dunk Low өзіне тән аңызға айналған түстік стилін премиум материалдармен және жұмсақ ішкі қабатпен үйлестіріп, ерекше жайлылық береді. Мүмкіндіктер шексіз — Dunks-ыңды қалай киесің?
+На классику всегда можно положиться. Dunk Low сочетает свой легендарный цветовой стиль с премиальными материалами и мягкой подкладкой, обеспечивая комфорт нового уровня. Возможности безграничны — как будешь носить свои Dunks?</t>
+  </si>
 </sst>
 </file>
 
@@ -336,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -359,11 +369,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,6 +415,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,11 +723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N218"/>
+  <dimension ref="A1:N238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N205" sqref="N205"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q220" sqref="Q220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5809,7 +5835,7 @@
       </c>
       <c r="L159" s="1"/>
       <c r="M159" s="4">
-        <f t="shared" ref="M159:M218" si="9">(N159*75+N159*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M159:M222" si="9">(N159*75+N159*75*0.01+15000+4200+5000)/0.95</f>
         <v>74033.421052631587</v>
       </c>
       <c r="N159" s="2">
@@ -7202,7 +7228,7 @@
         <v>44</v>
       </c>
       <c r="I202" s="5">
-        <f t="shared" ref="I202:I218" si="10">M202</f>
+        <f t="shared" ref="I202:I233" si="10">M202</f>
         <v>72438.68421052632</v>
       </c>
       <c r="J202" s="1"/>
@@ -7254,13 +7280,15 @@
       <c r="A204" s="1">
         <v>100203</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E204" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F204" s="2" t="s">
+      <c r="F204" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G204" s="1">
@@ -7273,6 +7301,7 @@
         <f t="shared" si="10"/>
         <v>62072.894736842107</v>
       </c>
+      <c r="J204" s="1"/>
       <c r="K204" s="1" t="s">
         <v>25</v>
       </c>
@@ -7291,6 +7320,11 @@
       <c r="A205" s="1">
         <v>100204</v>
       </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
       <c r="G205" s="1">
         <v>4</v>
       </c>
@@ -7301,9 +7335,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J205" s="1"/>
       <c r="K205" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L205" s="1"/>
       <c r="M205" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7316,6 +7352,11 @@
       <c r="A206" s="1">
         <v>100205</v>
       </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
       <c r="G206" s="1">
         <v>4.5</v>
       </c>
@@ -7326,9 +7367,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J206" s="1"/>
       <c r="K206" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L206" s="1"/>
       <c r="M206" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7341,6 +7384,11 @@
       <c r="A207" s="1">
         <v>100206</v>
       </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
       <c r="G207" s="1">
         <v>5</v>
       </c>
@@ -7351,9 +7399,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J207" s="1"/>
       <c r="K207" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L207" s="1"/>
       <c r="M207" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7366,6 +7416,11 @@
       <c r="A208" s="1">
         <v>100207</v>
       </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
       <c r="G208" s="1">
         <v>5.5</v>
       </c>
@@ -7376,9 +7431,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J208" s="1"/>
       <c r="K208" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L208" s="1"/>
       <c r="M208" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7391,6 +7448,11 @@
       <c r="A209" s="1">
         <v>100208</v>
       </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
       <c r="G209" s="1">
         <v>6</v>
       </c>
@@ -7401,9 +7463,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J209" s="1"/>
       <c r="K209" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L209" s="1"/>
       <c r="M209" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7416,6 +7480,11 @@
       <c r="A210" s="1">
         <v>100209</v>
       </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
       <c r="G210" s="1">
         <v>6.5</v>
       </c>
@@ -7426,9 +7495,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J210" s="1"/>
       <c r="K210" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L210" s="1"/>
       <c r="M210" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7441,6 +7512,11 @@
       <c r="A211" s="1">
         <v>100210</v>
       </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
       <c r="G211" s="1">
         <v>7</v>
       </c>
@@ -7451,9 +7527,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J211" s="1"/>
       <c r="K211" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L211" s="1"/>
       <c r="M211" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7466,6 +7544,11 @@
       <c r="A212" s="1">
         <v>100211</v>
       </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
       <c r="G212" s="1">
         <v>7.5</v>
       </c>
@@ -7476,9 +7559,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J212" s="1"/>
       <c r="K212" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L212" s="1"/>
       <c r="M212" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7491,6 +7576,11 @@
       <c r="A213" s="1">
         <v>100212</v>
       </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
       <c r="G213" s="1">
         <v>8</v>
       </c>
@@ -7501,9 +7591,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J213" s="1"/>
       <c r="K213" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L213" s="1"/>
       <c r="M213" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7516,6 +7608,11 @@
       <c r="A214" s="1">
         <v>100213</v>
       </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
       <c r="G214" s="1">
         <v>8.5</v>
       </c>
@@ -7526,9 +7623,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J214" s="1"/>
       <c r="K214" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L214" s="1"/>
       <c r="M214" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7541,6 +7640,11 @@
       <c r="A215" s="1">
         <v>100214</v>
       </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
       <c r="G215" s="1">
         <v>9</v>
       </c>
@@ -7551,9 +7655,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J215" s="1"/>
       <c r="K215" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L215" s="1"/>
       <c r="M215" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7566,6 +7672,11 @@
       <c r="A216" s="1">
         <v>100215</v>
       </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
       <c r="G216" s="1">
         <v>9.5</v>
       </c>
@@ -7576,9 +7687,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J216" s="1"/>
       <c r="K216" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L216" s="1"/>
       <c r="M216" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7588,6 +7701,14 @@
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A217" s="1">
+        <v>100216</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
       <c r="G217" s="1">
         <v>10</v>
       </c>
@@ -7598,9 +7719,11 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J217" s="1"/>
       <c r="K217" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L217" s="1"/>
       <c r="M217" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
@@ -7610,6 +7733,14 @@
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A218" s="1">
+        <v>100217</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
       <c r="G218" s="1">
         <v>10.5</v>
       </c>
@@ -7620,15 +7751,532 @@
         <f t="shared" si="10"/>
         <v>74033.421052631587</v>
       </c>
+      <c r="J218" s="1"/>
       <c r="K218" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L218" s="1"/>
       <c r="M218" s="4">
         <f t="shared" si="9"/>
         <v>74033.421052631587</v>
       </c>
       <c r="N218" s="2">
         <v>609</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A219" s="1">
+        <v>100218</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G219" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H219" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I219" s="5">
+        <f t="shared" si="10"/>
+        <v>88386.052631578947</v>
+      </c>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L219" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M219" s="4">
+        <f t="shared" si="9"/>
+        <v>88386.052631578947</v>
+      </c>
+      <c r="N219" s="2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A220" s="1">
+        <v>100219</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1">
+        <v>4</v>
+      </c>
+      <c r="H220" s="1">
+        <v>36</v>
+      </c>
+      <c r="I220" s="5">
+        <f t="shared" si="10"/>
+        <v>60478.157894736847</v>
+      </c>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L220" s="1"/>
+      <c r="M220" s="4">
+        <f t="shared" si="9"/>
+        <v>60478.157894736847</v>
+      </c>
+      <c r="N220" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A221" s="1">
+        <v>100220</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H221" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I221" s="5">
+        <f t="shared" si="10"/>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L221" s="1"/>
+      <c r="M221" s="4">
+        <f t="shared" si="9"/>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="N221" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A222" s="1">
+        <v>100221</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1">
+        <v>5</v>
+      </c>
+      <c r="H222" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I222" s="5">
+        <f t="shared" si="10"/>
+        <v>65262.368421052633</v>
+      </c>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L222" s="1"/>
+      <c r="M222" s="4">
+        <f t="shared" si="9"/>
+        <v>65262.368421052633</v>
+      </c>
+      <c r="N222" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A223" s="1">
+        <v>100222</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H223" s="1">
+        <v>38</v>
+      </c>
+      <c r="I223" s="5">
+        <f t="shared" si="10"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L223" s="1"/>
+      <c r="M223" s="4">
+        <f t="shared" ref="M223:M233" si="11">(N223*75+N223*75*0.01+15000+4200+5000)/0.95</f>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="N223" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A224" s="1">
+        <v>100223</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1">
+        <v>6</v>
+      </c>
+      <c r="H224" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I224" s="5">
+        <f t="shared" si="10"/>
+        <v>78020.263157894748</v>
+      </c>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L224" s="1"/>
+      <c r="M224" s="4">
+        <f t="shared" si="11"/>
+        <v>78020.263157894748</v>
+      </c>
+      <c r="N224" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A225" s="1">
+        <v>100224</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H225" s="1">
+        <v>39</v>
+      </c>
+      <c r="I225" s="5">
+        <f t="shared" si="10"/>
+        <v>89183.421052631587</v>
+      </c>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L225" s="1"/>
+      <c r="M225" s="4">
+        <f t="shared" si="11"/>
+        <v>89183.421052631587</v>
+      </c>
+      <c r="N225" s="2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A226" s="1">
+        <v>100225</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1">
+        <v>7</v>
+      </c>
+      <c r="H226" s="1">
+        <v>40</v>
+      </c>
+      <c r="I226" s="5">
+        <f t="shared" si="10"/>
+        <v>112307.10526315789</v>
+      </c>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L226" s="1"/>
+      <c r="M226" s="4">
+        <f t="shared" si="11"/>
+        <v>112307.10526315789</v>
+      </c>
+      <c r="N226" s="2">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A227" s="1">
+        <v>100226</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H227" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I227" s="5">
+        <f t="shared" si="10"/>
+        <v>101143.94736842105</v>
+      </c>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L227" s="1"/>
+      <c r="M227" s="4">
+        <f t="shared" si="11"/>
+        <v>101143.94736842105</v>
+      </c>
+      <c r="N227" s="2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A228" s="1">
+        <v>100227</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1">
+        <v>8</v>
+      </c>
+      <c r="H228" s="1">
+        <v>41</v>
+      </c>
+      <c r="I228" s="5">
+        <f t="shared" si="10"/>
+        <v>100346.57894736843</v>
+      </c>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L228" s="1"/>
+      <c r="M228" s="4">
+        <f t="shared" si="11"/>
+        <v>100346.57894736843</v>
+      </c>
+      <c r="N228" s="2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A229" s="1">
+        <v>100228</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H229" s="1">
+        <v>42</v>
+      </c>
+      <c r="I229" s="5">
+        <f t="shared" si="10"/>
+        <v>101143.94736842105</v>
+      </c>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L229" s="1"/>
+      <c r="M229" s="4">
+        <f t="shared" si="11"/>
+        <v>101143.94736842105</v>
+      </c>
+      <c r="N229" s="2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A230" s="1">
+        <v>100229</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1">
+        <v>9</v>
+      </c>
+      <c r="H230" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I230" s="5">
+        <f t="shared" si="10"/>
+        <v>97954.473684210534</v>
+      </c>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L230" s="1"/>
+      <c r="M230" s="4">
+        <f t="shared" si="11"/>
+        <v>97954.473684210534</v>
+      </c>
+      <c r="N230" s="2">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A231" s="1">
+        <v>100230</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H231" s="1">
+        <v>43</v>
+      </c>
+      <c r="I231" s="5">
+        <f t="shared" si="10"/>
+        <v>105130.78947368421</v>
+      </c>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L231" s="1"/>
+      <c r="M231" s="4">
+        <f t="shared" si="11"/>
+        <v>105130.78947368421</v>
+      </c>
+      <c r="N231" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A232" s="1">
+        <v>100231</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1">
+        <v>10</v>
+      </c>
+      <c r="H232" s="1">
+        <v>44</v>
+      </c>
+      <c r="I232" s="5">
+        <f t="shared" si="10"/>
+        <v>88386.052631578947</v>
+      </c>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L232" s="1"/>
+      <c r="M232" s="4">
+        <f t="shared" si="11"/>
+        <v>88386.052631578947</v>
+      </c>
+      <c r="N232" s="2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A233" s="1">
+        <v>100232</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H233" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I233" s="5">
+        <f t="shared" si="10"/>
+        <v>89980.789473684214</v>
+      </c>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L233" s="1"/>
+      <c r="M233" s="4">
+        <f t="shared" si="11"/>
+        <v>89980.789473684214</v>
+      </c>
+      <c r="N233" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A234" s="11">
+        <v>100233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A235" s="1">
+        <v>100234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A236" s="1">
+        <v>100235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A237" s="1">
+        <v>100236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A238" s="1">
+        <v>100237</v>
       </c>
     </row>
   </sheetData>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AA05C2-8999-40E6-9639-B692AC56FBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEE386C-B00F-4165-BE49-0D5D00329103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="94">
   <si>
     <t>model</t>
   </si>
@@ -303,14 +303,23 @@
     <t>100203_1 100203_2 100203_3 100203_4 100203_5 100203_6</t>
   </si>
   <si>
-    <t>Dunk SB Pro</t>
-  </si>
-  <si>
     <t>100218_1 100218_2 100218_3 100218_4 100218_5 100218_6</t>
   </si>
   <si>
     <t>Классикаға әрқашан сенуге болады. Dunk Low өзіне тән аңызға айналған түстік стилін премиум материалдармен және жұмсақ ішкі қабатпен үйлестіріп, ерекше жайлылық береді. Мүмкіндіктер шексіз — Dunks-ыңды қалай киесің?
 На классику всегда можно положиться. Dunk Low сочетает свой легендарный цветовой стиль с премиальными материалами и мягкой подкладкой, обеспечивая комфорт нового уровня. Возможности безграничны — как будешь носить свои Dunks?</t>
+  </si>
+  <si>
+    <t>Dunk SB Low Pro</t>
+  </si>
+  <si>
+    <t>100233_1 100233_2 100233_3 100233_4 100233_5 100233_6</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>100248_1 100248_2 100248_3 100248_4 100248_5 100248_6</t>
   </si>
 </sst>
 </file>
@@ -723,11 +732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q220" sqref="Q220"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N264" sqref="N264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7228,7 +7237,7 @@
         <v>44</v>
       </c>
       <c r="I202" s="5">
-        <f t="shared" ref="I202:I233" si="10">M202</f>
+        <f t="shared" ref="I202:I256" si="10">M202</f>
         <v>72438.68421052632</v>
       </c>
       <c r="J202" s="1"/>
@@ -7770,7 +7779,7 @@
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>38</v>
@@ -7779,7 +7788,7 @@
         <v>62</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G219" s="1">
         <v>3.5</v>
@@ -7796,7 +7805,7 @@
         <v>25</v>
       </c>
       <c r="L219" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M219" s="4">
         <f t="shared" si="9"/>
@@ -7927,7 +7936,7 @@
       </c>
       <c r="L223" s="1"/>
       <c r="M223" s="4">
-        <f t="shared" ref="M223:M233" si="11">(N223*75+N223*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M223:M263" si="11">(N223*75+N223*75*0.01+15000+4200+5000)/0.95</f>
         <v>67654.473684210534</v>
       </c>
       <c r="N223" s="2">
@@ -8254,29 +8263,986 @@
         <v>809</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A234" s="11">
+    <row r="234" spans="1:14" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A234" s="1">
         <v>100233</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G234" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H234" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I234" s="5">
+        <f t="shared" si="10"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L234" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M234" s="4">
+        <f t="shared" si="11"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="N234" s="2">
+        <v>599</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>100234</v>
       </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1">
+        <v>4</v>
+      </c>
+      <c r="H235" s="1">
+        <v>36</v>
+      </c>
+      <c r="I235" s="5">
+        <f t="shared" si="10"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L235" s="1"/>
+      <c r="M235" s="4">
+        <f t="shared" si="11"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="N235" s="2">
+        <v>599</v>
+      </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>100235</v>
       </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H236" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I236" s="5">
+        <f t="shared" si="10"/>
+        <v>75628.15789473684</v>
+      </c>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L236" s="1"/>
+      <c r="M236" s="4">
+        <f t="shared" si="11"/>
+        <v>75628.15789473684</v>
+      </c>
+      <c r="N236" s="2">
+        <v>629</v>
+      </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>100236</v>
       </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1">
+        <v>5</v>
+      </c>
+      <c r="H237" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I237" s="5">
+        <f t="shared" si="10"/>
+        <v>97157.105263157893</v>
+      </c>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L237" s="1"/>
+      <c r="M237" s="4">
+        <f t="shared" si="11"/>
+        <v>97157.105263157893</v>
+      </c>
+      <c r="N237" s="2">
+        <v>899</v>
+      </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>100237</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H238" s="1">
+        <v>38</v>
+      </c>
+      <c r="I238" s="5">
+        <f t="shared" si="10"/>
+        <v>84399.210526315786</v>
+      </c>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L238" s="1"/>
+      <c r="M238" s="4">
+        <f t="shared" si="11"/>
+        <v>84399.210526315786</v>
+      </c>
+      <c r="N238" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A239" s="1">
+        <v>100238</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1">
+        <v>6</v>
+      </c>
+      <c r="H239" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I239" s="5">
+        <f t="shared" si="10"/>
+        <v>70843.947368421053</v>
+      </c>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L239" s="1"/>
+      <c r="M239" s="4">
+        <f t="shared" si="11"/>
+        <v>70843.947368421053</v>
+      </c>
+      <c r="N239" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A240" s="1">
+        <v>100239</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H240" s="1">
+        <v>39</v>
+      </c>
+      <c r="I240" s="5">
+        <f t="shared" si="10"/>
+        <v>89980.789473684214</v>
+      </c>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L240" s="1"/>
+      <c r="M240" s="4">
+        <f t="shared" si="11"/>
+        <v>89980.789473684214</v>
+      </c>
+      <c r="N240" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A241" s="1">
+        <v>100240</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1">
+        <v>7</v>
+      </c>
+      <c r="H241" s="1">
+        <v>40</v>
+      </c>
+      <c r="I241" s="5">
+        <f t="shared" si="10"/>
+        <v>95801.578947368427</v>
+      </c>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L241" s="1"/>
+      <c r="M241" s="4">
+        <f t="shared" si="11"/>
+        <v>95801.578947368427</v>
+      </c>
+      <c r="N241" s="2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A242" s="1">
+        <v>100241</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H242" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I242" s="5">
+        <f t="shared" si="10"/>
+        <v>93170.263157894748</v>
+      </c>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L242" s="1"/>
+      <c r="M242" s="4">
+        <f t="shared" si="11"/>
+        <v>93170.263157894748</v>
+      </c>
+      <c r="N242" s="2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A243" s="1">
+        <v>100242</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1">
+        <v>8</v>
+      </c>
+      <c r="H243" s="1">
+        <v>41</v>
+      </c>
+      <c r="I243" s="5">
+        <f t="shared" si="10"/>
+        <v>106725.52631578948</v>
+      </c>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L243" s="1"/>
+      <c r="M243" s="4">
+        <f t="shared" si="11"/>
+        <v>106725.52631578948</v>
+      </c>
+      <c r="N243" s="2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A244" s="1">
+        <v>100243</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H244" s="1">
+        <v>42</v>
+      </c>
+      <c r="I244" s="5">
+        <f t="shared" si="10"/>
+        <v>85993.947368421053</v>
+      </c>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L244" s="1"/>
+      <c r="M244" s="4">
+        <f t="shared" si="11"/>
+        <v>85993.947368421053</v>
+      </c>
+      <c r="N244" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A245" s="1">
+        <v>100244</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1">
+        <v>9</v>
+      </c>
+      <c r="H245" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I245" s="5">
+        <f t="shared" si="10"/>
+        <v>79615</v>
+      </c>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L245" s="1"/>
+      <c r="M245" s="4">
+        <f t="shared" si="11"/>
+        <v>79615</v>
+      </c>
+      <c r="N245" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A246" s="1">
+        <v>100245</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H246" s="1">
+        <v>43</v>
+      </c>
+      <c r="I246" s="5">
+        <f t="shared" si="10"/>
+        <v>76425.526315789481</v>
+      </c>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L246" s="1"/>
+      <c r="M246" s="4">
+        <f t="shared" si="11"/>
+        <v>76425.526315789481</v>
+      </c>
+      <c r="N246" s="2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A247" s="1">
+        <v>100246</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1">
+        <v>10</v>
+      </c>
+      <c r="H247" s="1">
+        <v>44</v>
+      </c>
+      <c r="I247" s="5">
+        <f t="shared" si="10"/>
+        <v>70843.947368421053</v>
+      </c>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L247" s="1"/>
+      <c r="M247" s="4">
+        <f t="shared" si="11"/>
+        <v>70843.947368421053</v>
+      </c>
+      <c r="N247" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A248" s="1">
+        <v>100247</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H248" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I248" s="5">
+        <f t="shared" si="10"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L248" s="1"/>
+      <c r="M248" s="4">
+        <f t="shared" si="11"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="N248" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A249" s="1">
+        <v>100248</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G249" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H249" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I249" s="5">
+        <f t="shared" si="10"/>
+        <v>89980.789473684214</v>
+      </c>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L249" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M249" s="4">
+        <f t="shared" si="11"/>
+        <v>89980.789473684214</v>
+      </c>
+      <c r="N249" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A250" s="1">
+        <v>100249</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1">
+        <v>4</v>
+      </c>
+      <c r="H250" s="1">
+        <v>36</v>
+      </c>
+      <c r="I250" s="5">
+        <f t="shared" si="10"/>
+        <v>93967.631578947374</v>
+      </c>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L250" s="1"/>
+      <c r="M250" s="4">
+        <f t="shared" si="11"/>
+        <v>93967.631578947374</v>
+      </c>
+      <c r="N250" s="2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A251" s="1">
+        <v>100250</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H251" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I251" s="5">
+        <f t="shared" si="10"/>
+        <v>86791.315789473694</v>
+      </c>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L251" s="1"/>
+      <c r="M251" s="4">
+        <f t="shared" si="11"/>
+        <v>86791.315789473694</v>
+      </c>
+      <c r="N251" s="2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A252" s="1">
+        <v>100251</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1">
+        <v>5</v>
+      </c>
+      <c r="H252" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I252" s="5">
+        <f t="shared" si="10"/>
+        <v>120280.78947368421</v>
+      </c>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L252" s="1"/>
+      <c r="M252" s="4">
+        <f t="shared" si="11"/>
+        <v>120280.78947368421</v>
+      </c>
+      <c r="N252" s="2">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A253" s="1">
+        <v>100252</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H253" s="1">
+        <v>38</v>
+      </c>
+      <c r="I253" s="5">
+        <f t="shared" si="10"/>
+        <v>94765</v>
+      </c>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L253" s="1"/>
+      <c r="M253" s="4">
+        <f t="shared" si="11"/>
+        <v>94765</v>
+      </c>
+      <c r="N253" s="2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A254" s="1">
+        <v>100253</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1">
+        <v>6</v>
+      </c>
+      <c r="H254" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I254" s="5">
+        <f t="shared" si="10"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L254" s="1"/>
+      <c r="M254" s="4">
+        <f t="shared" si="11"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="N254" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A255" s="1">
+        <v>100254</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H255" s="1">
+        <v>39</v>
+      </c>
+      <c r="I255" s="5">
+        <f t="shared" si="10"/>
+        <v>87588.68421052632</v>
+      </c>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L255" s="1"/>
+      <c r="M255" s="4">
+        <f t="shared" si="11"/>
+        <v>87588.68421052632</v>
+      </c>
+      <c r="N255" s="2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A256" s="1">
+        <v>100255</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1">
+        <v>7</v>
+      </c>
+      <c r="H256" s="1">
+        <v>40</v>
+      </c>
+      <c r="I256" s="5">
+        <f>M256</f>
+        <v>100346.57894736843</v>
+      </c>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L256" s="1"/>
+      <c r="M256" s="4">
+        <f t="shared" si="11"/>
+        <v>100346.57894736843</v>
+      </c>
+      <c r="N256" s="2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A257" s="1">
+        <v>100256</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H257" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I257" s="5">
+        <f t="shared" ref="I257:I263" si="12">M257</f>
+        <v>101941.31578947369</v>
+      </c>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L257" s="1"/>
+      <c r="M257" s="4">
+        <f t="shared" si="11"/>
+        <v>101941.31578947369</v>
+      </c>
+      <c r="N257" s="2">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A258" s="1">
+        <v>100257</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1">
+        <v>8</v>
+      </c>
+      <c r="H258" s="1">
+        <v>41</v>
+      </c>
+      <c r="I258" s="5">
+        <f t="shared" si="12"/>
+        <v>97555.789473684214</v>
+      </c>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L258" s="1"/>
+      <c r="M258" s="4">
+        <f t="shared" si="11"/>
+        <v>97555.789473684214</v>
+      </c>
+      <c r="N258" s="2">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A259" s="1">
+        <v>100258</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H259" s="1">
+        <v>42</v>
+      </c>
+      <c r="I259" s="5">
+        <f t="shared" si="12"/>
+        <v>93967.631578947374</v>
+      </c>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L259" s="1"/>
+      <c r="M259" s="4">
+        <f t="shared" si="11"/>
+        <v>93967.631578947374</v>
+      </c>
+      <c r="N259" s="2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A260" s="1">
+        <v>100259</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1">
+        <v>9</v>
+      </c>
+      <c r="H260" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I260" s="5">
+        <f t="shared" si="12"/>
+        <v>105130.78947368421</v>
+      </c>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L260" s="1"/>
+      <c r="M260" s="4">
+        <f t="shared" si="11"/>
+        <v>105130.78947368421</v>
+      </c>
+      <c r="N260" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A261" s="1">
+        <v>100260</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H261" s="1">
+        <v>43</v>
+      </c>
+      <c r="I261" s="5">
+        <f t="shared" si="12"/>
+        <v>92372.894736842107</v>
+      </c>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L261" s="1"/>
+      <c r="M261" s="4">
+        <f t="shared" si="11"/>
+        <v>92372.894736842107</v>
+      </c>
+      <c r="N261" s="2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A262" s="1">
+        <v>100261</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1">
+        <v>10</v>
+      </c>
+      <c r="H262" s="1">
+        <v>44</v>
+      </c>
+      <c r="I262" s="5">
+        <f t="shared" si="12"/>
+        <v>81927.368421052641</v>
+      </c>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L262" s="1"/>
+      <c r="M262" s="4">
+        <f t="shared" si="11"/>
+        <v>81927.368421052641</v>
+      </c>
+      <c r="N262" s="2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A263" s="1">
+        <v>100262</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H263" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I263" s="5">
+        <f t="shared" si="12"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L263" s="1"/>
+      <c r="M263" s="4">
+        <f t="shared" si="11"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="N263" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A264" s="11">
+        <v>100263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A265" s="1">
+        <v>100264</v>
       </c>
     </row>
   </sheetData>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEE386C-B00F-4165-BE49-0D5D00329103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7596D223-D216-47F2-AE4B-DD9320E28D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="101">
   <si>
     <t>model</t>
   </si>
@@ -321,6 +321,27 @@
   <si>
     <t>100248_1 100248_2 100248_3 100248_4 100248_5 100248_6</t>
   </si>
+  <si>
+    <t>Dunk Low Retro</t>
+  </si>
+  <si>
+    <t>100263_1 100263_2 100263_3 100263_4 100263_5 100263_6</t>
+  </si>
+  <si>
+    <t>100273_1 100273_2 100273_3 100273_4 100273_5 100273_6</t>
+  </si>
+  <si>
+    <t>100283_1 100283_2 100283_3 100283_4 100283_5 100283_6</t>
+  </si>
+  <si>
+    <t>100293_1 100293_2 100293_3 100293_4 100293_5 100293_6</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>100303_1 100303_2 100303_3 100303_4 100303_5 100303_6</t>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -391,11 +412,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,6 +460,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,11 +769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N265"/>
+  <dimension ref="A1:N330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N264" sqref="N264"/>
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R308" sqref="R308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7936,7 +7973,7 @@
       </c>
       <c r="L223" s="1"/>
       <c r="M223" s="4">
-        <f t="shared" ref="M223:M263" si="11">(N223*75+N223*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M223:M286" si="11">(N223*75+N223*75*0.01+15000+4200+5000)/0.95</f>
         <v>67654.473684210534</v>
       </c>
       <c r="N223" s="2">
@@ -9027,7 +9064,7 @@
         <v>40.5</v>
       </c>
       <c r="I257" s="5">
-        <f t="shared" ref="I257:I263" si="12">M257</f>
+        <f t="shared" ref="I257:I290" si="12">M257</f>
         <v>101941.31578947369</v>
       </c>
       <c r="J257" s="1"/>
@@ -9235,14 +9272,1731 @@
         <v>699</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A264" s="11">
+    <row r="264" spans="1:14" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A264" s="1">
         <v>100263</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G264" s="1">
+        <v>6</v>
+      </c>
+      <c r="H264" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I264" s="5">
+        <f t="shared" si="12"/>
+        <v>93170.263157894748</v>
+      </c>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L264" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M264" s="4">
+        <f t="shared" si="11"/>
+        <v>93170.263157894748</v>
+      </c>
+      <c r="N264" s="2">
+        <v>849</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>100264</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H265" s="1">
+        <v>39</v>
+      </c>
+      <c r="I265" s="5">
+        <f t="shared" si="12"/>
+        <v>96359.736842105267</v>
+      </c>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L265" s="1"/>
+      <c r="M265" s="4">
+        <f t="shared" si="11"/>
+        <v>96359.736842105267</v>
+      </c>
+      <c r="N265" s="2">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A266" s="1">
+        <v>100265</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1">
+        <v>7</v>
+      </c>
+      <c r="H266" s="1">
+        <v>40</v>
+      </c>
+      <c r="I266" s="5">
+        <f t="shared" si="12"/>
+        <v>77222.894736842107</v>
+      </c>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L266" s="1"/>
+      <c r="M266" s="4">
+        <f t="shared" si="11"/>
+        <v>77222.894736842107</v>
+      </c>
+      <c r="N266" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A267" s="1">
+        <v>100266</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H267" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I267" s="5">
+        <f t="shared" si="12"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L267" s="1"/>
+      <c r="M267" s="4">
+        <f t="shared" si="11"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="N267" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A268" s="1">
+        <v>100267</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1">
+        <v>8</v>
+      </c>
+      <c r="H268" s="1">
+        <v>41</v>
+      </c>
+      <c r="I268" s="5">
+        <f t="shared" si="12"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L268" s="1"/>
+      <c r="M268" s="4">
+        <f t="shared" si="11"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="N268" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A269" s="1">
+        <v>100268</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H269" s="1">
+        <v>42</v>
+      </c>
+      <c r="I269" s="5">
+        <f t="shared" si="12"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L269" s="1"/>
+      <c r="M269" s="4">
+        <f t="shared" si="11"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="N269" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A270" s="1">
+        <v>100269</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1">
+        <v>9</v>
+      </c>
+      <c r="H270" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I270" s="5">
+        <f t="shared" si="12"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L270" s="1"/>
+      <c r="M270" s="4">
+        <f t="shared" si="11"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N270" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A271" s="1">
+        <v>100270</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H271" s="1">
+        <v>43</v>
+      </c>
+      <c r="I271" s="5">
+        <f t="shared" si="12"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L271" s="1"/>
+      <c r="M271" s="4">
+        <f t="shared" si="11"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="N271" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A272" s="1">
+        <v>100271</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1">
+        <v>10</v>
+      </c>
+      <c r="H272" s="1">
+        <v>44</v>
+      </c>
+      <c r="I272" s="5">
+        <f t="shared" si="12"/>
+        <v>62790.526315789473</v>
+      </c>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L272" s="1"/>
+      <c r="M272" s="4">
+        <f t="shared" si="11"/>
+        <v>62790.526315789473</v>
+      </c>
+      <c r="N272" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A273" s="1">
+        <v>100272</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H273" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I273" s="5">
+        <f t="shared" si="12"/>
+        <v>62790.526315789473</v>
+      </c>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L273" s="1"/>
+      <c r="M273" s="4">
+        <f t="shared" si="11"/>
+        <v>62790.526315789473</v>
+      </c>
+      <c r="N273" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A274" s="1">
+        <v>100273</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G274" s="1">
+        <v>6</v>
+      </c>
+      <c r="H274" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I274" s="5">
+        <f t="shared" si="12"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L274" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M274" s="4">
+        <f t="shared" si="11"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="N274" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A275" s="1">
+        <v>100274</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H275" s="1">
+        <v>39</v>
+      </c>
+      <c r="I275" s="5">
+        <f t="shared" si="12"/>
+        <v>75628.15789473684</v>
+      </c>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L275" s="1"/>
+      <c r="M275" s="4">
+        <f t="shared" si="11"/>
+        <v>75628.15789473684</v>
+      </c>
+      <c r="N275" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A276" s="1">
+        <v>100275</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1">
+        <v>7</v>
+      </c>
+      <c r="H276" s="1">
+        <v>40</v>
+      </c>
+      <c r="I276" s="5">
+        <f t="shared" si="12"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L276" s="1"/>
+      <c r="M276" s="4">
+        <f t="shared" si="11"/>
+        <v>72438.68421052632</v>
+      </c>
+      <c r="N276" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A277" s="1">
+        <v>100276</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H277" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I277" s="5">
+        <f t="shared" si="12"/>
+        <v>69249.210526315786</v>
+      </c>
+      <c r="J277" s="1"/>
+      <c r="K277" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L277" s="1"/>
+      <c r="M277" s="4">
+        <f t="shared" si="11"/>
+        <v>69249.210526315786</v>
+      </c>
+      <c r="N277" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A278" s="1">
+        <v>100277</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1">
+        <v>8</v>
+      </c>
+      <c r="H278" s="1">
+        <v>41</v>
+      </c>
+      <c r="I278" s="5">
+        <f t="shared" si="12"/>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L278" s="1"/>
+      <c r="M278" s="4">
+        <f t="shared" si="11"/>
+        <v>66059.736842105267</v>
+      </c>
+      <c r="N278" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A279" s="1">
+        <v>100278</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H279" s="1">
+        <v>42</v>
+      </c>
+      <c r="I279" s="5">
+        <f t="shared" si="12"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L279" s="1"/>
+      <c r="M279" s="4">
+        <f t="shared" si="11"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="N279" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A280" s="1">
+        <v>100279</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1">
+        <v>9</v>
+      </c>
+      <c r="H280" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I280" s="5">
+        <f t="shared" si="12"/>
+        <v>65262.368421052633</v>
+      </c>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L280" s="1"/>
+      <c r="M280" s="4">
+        <f t="shared" si="11"/>
+        <v>65262.368421052633</v>
+      </c>
+      <c r="N280" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A281" s="1">
+        <v>100280</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H281" s="1">
+        <v>43</v>
+      </c>
+      <c r="I281" s="5">
+        <f t="shared" si="12"/>
+        <v>80412.368421052641</v>
+      </c>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L281" s="1"/>
+      <c r="M281" s="4">
+        <f t="shared" si="11"/>
+        <v>80412.368421052641</v>
+      </c>
+      <c r="N281" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A282" s="1">
+        <v>100281</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1">
+        <v>10</v>
+      </c>
+      <c r="H282" s="1">
+        <v>44</v>
+      </c>
+      <c r="I282" s="5">
+        <f t="shared" si="12"/>
+        <v>62790.526315789473</v>
+      </c>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L282" s="1"/>
+      <c r="M282" s="4">
+        <f t="shared" si="11"/>
+        <v>62790.526315789473</v>
+      </c>
+      <c r="N282" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A283" s="1">
+        <v>100282</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H283" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I283" s="5">
+        <f t="shared" si="12"/>
+        <v>61036.315789473687</v>
+      </c>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L283" s="1"/>
+      <c r="M283" s="4">
+        <f t="shared" si="11"/>
+        <v>61036.315789473687</v>
+      </c>
+      <c r="N283" s="2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A284" s="1">
+        <v>100283</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G284" s="1">
+        <v>6</v>
+      </c>
+      <c r="H284" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I284" s="5">
+        <f t="shared" si="12"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L284" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M284" s="4">
+        <f t="shared" si="11"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N284" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A285" s="1">
+        <v>100284</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H285" s="1">
+        <v>39</v>
+      </c>
+      <c r="I285" s="5">
+        <f t="shared" si="12"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L285" s="1"/>
+      <c r="M285" s="4">
+        <f t="shared" si="11"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="N285" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A286" s="1">
+        <v>100285</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1">
+        <v>7</v>
+      </c>
+      <c r="H286" s="1">
+        <v>40</v>
+      </c>
+      <c r="I286" s="5">
+        <f t="shared" si="12"/>
+        <v>83601.84210526316</v>
+      </c>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L286" s="1"/>
+      <c r="M286" s="4">
+        <f t="shared" si="11"/>
+        <v>83601.84210526316</v>
+      </c>
+      <c r="N286" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A287" s="12">
+        <v>100286</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H287" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I287" s="5">
+        <f t="shared" si="12"/>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L287" s="1"/>
+      <c r="M287" s="4">
+        <f t="shared" ref="M287:M313" si="13">(N287*75+N287*75*0.01+15000+4200+5000)/0.95</f>
+        <v>74033.421052631587</v>
+      </c>
+      <c r="N287" s="2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A288" s="1">
+        <v>100287</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1">
+        <v>8</v>
+      </c>
+      <c r="H288" s="1">
+        <v>41</v>
+      </c>
+      <c r="I288" s="5">
+        <f t="shared" si="12"/>
+        <v>70046.578947368427</v>
+      </c>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L288" s="1"/>
+      <c r="M288" s="4">
+        <f t="shared" si="13"/>
+        <v>70046.578947368427</v>
+      </c>
+      <c r="N288" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A289" s="1">
+        <v>100288</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H289" s="1">
+        <v>42</v>
+      </c>
+      <c r="I289" s="5">
+        <f t="shared" si="12"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L289" s="1"/>
+      <c r="M289" s="4">
+        <f t="shared" si="13"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="N289" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A290" s="1">
+        <v>100289</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1">
+        <v>9</v>
+      </c>
+      <c r="H290" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I290" s="5">
+        <f t="shared" si="12"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L290" s="1"/>
+      <c r="M290" s="4">
+        <f t="shared" si="13"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="N290" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A291" s="12">
+        <v>100290</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H291" s="1">
+        <v>43</v>
+      </c>
+      <c r="I291" s="5">
+        <f>M291</f>
+        <v>85196.578947368427</v>
+      </c>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L291" s="1"/>
+      <c r="M291" s="4">
+        <f t="shared" si="13"/>
+        <v>85196.578947368427</v>
+      </c>
+      <c r="N291" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A292" s="1">
+        <v>100291</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1">
+        <v>10</v>
+      </c>
+      <c r="H292" s="1">
+        <v>44</v>
+      </c>
+      <c r="I292" s="5">
+        <f t="shared" ref="I292:I313" si="14">M292</f>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L292" s="1"/>
+      <c r="M292" s="4">
+        <f t="shared" si="13"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="N292" s="2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A293" s="1">
+        <v>100292</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H293" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I293" s="5">
+        <f t="shared" si="14"/>
+        <v>85196.578947368427</v>
+      </c>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L293" s="1"/>
+      <c r="M293" s="4">
+        <f t="shared" si="13"/>
+        <v>85196.578947368427</v>
+      </c>
+      <c r="N293" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A294" s="1">
+        <v>100293</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G294" s="1">
+        <v>6</v>
+      </c>
+      <c r="H294" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I294" s="5">
+        <f t="shared" si="14"/>
+        <v>85196.578947368427</v>
+      </c>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L294" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M294" s="4">
+        <f t="shared" si="13"/>
+        <v>85196.578947368427</v>
+      </c>
+      <c r="N294" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A295" s="1">
+        <v>100294</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H295" s="1">
+        <v>39</v>
+      </c>
+      <c r="I295" s="5">
+        <f t="shared" si="14"/>
+        <v>160946.57894736843</v>
+      </c>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L295" s="1"/>
+      <c r="M295" s="4">
+        <f t="shared" si="13"/>
+        <v>160946.57894736843</v>
+      </c>
+      <c r="N295" s="2">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A296" s="1">
+        <v>100295</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1">
+        <v>7</v>
+      </c>
+      <c r="H296" s="1">
+        <v>40</v>
+      </c>
+      <c r="I296" s="5">
+        <f t="shared" si="14"/>
+        <v>129051.84210526316</v>
+      </c>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L296" s="1"/>
+      <c r="M296" s="4">
+        <f t="shared" si="13"/>
+        <v>129051.84210526316</v>
+      </c>
+      <c r="N296" s="2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A297" s="1">
+        <v>100296</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H297" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I297" s="5">
+        <f t="shared" si="14"/>
+        <v>95562.368421052641</v>
+      </c>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L297" s="1"/>
+      <c r="M297" s="4">
+        <f t="shared" si="13"/>
+        <v>95562.368421052641</v>
+      </c>
+      <c r="N297" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A298" s="1">
+        <v>100297</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1">
+        <v>8</v>
+      </c>
+      <c r="H298" s="1">
+        <v>41</v>
+      </c>
+      <c r="I298" s="5">
+        <f t="shared" si="14"/>
+        <v>93170.263157894748</v>
+      </c>
+      <c r="J298" s="1"/>
+      <c r="K298" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L298" s="1"/>
+      <c r="M298" s="4">
+        <f t="shared" si="13"/>
+        <v>93170.263157894748</v>
+      </c>
+      <c r="N298" s="2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A299" s="1">
+        <v>100298</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H299" s="1">
+        <v>42</v>
+      </c>
+      <c r="I299" s="5">
+        <f t="shared" si="14"/>
+        <v>83601.84210526316</v>
+      </c>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L299" s="1"/>
+      <c r="M299" s="4">
+        <f t="shared" si="13"/>
+        <v>83601.84210526316</v>
+      </c>
+      <c r="N299" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A300" s="1">
+        <v>100299</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1">
+        <v>9</v>
+      </c>
+      <c r="H300" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I300" s="5">
+        <f t="shared" si="14"/>
+        <v>88386.052631578947</v>
+      </c>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L300" s="1"/>
+      <c r="M300" s="4">
+        <f t="shared" si="13"/>
+        <v>88386.052631578947</v>
+      </c>
+      <c r="N300" s="2">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A301" s="1">
+        <v>100300</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H301" s="1">
+        <v>43</v>
+      </c>
+      <c r="I301" s="5">
+        <f t="shared" si="14"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L301" s="1"/>
+      <c r="M301" s="4">
+        <f t="shared" si="13"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="N301" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A302" s="1">
+        <v>100301</v>
+      </c>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1">
+        <v>10</v>
+      </c>
+      <c r="H302" s="1">
+        <v>44</v>
+      </c>
+      <c r="I302" s="5">
+        <f t="shared" si="14"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L302" s="1"/>
+      <c r="M302" s="4">
+        <f t="shared" si="13"/>
+        <v>81209.736842105267</v>
+      </c>
+      <c r="N302" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A303" s="1">
+        <v>100302</v>
+      </c>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H303" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I303" s="5">
+        <f t="shared" si="14"/>
+        <v>68930.263157894733</v>
+      </c>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L303" s="1"/>
+      <c r="M303" s="4">
+        <f t="shared" si="13"/>
+        <v>68930.263157894733</v>
+      </c>
+      <c r="N303" s="2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="A304" s="1">
+        <v>100303</v>
+      </c>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G304" s="1">
+        <v>6</v>
+      </c>
+      <c r="H304" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I304" s="5">
+        <f t="shared" si="14"/>
+        <v>109915</v>
+      </c>
+      <c r="J304" s="1"/>
+      <c r="K304" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L304" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M304" s="4">
+        <f t="shared" si="13"/>
+        <v>109915</v>
+      </c>
+      <c r="N304" s="2">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A305" s="1">
+        <v>100304</v>
+      </c>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H305" s="1">
+        <v>39</v>
+      </c>
+      <c r="I305" s="5">
+        <f t="shared" si="14"/>
+        <v>104333.42105263159</v>
+      </c>
+      <c r="J305" s="1"/>
+      <c r="K305" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L305" s="1"/>
+      <c r="M305" s="4">
+        <f t="shared" si="13"/>
+        <v>104333.42105263159</v>
+      </c>
+      <c r="N305" s="2">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A306" s="1">
+        <v>100305</v>
+      </c>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1">
+        <v>7</v>
+      </c>
+      <c r="H306" s="1">
+        <v>40</v>
+      </c>
+      <c r="I306" s="5">
+        <f t="shared" si="14"/>
+        <v>84399.210526315786</v>
+      </c>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L306" s="1"/>
+      <c r="M306" s="4">
+        <f t="shared" si="13"/>
+        <v>84399.210526315786</v>
+      </c>
+      <c r="N306" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A307" s="1">
+        <v>100306</v>
+      </c>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H307" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I307" s="5">
+        <f t="shared" si="14"/>
+        <v>76425.526315789481</v>
+      </c>
+      <c r="J307" s="1"/>
+      <c r="K307" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L307" s="1"/>
+      <c r="M307" s="4">
+        <f t="shared" si="13"/>
+        <v>76425.526315789481</v>
+      </c>
+      <c r="N307" s="2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A308" s="1">
+        <v>100307</v>
+      </c>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1">
+        <v>8</v>
+      </c>
+      <c r="H308" s="1">
+        <v>41</v>
+      </c>
+      <c r="I308" s="5">
+        <f t="shared" si="14"/>
+        <v>70046.578947368427</v>
+      </c>
+      <c r="J308" s="1"/>
+      <c r="K308" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L308" s="1"/>
+      <c r="M308" s="4">
+        <f t="shared" si="13"/>
+        <v>70046.578947368427</v>
+      </c>
+      <c r="N308" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A309" s="1">
+        <v>100308</v>
+      </c>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H309" s="1">
+        <v>42</v>
+      </c>
+      <c r="I309" s="5">
+        <f t="shared" si="14"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="J309" s="1"/>
+      <c r="K309" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L309" s="1"/>
+      <c r="M309" s="4">
+        <f t="shared" si="13"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="N309" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A310" s="1">
+        <v>100309</v>
+      </c>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1">
+        <v>9</v>
+      </c>
+      <c r="H310" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="I310" s="5">
+        <f t="shared" si="14"/>
+        <v>70046.578947368427</v>
+      </c>
+      <c r="J310" s="1"/>
+      <c r="K310" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L310" s="1"/>
+      <c r="M310" s="4">
+        <f t="shared" si="13"/>
+        <v>70046.578947368427</v>
+      </c>
+      <c r="N310" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A311" s="1">
+        <v>100310</v>
+      </c>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H311" s="1">
+        <v>43</v>
+      </c>
+      <c r="I311" s="5">
+        <f t="shared" si="14"/>
+        <v>70843.947368421053</v>
+      </c>
+      <c r="J311" s="1"/>
+      <c r="K311" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L311" s="1"/>
+      <c r="M311" s="4">
+        <f t="shared" si="13"/>
+        <v>70843.947368421053</v>
+      </c>
+      <c r="N311" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A312" s="1">
+        <v>100311</v>
+      </c>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1">
+        <v>10</v>
+      </c>
+      <c r="H312" s="1">
+        <v>44</v>
+      </c>
+      <c r="I312" s="5">
+        <f t="shared" si="14"/>
+        <v>80412.368421052641</v>
+      </c>
+      <c r="J312" s="1"/>
+      <c r="K312" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L312" s="1"/>
+      <c r="M312" s="4">
+        <f t="shared" si="13"/>
+        <v>80412.368421052641</v>
+      </c>
+      <c r="N312" s="2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A313" s="1">
+        <v>100312</v>
+      </c>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="H313" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I313" s="5">
+        <f t="shared" si="14"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="J313" s="1"/>
+      <c r="K313" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L313" s="1"/>
+      <c r="M313" s="4">
+        <f t="shared" si="13"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="N313" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A314" s="11">
+        <v>100313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A315" s="1">
+        <v>100314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A316" s="1">
+        <v>100315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A317" s="1">
+        <v>100316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A318" s="1">
+        <v>100317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A319" s="1">
+        <v>100318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A320" s="1">
+        <v>100319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A321" s="1">
+        <v>100320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A322" s="1">
+        <v>100321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A323" s="1">
+        <v>100322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A324" s="1">
+        <v>100323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A325" s="1">
+        <v>100324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A326" s="1">
+        <v>100325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A327" s="1">
+        <v>100326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A328" s="1">
+        <v>100327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A329" s="1">
+        <v>100328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A330" s="1">
+        <v>100329</v>
       </c>
     </row>
   </sheetData>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7596D223-D216-47F2-AE4B-DD9320E28D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA8E5A-6014-49DC-841E-0BE515D3CCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="106">
   <si>
     <t>model</t>
   </si>
@@ -342,6 +342,22 @@
   <si>
     <t>100303_1 100303_2 100303_3 100303_4 100303_5 100303_6</t>
   </si>
+  <si>
+    <t>Dunk</t>
+  </si>
+  <si>
+    <t>white/black</t>
+  </si>
+  <si>
+    <t>100313_1 100313_2 100313_3 100313_4 100313_5</t>
+  </si>
+  <si>
+    <t>100325_1 100325_2 100325_3 100325_4 100325_5</t>
+  </si>
+  <si>
+    <t>Бастапқыда баскетбол алаңына арналғанымен, кейін көше стилінің символына айналған 80-жылдардағы аңыз қайта оралды — мінсіз әрленген бөлшектермен және классикалық команда түстерімен. Өзінің танымал баскетбол стилінің арқасында Nike Dunk Low 80-жылдардың винтаж рухын қайта алып келеді, ал жұмсақ төмен жағындағы жағасы кез келген жерде жайлылық сыйлайды.
+Созданная для баскетбольной площадки, но ставшая уличной легендой, икона 80-х возвращается с идеально отполированными деталями и классическими командными цветами. Благодаря фирменному баскетбольному дизайну Nike Dunk Low приносит винтажный дух 80-х обратно на улицы, а мягкий низкий ворот обеспечивает комфорт, куда бы ты ни отправился.</t>
+  </si>
 </sst>
 </file>
 
@@ -429,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,18 +788,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50E1A44-280D-4411-9C01-14D3EB718FB5}">
-  <dimension ref="A1:N330"/>
+  <dimension ref="A1:N335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R308" sqref="R308"/>
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P331" sqref="P331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9.23046875" style="2"/>
     <col min="3" max="3" width="31.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.23046875" style="2"/>
+    <col min="4" max="4" width="9.23046875" style="2"/>
+    <col min="5" max="5" width="10.53515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.07421875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.4609375" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.61328125" style="2" bestFit="1" customWidth="1"/>
@@ -10059,7 +10079,7 @@
       </c>
       <c r="L287" s="1"/>
       <c r="M287" s="4">
-        <f t="shared" ref="M287:M313" si="13">(N287*75+N287*75*0.01+15000+4200+5000)/0.95</f>
+        <f t="shared" ref="M287:M335" si="13">(N287*75+N287*75*0.01+15000+4200+5000)/0.95</f>
         <v>74033.421052631587</v>
       </c>
       <c r="N287" s="2">
@@ -10210,7 +10230,7 @@
         <v>44</v>
       </c>
       <c r="I292" s="5">
-        <f t="shared" ref="I292:I313" si="14">M292</f>
+        <f t="shared" ref="I292:I335" si="14">M292</f>
         <v>74830.789473684214</v>
       </c>
       <c r="J292" s="1"/>
@@ -10914,89 +10934,645 @@
         <v>519</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A314" s="11">
+    <row r="314" spans="1:14" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A314" s="1">
         <v>100313</v>
+      </c>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G314" s="1">
+        <v>4</v>
+      </c>
+      <c r="H314" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="I314" s="5">
+        <f t="shared" si="14"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="J314" s="1"/>
+      <c r="K314" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L314" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M314" s="4">
+        <f t="shared" si="13"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="N314" s="2">
+        <v>519</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A315" s="1">
         <v>100314</v>
       </c>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H315" s="1">
+        <v>35</v>
+      </c>
+      <c r="I315" s="5">
+        <f t="shared" si="14"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="J315" s="1"/>
+      <c r="K315" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L315" s="1"/>
+      <c r="M315" s="4">
+        <f t="shared" si="13"/>
+        <v>66857.105263157893</v>
+      </c>
+      <c r="N315" s="2">
+        <v>519</v>
+      </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A316" s="1">
         <v>100315</v>
       </c>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1">
+        <v>5</v>
+      </c>
+      <c r="H316" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I316" s="5">
+        <f t="shared" si="14"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="J316" s="1"/>
+      <c r="K316" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L316" s="1"/>
+      <c r="M316" s="4">
+        <f t="shared" si="13"/>
+        <v>71641.315789473694</v>
+      </c>
+      <c r="N316" s="2">
+        <v>579</v>
+      </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A317" s="1">
         <v>100316</v>
       </c>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H317" s="1">
+        <v>36</v>
+      </c>
+      <c r="I317" s="5">
+        <f t="shared" si="14"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="J317" s="1"/>
+      <c r="K317" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L317" s="1"/>
+      <c r="M317" s="4">
+        <f t="shared" si="13"/>
+        <v>67654.473684210534</v>
+      </c>
+      <c r="N317" s="2">
+        <v>529</v>
+      </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A318" s="1">
         <v>100317</v>
       </c>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1">
+        <v>6</v>
+      </c>
+      <c r="H318" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I318" s="5">
+        <f t="shared" si="14"/>
+        <v>65262.368421052633</v>
+      </c>
+      <c r="J318" s="1"/>
+      <c r="K318" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L318" s="1"/>
+      <c r="M318" s="4">
+        <f t="shared" si="13"/>
+        <v>65262.368421052633</v>
+      </c>
+      <c r="N318" s="2">
+        <v>499</v>
+      </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A319" s="1">
         <v>100318</v>
       </c>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H319" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I319" s="5">
+        <f t="shared" si="14"/>
+        <v>64465</v>
+      </c>
+      <c r="J319" s="1"/>
+      <c r="K319" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L319" s="1"/>
+      <c r="M319" s="4">
+        <f t="shared" si="13"/>
+        <v>64465</v>
+      </c>
+      <c r="N319" s="2">
+        <v>489</v>
+      </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A320" s="1">
         <v>100319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1">
+        <v>7</v>
+      </c>
+      <c r="H320" s="1">
+        <v>38</v>
+      </c>
+      <c r="I320" s="5">
+        <f t="shared" si="14"/>
+        <v>64465</v>
+      </c>
+      <c r="J320" s="1"/>
+      <c r="K320" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L320" s="1"/>
+      <c r="M320" s="4">
+        <f t="shared" si="13"/>
+        <v>64465</v>
+      </c>
+      <c r="N320" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A321" s="1">
         <v>100320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H321" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I321" s="5">
+        <f t="shared" si="14"/>
+        <v>63667.631578947374</v>
+      </c>
+      <c r="J321" s="1"/>
+      <c r="K321" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L321" s="1"/>
+      <c r="M321" s="4">
+        <f t="shared" si="13"/>
+        <v>63667.631578947374</v>
+      </c>
+      <c r="N321" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A322" s="1">
         <v>100321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1">
+        <v>8</v>
+      </c>
+      <c r="H322" s="1">
+        <v>39</v>
+      </c>
+      <c r="I322" s="5">
+        <f t="shared" si="14"/>
+        <v>76425.526315789481</v>
+      </c>
+      <c r="J322" s="1"/>
+      <c r="K322" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L322" s="1"/>
+      <c r="M322" s="4">
+        <f t="shared" si="13"/>
+        <v>76425.526315789481</v>
+      </c>
+      <c r="N322" s="2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A323" s="1">
         <v>100322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+      <c r="G323" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H323" s="1">
+        <v>40</v>
+      </c>
+      <c r="I323" s="5">
+        <f t="shared" si="14"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="J323" s="1"/>
+      <c r="K323" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L323" s="1"/>
+      <c r="M323" s="4">
+        <f t="shared" si="13"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="N323" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A324" s="1">
         <v>100323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1">
+        <v>9</v>
+      </c>
+      <c r="H324" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I324" s="5">
+        <f t="shared" si="14"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="J324" s="1"/>
+      <c r="K324" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L324" s="1"/>
+      <c r="M324" s="4">
+        <f t="shared" si="13"/>
+        <v>73236.052631578947</v>
+      </c>
+      <c r="N324" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A325" s="1">
         <v>100324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A326" s="1">
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H325" s="1">
+        <v>41</v>
+      </c>
+      <c r="I325" s="5">
+        <f t="shared" si="14"/>
+        <v>79615</v>
+      </c>
+      <c r="J325" s="1"/>
+      <c r="K325" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L325" s="1"/>
+      <c r="M325" s="4">
+        <f t="shared" si="13"/>
+        <v>79615</v>
+      </c>
+      <c r="N325" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="A326" s="11">
         <v>100325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="D326" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G326" s="1">
+        <v>5</v>
+      </c>
+      <c r="H326" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I326" s="5">
+        <f t="shared" si="14"/>
+        <v>62870.26315789474</v>
+      </c>
+      <c r="K326" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L326" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M326" s="4">
+        <f t="shared" si="13"/>
+        <v>62870.26315789474</v>
+      </c>
+      <c r="N326" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A327" s="1">
         <v>100326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G327" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H327" s="1">
+        <v>36</v>
+      </c>
+      <c r="I327" s="5">
+        <f t="shared" si="14"/>
+        <v>61275.526315789473</v>
+      </c>
+      <c r="K327" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M327" s="4">
+        <f t="shared" si="13"/>
+        <v>61275.526315789473</v>
+      </c>
+      <c r="N327" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A328" s="1">
         <v>100327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G328" s="1">
+        <v>6</v>
+      </c>
+      <c r="H328" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="I328" s="5">
+        <f t="shared" si="14"/>
+        <v>61275.526315789473</v>
+      </c>
+      <c r="K328" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M328" s="4">
+        <f t="shared" si="13"/>
+        <v>61275.526315789473</v>
+      </c>
+      <c r="N328" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A329" s="1">
         <v>100328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G329" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H329" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="I329" s="5">
+        <f t="shared" si="14"/>
+        <v>69249.210526315786</v>
+      </c>
+      <c r="K329" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M329" s="4">
+        <f t="shared" si="13"/>
+        <v>69249.210526315786</v>
+      </c>
+      <c r="N329" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A330" s="1">
         <v>100329</v>
+      </c>
+      <c r="G330" s="1">
+        <v>7</v>
+      </c>
+      <c r="H330" s="1">
+        <v>38</v>
+      </c>
+      <c r="I330" s="5">
+        <f t="shared" si="14"/>
+        <v>67096.315789473694</v>
+      </c>
+      <c r="K330" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M330" s="4">
+        <f t="shared" si="13"/>
+        <v>67096.315789473694</v>
+      </c>
+      <c r="N330" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G331" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H331" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I331" s="5">
+        <f t="shared" si="14"/>
+        <v>62790.526315789473</v>
+      </c>
+      <c r="K331" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M331" s="4">
+        <f t="shared" si="13"/>
+        <v>62790.526315789473</v>
+      </c>
+      <c r="N331" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G332" s="1">
+        <v>8</v>
+      </c>
+      <c r="H332" s="1">
+        <v>39</v>
+      </c>
+      <c r="I332" s="5">
+        <f t="shared" si="14"/>
+        <v>63667.631578947374</v>
+      </c>
+      <c r="K332" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M332" s="4">
+        <f t="shared" si="13"/>
+        <v>63667.631578947374</v>
+      </c>
+      <c r="N332" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G333" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H333" s="1">
+        <v>40</v>
+      </c>
+      <c r="I333" s="5">
+        <f t="shared" si="14"/>
+        <v>64465</v>
+      </c>
+      <c r="K333" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M333" s="4">
+        <f t="shared" si="13"/>
+        <v>64465</v>
+      </c>
+      <c r="N333" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G334" s="1">
+        <v>9</v>
+      </c>
+      <c r="H334" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="I334" s="5">
+        <f t="shared" si="14"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="K334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M334" s="4">
+        <f t="shared" si="13"/>
+        <v>68451.84210526316</v>
+      </c>
+      <c r="N334" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="G335" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="H335" s="1">
+        <v>41</v>
+      </c>
+      <c r="I335" s="5">
+        <f t="shared" si="14"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="K335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M335" s="4">
+        <f t="shared" si="13"/>
+        <v>74830.789473684214</v>
+      </c>
+      <c r="N335" s="2">
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA8E5A-6014-49DC-841E-0BE515D3CCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE36EA-11B8-4163-9974-E52C919CD348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,8 +791,8 @@
   <dimension ref="A1:N335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P331" sqref="P331"/>
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F314" sqref="F314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/data/catalog.xlsx
+++ b/data/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\jmd_store_render\jmd_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE36EA-11B8-4163-9974-E52C919CD348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB91D6B-364F-4A91-A2D5-319288D0D585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -422,19 +422,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,12 +464,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,8 +772,8 @@
   <dimension ref="A1:N335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F314" sqref="F314"/>
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F340" sqref="F340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7294,7 +7275,7 @@
         <v>44</v>
       </c>
       <c r="I202" s="5">
-        <f t="shared" ref="I202:I256" si="10">M202</f>
+        <f t="shared" ref="I202:I255" si="10">M202</f>
         <v>72438.68421052632</v>
       </c>
       <c r="J202" s="1"/>
@@ -10055,7 +10036,7 @@
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A287" s="12">
+      <c r="A287" s="11">
         <v>100286</v>
       </c>
       <c r="B287" s="1"/>
@@ -10183,7 +10164,7 @@
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A291" s="12">
+      <c r="A291" s="11">
         <v>100290</v>
       </c>
       <c r="B291" s="1"/>
@@ -11329,16 +11310,18 @@
       </c>
     </row>
     <row r="326" spans="1:14" ht="247.75" x14ac:dyDescent="0.4">
-      <c r="A326" s="11">
+      <c r="A326" s="1">
         <v>100325</v>
       </c>
-      <c r="D326" s="2" t="s">
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E326" s="2" t="s">
+      <c r="E326" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F326" s="2" t="s">
+      <c r="F326" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G326" s="1">
@@ -11351,10 +11334,11 @@
         <f t="shared" si="14"/>
         <v>62870.26315789474</v>
       </c>
+      <c r="J326" s="1"/>
       <c r="K326" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L326" s="13" t="s">
+      <c r="L326" s="9" t="s">
         <v>105</v>
       </c>
       <c r="M326" s="4">
@@ -11369,6 +11353,11 @@
       <c r="A327" s="1">
         <v>100326</v>
       </c>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
       <c r="G327" s="1">
         <v>5.5</v>
       </c>
@@ -11379,9 +11368,11 @@
         <f t="shared" si="14"/>
         <v>61275.526315789473</v>
       </c>
+      <c r="J327" s="1"/>
       <c r="K327" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L327" s="1"/>
       <c r="M327" s="4">
         <f t="shared" si="13"/>
         <v>61275.526315789473</v>
@@ -11394,6 +11385,11 @@
       <c r="A328" s="1">
         <v>100327</v>
       </c>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
       <c r="G328" s="1">
         <v>6</v>
       </c>
@@ -11404,9 +11400,11 @@
         <f t="shared" si="14"/>
         <v>61275.526315789473</v>
       </c>
+      <c r="J328" s="1"/>
       <c r="K328" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L328" s="1"/>
       <c r="M328" s="4">
         <f t="shared" si="13"/>
         <v>61275.526315789473</v>
@@ -11419,6 +11417,11 @@
       <c r="A329" s="1">
         <v>100328</v>
       </c>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
       <c r="G329" s="1">
         <v>6.5</v>
       </c>
@@ -11429,9 +11432,11 @@
         <f t="shared" si="14"/>
         <v>69249.210526315786</v>
       </c>
+      <c r="J329" s="1"/>
       <c r="K329" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L329" s="1"/>
       <c r="M329" s="4">
         <f t="shared" si="13"/>
         <v>69249.210526315786</v>
@@ -11444,6 +11449,11 @@
       <c r="A330" s="1">
         <v>100329</v>
       </c>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
       <c r="G330" s="1">
         <v>7</v>
       </c>
@@ -11454,9 +11464,11 @@
         <f t="shared" si="14"/>
         <v>67096.315789473694</v>
       </c>
+      <c r="J330" s="1"/>
       <c r="K330" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L330" s="1"/>
       <c r="M330" s="4">
         <f t="shared" si="13"/>
         <v>67096.315789473694</v>
@@ -11466,6 +11478,14 @@
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A331" s="1">
+        <v>100330</v>
+      </c>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
       <c r="G331" s="1">
         <v>7.5</v>
       </c>
@@ -11476,9 +11496,11 @@
         <f t="shared" si="14"/>
         <v>62790.526315789473</v>
       </c>
+      <c r="J331" s="1"/>
       <c r="K331" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L331" s="1"/>
       <c r="M331" s="4">
         <f t="shared" si="13"/>
         <v>62790.526315789473</v>
@@ -11488,6 +11510,14 @@
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A332" s="1">
+        <v>100331</v>
+      </c>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
       <c r="G332" s="1">
         <v>8</v>
       </c>
@@ -11498,9 +11528,11 @@
         <f t="shared" si="14"/>
         <v>63667.631578947374</v>
       </c>
+      <c r="J332" s="1"/>
       <c r="K332" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L332" s="1"/>
       <c r="M332" s="4">
         <f t="shared" si="13"/>
         <v>63667.631578947374</v>
@@ -11510,6 +11542,14 @@
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A333" s="1">
+        <v>100332</v>
+      </c>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
       <c r="G333" s="1">
         <v>8.5</v>
       </c>
@@ -11520,9 +11560,11 @@
         <f t="shared" si="14"/>
         <v>64465</v>
       </c>
+      <c r="J333" s="1"/>
       <c r="K333" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L333" s="1"/>
       <c r="M333" s="4">
         <f t="shared" si="13"/>
         <v>64465</v>
@@ -11532,6 +11574,14 @@
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A334" s="1">
+        <v>100333</v>
+      </c>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
       <c r="G334" s="1">
         <v>9</v>
       </c>
@@ -11542,9 +11592,11 @@
         <f t="shared" si="14"/>
         <v>68451.84210526316</v>
       </c>
+      <c r="J334" s="1"/>
       <c r="K334" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L334" s="1"/>
       <c r="M334" s="4">
         <f t="shared" si="13"/>
         <v>68451.84210526316</v>
@@ -11554,6 +11606,14 @@
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A335" s="1">
+        <v>100334</v>
+      </c>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
       <c r="G335" s="1">
         <v>9.5</v>
       </c>
@@ -11564,9 +11624,11 @@
         <f t="shared" si="14"/>
         <v>74830.789473684214</v>
       </c>
+      <c r="J335" s="1"/>
       <c r="K335" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L335" s="1"/>
       <c r="M335" s="4">
         <f t="shared" si="13"/>
         <v>74830.789473684214</v>
@@ -11585,7 +11647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC76538-67CE-4574-A08C-7F9575FC0AF6}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
